--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,6 +14,7 @@
     <sheet name="teaching" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="awards" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="reviewer" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="skills" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -261,7 +262,10 @@
     <t xml:space="preserve">UC Santa Cruz, IMS-NOAA Fisheries Collaborative Program</t>
   </si>
   <si>
-    <t xml:space="preserve">* Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species, * Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS, * Acquired, cleaned, and analyzed data sets and visualized results, * Conducted statistical analyses including hypothesis testing, * Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness, * Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
   </si>
   <si>
     <t xml:space="preserve">Data Science Consultant</t>
@@ -270,7 +274,7 @@
     <t xml:space="preserve">Electrical Power Research Institute</t>
   </si>
   <si>
-    <t xml:space="preserve">* Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components, * Tech used: Python, git, * Worked closely with our stakeholder, presented results, and provided a white paper and source code, * The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
+    <t xml:space="preserve">Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components*Tech used: Python, git*Worked closely with our stakeholder, presented results, and provided a white paper and source code*The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
   </si>
   <si>
     <t xml:space="preserve">PhD Candidate</t>
@@ -279,7 +283,7 @@
     <t xml:space="preserve">SUNY–ESF</t>
   </si>
   <si>
-    <t xml:space="preserve">* Conducted statistical analyses, including regression, hypothesis testing, and non-metric multidimensional scaling, * Tech used: Python, Microsoft Office, * Visualized results and published in academic journals, * Presented findings to the public</t>
+    <t xml:space="preserve">Conducted statistical analyses, including regression, hypothesis testing, and non-metric multidimensional scaling*Tech used: Python, Microsoft Office*Visualized results and published in academic journals*Presented findings to the public</t>
   </si>
   <si>
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
@@ -288,6 +292,9 @@
     <t xml:space="preserve">Self-employeed</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Graduate Teaching Assistant</t>
   </si>
   <si>
@@ -505,6 +512,72 @@
   </si>
   <si>
     <t xml:space="preserve">Fisheries Management and Ecology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data preparation and visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">written and oral communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programming_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netlogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rstudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English (native fluency)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German (B2)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +590,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -550,6 +623,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -631,10 +709,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -648,6 +722,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,7 +854,7 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1179,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1142,12 +1220,11 @@
       <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E2" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1158,17 +1235,16 @@
         <v>44287</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1179,17 +1255,16 @@
         <v>43435</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
         <v>84</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1200,14 +1275,13 @@
         <v>44348</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1217,15 +1291,14 @@
       <c r="B6" s="7" t="n">
         <v>41760</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>87</v>
+      <c r="C6" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1236,14 +1309,13 @@
         <v>40391</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1254,14 +1326,13 @@
         <v>40391</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1272,14 +1343,13 @@
         <v>40148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1290,14 +1360,13 @@
         <v>40179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1308,14 +1377,13 @@
         <v>39965</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,14 +1394,13 @@
         <v>39661</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1344,14 +1411,13 @@
         <v>39203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1378,191 +1444,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4609375" defaultRowHeight="36" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="40.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="11" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="40.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="10" width="19.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="E2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="10" t="n">
         <v>2023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="E4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="10" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="10" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -1590,215 +1656,215 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="13" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="13" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="12" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="13" t="n">
+      <c r="A2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="13" t="n">
+      <c r="C3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="13" t="n">
+      <c r="C4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="12" t="n">
         <v>2013</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="13" t="n">
+      <c r="C5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>135</v>
+      <c r="E5" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D10" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="13" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D11" s="12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="13" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1829,97 +1895,97 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="13" t="n">
+      <c r="A2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="12" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="13" t="n">
+      <c r="A3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="13" t="n">
+      <c r="A4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="13" t="n">
+      <c r="A5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="13" t="n">
+      <c r="A6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="12" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="B7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="12" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="B8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1939,7 +2005,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1952,17 +2018,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,17 +2038,196 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components*Tech used: Python, git*Worked closely with our stakeholder, presented results, and provided a white paper and source code*The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
   </si>
   <si>
-    <t xml:space="preserve">PhD Candidate</t>
+    <t xml:space="preserve">Ph.D. Candidate</t>
   </si>
   <si>
     <t xml:space="preserve">SUNY–ESF</t>
@@ -590,7 +590,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -623,11 +623,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -672,7 +667,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -713,19 +708,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1178,8 +1169,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1444,191 +1435,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4609375" defaultRowHeight="36" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="40.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="10" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="40.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="6" width="19.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="6" t="n">
         <v>2023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="6" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="6" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="6" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="6" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="6" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="6" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -1656,214 +1647,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="12" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="10" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="10" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="10" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="10" t="n">
         <v>2013</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="10" t="n">
         <v>2014</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="10" t="n">
         <v>2012</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="10" t="n">
         <v>2013</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="10" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <v>2011</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="10" t="n">
         <v>2011</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <v>2011</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="10" t="n">
         <v>2007</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1891,101 +1882,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="57.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="10" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="10" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="10" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="10" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="10" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="10" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="10" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2012,42 +2003,42 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2069,164 +2060,164 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="28.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="11" t="s">
         <v>182</v>
       </c>
     </row>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -265,7 +265,23 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Data Science Consultant</t>
@@ -274,7 +290,23 @@
     <t xml:space="preserve">Electrical Power Research Institute</t>
   </si>
   <si>
-    <t xml:space="preserve">Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components*Tech used: Python, git*Worked closely with our stakeholder, presented results, and provided a white paper and source code*The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tech used: Python, git*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components*Worked closely with our stakeholder, presented results, and provided a white paper and source code*The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Candidate</t>
@@ -283,7 +315,23 @@
     <t xml:space="preserve">SUNY–ESF</t>
   </si>
   <si>
-    <t xml:space="preserve">Conducted statistical analyses, including regression, hypothesis testing, and non-metric multidimensional scaling*Tech used: Python, Microsoft Office*Visualized results and published in academic journals*Presented findings to the public</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tech used: Python, Microsoft Office*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Conducted statistical analyses, including regression, hypothesis testing, and non-metric multidimensional scaling*Visualized results and published in academic journals*Presented findings to the public</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
@@ -590,7 +638,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -623,6 +671,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -667,7 +720,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -701,6 +754,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,7 +1227,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1214,7 +1271,7 @@
       <c r="E2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1234,7 +1291,7 @@
       <c r="E3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1254,7 +1311,7 @@
       <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1282,7 +1339,7 @@
       <c r="B6" s="7" t="n">
         <v>41760</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1647,214 +1704,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="11" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <v>2013</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <v>2014</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="11" t="n">
         <v>2012</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <v>2013</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="11" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="11" t="n">
         <v>2007</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1882,101 +1939,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="57.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="57.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="11" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="11" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="11" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="11" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2003,42 +2060,42 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2066,158 +2123,158 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="28.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>182</v>
       </c>
     </row>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="183">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -265,23 +265,7 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
-    </r>
+    <t xml:space="preserve">Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS*Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
   </si>
   <si>
     <t xml:space="preserve">Data Science Consultant</t>
@@ -290,23 +274,7 @@
     <t xml:space="preserve">Electrical Power Research Institute</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tech used: Python, git*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components*Worked closely with our stakeholder, presented results, and provided a white paper and source code*The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
-    </r>
+    <t xml:space="preserve">Tech used: Python, git*Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components*Worked closely with our stakeholder, presented results, and provided a white paper and source code*The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Candidate</t>
@@ -315,23 +283,7 @@
     <t xml:space="preserve">SUNY–ESF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tech used: Python, Microsoft Office*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Conducted statistical analyses, including regression, hypothesis testing, and non-metric multidimensional scaling*Visualized results and published in academic journals*Presented findings to the public</t>
-    </r>
+    <t xml:space="preserve">Tech used: Python, Microsoft Office*Conducted statistical analyses, including regression, hypothesis testing, and non-metric multidimensional scaling*Visualized results and published in academic journals*Presented findings to the public</t>
   </si>
   <si>
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
@@ -346,7 +298,7 @@
     <t xml:space="preserve">Graduate Teaching Assistant</t>
   </si>
   <si>
-    <t xml:space="preserve">Technician</t>
+    <t xml:space="preserve">Laboratory Technician</t>
   </si>
   <si>
     <t xml:space="preserve">Hewson Laboratory, Cornell Universit</t>
@@ -359,9 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">Paleontological Research Institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory Technician</t>
   </si>
   <si>
     <t xml:space="preserve">Hairston Limnology Laboratory, Cornell University</t>
@@ -638,7 +587,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -671,11 +620,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -720,7 +664,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -754,10 +698,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,7 +843,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="C8 J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="43.2" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1227,7 +1167,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,7 +1211,7 @@
       <c r="E2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1291,7 +1231,7 @@
       <c r="E3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1311,7 +1251,7 @@
       <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1339,7 +1279,7 @@
       <c r="B6" s="7" t="n">
         <v>41760</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1408,10 +1348,10 @@
         <v>40179</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>88</v>
@@ -1425,10 +1365,10 @@
         <v>39965</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>88</v>
@@ -1442,10 +1382,10 @@
         <v>39661</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>88</v>
@@ -1459,10 +1399,10 @@
         <v>39203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>88</v>
@@ -1487,7 +1427,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="C8 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4609375" defaultRowHeight="36" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1501,19 +1441,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1521,22 +1461,22 @@
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>2023</v>
@@ -1544,22 +1484,22 @@
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>2018</v>
@@ -1567,22 +1507,22 @@
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2017</v>
@@ -1590,22 +1530,22 @@
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>2013</v>
@@ -1613,22 +1553,22 @@
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>2012</v>
@@ -1636,22 +1576,22 @@
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2012</v>
@@ -1659,22 +1599,22 @@
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>2012</v>
@@ -1699,220 +1639,220 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C8 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="11" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="10" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D3" s="10" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="11" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="10" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D10" s="10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="11" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D11" s="10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="11" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1934,106 +1874,106 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C8 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="57.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="57.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="11" t="n">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="11" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="10" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="11" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="11" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="11" t="n">
+      <c r="A8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2054,49 +1994,49 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="C8 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2118,164 +2058,164 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="C8 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="28.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="12" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>182</v>
+      <c r="B19" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="185">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -256,6 +256,9 @@
     <t xml:space="preserve">tasks_for_short</t>
   </si>
   <si>
+    <t xml:space="preserve">names_for_short</t>
+  </si>
+  <si>
     <t xml:space="preserve">Postdoctoral Scholar</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS*Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Scientist</t>
   </si>
   <si>
     <t xml:space="preserve">Data Science Consultant</t>
@@ -843,7 +849,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="C8 J10"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="G4 J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="43.2" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,10 +1170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1194,6 +1200,9 @@
       <c r="F1" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
@@ -1203,16 +1212,19 @@
         <v>45747</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1223,15 +1235,18 @@
         <v>44287</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1243,15 +1258,18 @@
         <v>43435</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1263,13 +1281,13 @@
         <v>44348</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1280,13 +1298,13 @@
         <v>41760</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1297,13 +1315,13 @@
         <v>40391</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1314,13 +1332,13 @@
         <v>40391</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1331,13 +1349,13 @@
         <v>40148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1348,13 +1366,13 @@
         <v>40179</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1365,13 +1383,13 @@
         <v>39965</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1382,13 +1400,13 @@
         <v>39661</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1399,13 +1417,13 @@
         <v>39203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1445,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="C8 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="G4 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4609375" defaultRowHeight="36" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1441,19 +1459,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1461,22 +1479,22 @@
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>2023</v>
@@ -1484,22 +1502,22 @@
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>2018</v>
@@ -1507,22 +1525,22 @@
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2017</v>
@@ -1530,22 +1548,22 @@
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>2013</v>
@@ -1553,22 +1571,22 @@
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>2012</v>
@@ -1576,22 +1594,22 @@
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2012</v>
@@ -1599,22 +1617,22 @@
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>2012</v>
@@ -1639,7 +1657,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C8 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G4 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,13 +1671,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>5</v>
@@ -1670,189 +1688,189 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>2012</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2013</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>2014</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>2012</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>2013</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2010</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>2007</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1892,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C8 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="G4 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1884,10 +1902,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>5</v>
@@ -1895,10 +1913,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>2014</v>
@@ -1906,10 +1924,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>2012</v>
@@ -1917,10 +1935,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>2011</v>
@@ -1928,10 +1946,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>2011</v>
@@ -1939,10 +1957,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>2005</v>
@@ -1950,10 +1968,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>2006</v>
@@ -1961,10 +1979,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="10" t="n">
         <v>2009</v>
@@ -1994,7 +2012,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="C8 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="G4 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2006,17 +2024,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,17 +2044,17 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2076,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="C8 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="G4 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2068,154 +2086,154 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t xml:space="preserve">German (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="1" sqref="G4 J10"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="43.2" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,7 +1175,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1445,7 +1448,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="G4 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4609375" defaultRowHeight="36" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1657,7 +1660,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G4 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1892,7 +1895,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="G4 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2012,7 +2015,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="G4 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2073,10 +2076,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="G4 B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2236,6 +2239,14 @@
         <v>183</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Postdoctoral Scholar</t>
   </si>
   <si>
-    <t xml:space="preserve">UC Santa Cruz, IMS-NOAA Fisheries Collaborative Program</t>
+    <t xml:space="preserve">UC Santa Cruz, IMS--NOAA Fisheries Collaborative Program</t>
   </si>
   <si>
     <t xml:space="preserve">TRUE</t>
@@ -1175,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2078,7 +2078,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -268,7 +268,7 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Tech used: R, Julia, Netlogo, Docker, bash, git, Quarto, QGIS*Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
+    <t xml:space="preserve">Tech used: R, Julia, Netlogo, VS Code, Docker, bash, git, Quarto, QGIS*Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
   </si>
   <si>
     <t xml:space="preserve">Research Scientist</t>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2243,7 +2243,7 @@
       <c r="A20" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="11" t="s">
         <v>175</v>
       </c>
     </row>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">Docker</t>
   </si>
   <si>
-    <t xml:space="preserve">VSCode</t>
+    <t xml:space="preserve">VS Code</t>
   </si>
   <si>
     <t xml:space="preserve">Rstudio</t>
@@ -1175,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2078,8 +2078,8 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,6 +15,7 @@
     <sheet name="awards" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="reviewer" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="skills" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="contact" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -268,7 +269,7 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Tech used: R, Julia, Netlogo, VS Code, Docker, bash, git, Quarto, QGIS*Designing an agent-based modeling toolkit for predicting environmental impacts on endangered species*Acquired, cleaned, and analyzed data sets and visualized results*Conducted statistical analyses including hypothesis testing*Developed predictive models using machine learning with a balanced focus on simplicity and effectiveness*Presented to stakeholders, wrote both technical and user-facing documentation, and published scientific articles</t>
+    <t xml:space="preserve">Developed an agent-based modeling toolkit to support policy planning around endangered species, enabling stakeholders to simulate ecological and economic tradeoffs.*Built end-to-end data workflows: data acquisition, cleaning, statistical analysis, and visualization in R, Julia, and Netlogo.*Created reproducible, containerized environments with Docker and Git, improving collaboration and deployment reliability.*Conducted hypothesis testing and machine learning to uncover predictors of ecological risk; balanced model interpretability with performance.*Authored technical documentation and presented findings to scientists, policymakers, and non-technical users.</t>
   </si>
   <si>
     <t xml:space="preserve">Research Scientist</t>
@@ -280,7 +281,7 @@
     <t xml:space="preserve">Electrical Power Research Institute</t>
   </si>
   <si>
-    <t xml:space="preserve">Tech used: Python, git*Developed a data-cleaning and machine-learning pipeline to predict damage in critical industrial components*Worked closely with our stakeholder, presented results, and provided a white paper and source code*The error of 7% for our models was a significant improvement over the industry benchmark of 15%</t>
+    <t xml:space="preserve">Designed and implemented a machine-learning pipeline in Python to predict structural damage in industrial components.*Delivered a complete package: white paper, source code, and model outputs, achieving a 7% error rate—beating industry benchmarks by over 50%.*Collaborated directly with engineering stakeholders to translate technical findings into actionable recommendations.</t>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Candidate</t>
@@ -289,7 +290,10 @@
     <t xml:space="preserve">SUNY–ESF</t>
   </si>
   <si>
-    <t xml:space="preserve">Tech used: Python, Microsoft Office*Conducted statistical analyses, including regression, hypothesis testing, and non-metric multidimensional scaling*Visualized results and published in academic journals*Presented findings to the public</t>
+    <t xml:space="preserve">Applied multivariate statistics (e.g., NMDS, regression) to ecological field data to identify drivers of biodiversity change.*Visualized complex datasets and published findings in peer-reviewed journals.*Presented research results to both academic and public audiences, demonstrating strong science communication skills.*Used Python and R for data analysis and reproducibility, supporting open science initiatives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ph.D. Researcher</t>
   </si>
   <si>
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
@@ -520,13 +524,7 @@
     <t xml:space="preserve">skill</t>
   </si>
   <si>
-    <t xml:space="preserve">Statistical analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data preparation and visualization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">written and oral communication</t>
+    <t xml:space="preserve">order</t>
   </si>
   <si>
     <t xml:space="preserve">R</t>
@@ -550,10 +548,10 @@
     <t xml:space="preserve">SQL</t>
   </si>
   <si>
-    <t xml:space="preserve">git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tech</t>
+    <t xml:space="preserve">Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool</t>
   </si>
   <si>
     <t xml:space="preserve">Docker</t>
@@ -584,6 +582,72 @@
   </si>
   <si>
     <t xml:space="preserve">Microsoft Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predictive modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothesis testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agent-based modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross-functional communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stakeholder engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lützenstraße 2, 10711 Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+49 176 544 06201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ted.w.hermann@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mrguyperson.quarto.pub</t>
   </si>
 </sst>
 </file>
@@ -596,7 +660,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -628,6 +692,19 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -673,7 +750,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -722,7 +799,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,6 +816,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -852,7 +942,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="43.2" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1175,8 +1265,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1273,7 +1363,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1284,13 +1374,13 @@
         <v>44348</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1301,13 +1391,13 @@
         <v>41760</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1318,13 +1408,13 @@
         <v>40391</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1335,13 +1425,13 @@
         <v>40391</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1352,13 +1442,13 @@
         <v>40148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1369,13 +1459,13 @@
         <v>40179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1386,13 +1476,13 @@
         <v>39965</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1403,13 +1493,13 @@
         <v>39661</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1420,13 +1510,13 @@
         <v>39203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1462,19 +1552,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1482,22 +1572,22 @@
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>2023</v>
@@ -1505,22 +1595,22 @@
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>2018</v>
@@ -1528,22 +1618,22 @@
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2017</v>
@@ -1551,22 +1641,22 @@
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>2013</v>
@@ -1574,22 +1664,22 @@
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>2012</v>
@@ -1597,22 +1687,22 @@
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2012</v>
@@ -1620,22 +1710,22 @@
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>2012</v>
@@ -1674,13 +1764,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>5</v>
@@ -1694,16 +1784,16 @@
         <v>86</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,16 +1801,16 @@
         <v>86</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>2012</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,16 +1818,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>2013</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,16 +1835,16 @@
         <v>86</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>2014</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,16 +1852,16 @@
         <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>2012</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,16 +1869,16 @@
         <v>86</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>2013</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,16 +1886,16 @@
         <v>86</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>2010</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,16 +1903,16 @@
         <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,16 +1920,16 @@
         <v>86</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,33 +1937,33 @@
         <v>86</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>2007</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1905,10 +1995,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>5</v>
@@ -1916,10 +2006,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>2014</v>
@@ -1927,10 +2017,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>2012</v>
@@ -1938,10 +2028,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>2011</v>
@@ -1949,10 +2039,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>2011</v>
@@ -1960,10 +2050,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>2005</v>
@@ -1971,10 +2061,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>2006</v>
@@ -1982,10 +2072,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="10" t="n">
         <v>2009</v>
@@ -2027,17 +2117,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,17 +2137,17 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2076,175 +2166,302 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>165</v>
+      <c r="A3" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>166</v>
+      <c r="A4" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>168</v>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>175</v>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>175</v>
+        <v>186</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2256,4 +2473,80 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="ted.w.hermann@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://mrguyperson.quarto.pub"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -269,7 +269,7 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Developed an agent-based modeling toolkit to support policy planning around endangered species, enabling stakeholders to simulate ecological and economic tradeoffs.*Built end-to-end data workflows: data acquisition, cleaning, statistical analysis, and visualization in R, Julia, and Netlogo.*Created reproducible, containerized environments with Docker and Git, improving collaboration and deployment reliability.*Conducted hypothesis testing and machine learning to uncover predictors of ecological risk; balanced model interpretability with performance.*Authored technical documentation and presented findings to scientists, policymakers, and non-technical users.</t>
+    <t xml:space="preserve">Developed an agent-based modeling toolkit to support policy planning around endangered species, enabling stakeholders to simulate ecological and economic tradeoffs.*Built end-to-end data workflows: data acquisition, cleaning, statistical analysis, and visualization in R, Julia, and Netlogo.*Created reproducible, containerized environments with Docker and Git, improving collaboration and deployment reliability.*Authored technical documentation and presented findings to scientists, policymakers, and non-technical users.*Coordinated daily work across a globally distributed team (9-hour time difference), using asynchronous tools to manage multiple concurrent projects.</t>
   </si>
   <si>
     <t xml:space="preserve">Research Scientist</t>
@@ -660,7 +660,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -696,9 +696,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -750,7 +756,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -787,6 +793,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -799,11 +809,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,15 +826,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1266,7 +1267,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1313,7 +1314,7 @@
       <c r="E2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1390,7 +1391,7 @@
       <c r="B6" s="7" t="n">
         <v>41760</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1755,214 +1756,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="11" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <v>2013</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <v>2014</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="11" t="n">
         <v>2012</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <v>2013</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="11" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="11" t="n">
         <v>2011</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="11" t="n">
         <v>2007</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1990,101 +1991,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="57.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="57.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="11" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="11" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="11" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="11" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2111,42 +2112,42 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2174,293 +2175,293 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="19.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2489,50 +2490,50 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>206</v>
       </c>
     </row>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -299,7 +299,7 @@
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
   </si>
   <si>
-    <t xml:space="preserve">Self-employeed</t>
+    <t xml:space="preserve">Self-employed</t>
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Laboratory Technician</t>
   </si>
   <si>
-    <t xml:space="preserve">Hewson Laboratory, Cornell Universit</t>
+    <t xml:space="preserve">Hewson Laboratory, Cornell University</t>
   </si>
   <si>
     <t xml:space="preserve">Cornell Isotope Laboratory</t>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="208">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t xml:space="preserve">Research Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present</t>
   </si>
   <si>
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
@@ -1268,7 +1271,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,17 +1329,17 @@
       <c r="A3" s="7" t="n">
         <v>41640</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>44348</v>
+      <c r="B3" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1349,19 +1352,19 @@
         <v>43922</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1372,19 +1375,19 @@
         <v>43435</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1395,13 +1398,13 @@
         <v>41760</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1412,13 +1415,13 @@
         <v>40391</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1429,13 +1432,13 @@
         <v>40391</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1446,13 +1449,13 @@
         <v>40148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1463,13 +1466,13 @@
         <v>40179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1480,13 +1483,13 @@
         <v>39965</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1497,13 +1500,13 @@
         <v>39661</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1514,13 +1517,13 @@
         <v>39203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1557,19 +1560,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1577,22 +1580,22 @@
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>2023</v>
@@ -1600,22 +1603,22 @@
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>2018</v>
@@ -1623,22 +1626,22 @@
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2017</v>
@@ -1646,22 +1649,22 @@
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>2013</v>
@@ -1669,22 +1672,22 @@
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>2012</v>
@@ -1692,22 +1695,22 @@
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2012</v>
@@ -1715,22 +1718,22 @@
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>2012</v>
@@ -1769,13 +1772,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>5</v>
@@ -1786,189 +1789,189 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>2012</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>2013</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D5" s="12" t="n">
         <v>2014</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>2012</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="12" t="n">
         <v>2013</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="D8" s="12" t="n">
         <v>2010</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="D9" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D11" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" s="12" t="n">
         <v>2007</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2000,10 +2003,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>5</v>
@@ -2011,10 +2014,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>2014</v>
@@ -2022,10 +2025,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>2012</v>
@@ -2033,10 +2036,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2011</v>
@@ -2044,10 +2047,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>2011</v>
@@ -2055,10 +2058,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>2005</v>
@@ -2066,10 +2069,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>2006</v>
@@ -2077,10 +2080,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>2009</v>
@@ -2122,17 +2125,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,17 +2145,17 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2185,21 +2188,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>2</v>
@@ -2207,10 +2210,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>1</v>
@@ -2218,10 +2221,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>3</v>
@@ -2229,10 +2232,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>5</v>
@@ -2240,10 +2243,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>6</v>
@@ -2251,10 +2254,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>4</v>
@@ -2262,10 +2265,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" s="10" t="n">
         <v>1</v>
@@ -2273,10 +2276,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="C9" s="10" t="n">
         <v>2</v>
@@ -2284,10 +2287,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" s="10" t="n">
         <v>3</v>
@@ -2295,10 +2298,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="10" t="n">
         <v>4</v>
@@ -2306,10 +2309,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="10" t="n">
         <v>5</v>
@@ -2317,10 +2320,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="10" t="n">
         <v>6</v>
@@ -2328,10 +2331,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>7</v>
@@ -2339,10 +2342,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>1</v>
@@ -2350,10 +2353,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>2</v>
@@ -2361,10 +2364,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>8</v>
@@ -2372,10 +2375,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>1</v>
@@ -2383,10 +2386,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>3</v>
@@ -2394,10 +2397,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>4</v>
@@ -2405,10 +2408,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>5</v>
@@ -2416,10 +2419,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>6</v>
@@ -2427,10 +2430,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>2</v>
@@ -2438,10 +2441,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>1</v>
@@ -2449,10 +2452,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>2</v>
@@ -2460,10 +2463,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" s="10" t="n">
         <v>3</v>
@@ -2495,50 +2498,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">Research Scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present</t>
   </si>
   <si>
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
@@ -1271,7 +1268,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1329,17 +1326,15 @@
       <c r="A3" s="7" t="n">
         <v>41640</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1352,19 +1347,19 @@
         <v>43922</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1375,19 +1370,19 @@
         <v>43435</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1398,13 +1393,13 @@
         <v>41760</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1415,13 +1410,13 @@
         <v>40391</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1432,13 +1427,13 @@
         <v>40391</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1449,13 +1444,13 @@
         <v>40148</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1466,13 +1461,13 @@
         <v>40179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1483,13 +1478,13 @@
         <v>39965</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1500,13 +1495,13 @@
         <v>39661</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1517,13 +1512,13 @@
         <v>39203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1560,19 +1555,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1580,22 +1575,22 @@
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>2023</v>
@@ -1603,22 +1598,22 @@
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>2018</v>
@@ -1626,22 +1621,22 @@
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2017</v>
@@ -1649,22 +1644,22 @@
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>2013</v>
@@ -1672,22 +1667,22 @@
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>2012</v>
@@ -1695,22 +1690,22 @@
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2012</v>
@@ -1718,22 +1713,22 @@
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>2012</v>
@@ -1772,13 +1767,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>5</v>
@@ -1789,189 +1784,189 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D2" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>2012</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>2013</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D5" s="12" t="n">
         <v>2014</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>2012</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="D7" s="12" t="n">
         <v>2013</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="12" t="n">
         <v>2010</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="D12" s="12" t="n">
         <v>2007</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2003,10 +1998,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>5</v>
@@ -2014,10 +2009,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>2014</v>
@@ -2025,10 +2020,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>2012</v>
@@ -2036,10 +2031,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2011</v>
@@ -2047,10 +2042,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>2011</v>
@@ -2058,10 +2053,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>2005</v>
@@ -2069,10 +2064,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>2006</v>
@@ -2080,10 +2075,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>2009</v>
@@ -2125,17 +2120,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,17 +2140,17 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2188,21 +2183,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>2</v>
@@ -2210,10 +2205,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>1</v>
@@ -2221,10 +2216,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>3</v>
@@ -2232,10 +2227,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>5</v>
@@ -2243,10 +2238,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>6</v>
@@ -2254,10 +2249,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>4</v>
@@ -2265,10 +2260,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="C8" s="10" t="n">
         <v>1</v>
@@ -2276,10 +2271,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="10" t="n">
         <v>2</v>
@@ -2287,10 +2282,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="10" t="n">
         <v>3</v>
@@ -2298,10 +2293,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="10" t="n">
         <v>4</v>
@@ -2309,10 +2304,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="10" t="n">
         <v>5</v>
@@ -2320,10 +2315,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="10" t="n">
         <v>6</v>
@@ -2331,10 +2326,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>7</v>
@@ -2342,10 +2337,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>1</v>
@@ -2353,10 +2348,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>2</v>
@@ -2364,10 +2359,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>8</v>
@@ -2375,10 +2370,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>1</v>
@@ -2386,10 +2381,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>3</v>
@@ -2397,10 +2392,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>4</v>
@@ -2408,10 +2403,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>5</v>
@@ -2419,10 +2414,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>6</v>
@@ -2430,10 +2425,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>2</v>
@@ -2441,10 +2436,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>1</v>
@@ -2452,10 +2447,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>2</v>
@@ -2463,10 +2458,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" s="10" t="n">
         <v>3</v>
@@ -2498,50 +2493,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="208">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t xml:space="preserve">stakeholder engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy editing</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -1267,7 +1270,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2169,10 +2172,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2453,7 +2456,7 @@
         <v>193</v>
       </c>
       <c r="C25" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2464,7 +2467,18 @@
         <v>193</v>
       </c>
       <c r="C26" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2496,47 +2510,47 @@
         <v>103</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">Postdoctoral Scholar</t>
   </si>
   <si>
-    <t xml:space="preserve">UC Santa Cruz, IMS--NOAA Fisheries Collaborative Program</t>
+    <t xml:space="preserve">UC Santa Cruz, IMS--NOAA Fisheries Collaborative Program (remote from Berlin)</t>
   </si>
   <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Developed an agent-based modeling toolkit to support policy planning around endangered species, enabling stakeholders to simulate ecological and economic tradeoffs.*Built end-to-end data workflows: data acquisition, cleaning, statistical analysis, and visualization in R (tidyverse, data.table, tidymodels, targets, Quarto).*Created reproducible, containerized environments with Docker and Git, improving collaboration and deployment reliability.*Authored technical documentation and presented findings to scientists, policymakers, and non-technical users.*Coordinated daily work across a globally distributed team (9-hour time difference), using asynchronous tools to manage multiple concurrent projects.</t>
+    <t xml:space="preserve">Led development of an agent-based simulation toolkit used by government stakeholders to model tradeoffs between ecological and economic outcomes, directly informing endangered species management decisions.*Designed and deployed end-to-end analytical pipelines (data ingestion → validation → modeling → visualization) in R using tidyverse, tidymodels, targets, and Quarto.*Containerized workflows with Docker and version control via Git, improving cross-team reproducibility and deployment reliability.*Authored detailed technical documentation and interactive dashboards for policymakers, ensuring non-technical users could interpret model outcomes.*Coordinated with distributed teams across 3 time zones, maintaining delivery of concurrent milestones through asynchronous collaboration tools.</t>
   </si>
   <si>
     <t xml:space="preserve">Research Scientist</t>
@@ -290,7 +290,8 @@
     <t xml:space="preserve">Electrical Power Research Institute</t>
   </si>
   <si>
-    <t xml:space="preserve">Designed and implemented a machine-learning pipeline in Python (pandas, scikit-learn, numpy, matplotlib) to predict structural damage in industrial components.*Delivered a complete package: white paper, source code, and model outputs, achieving a 7% error rate—beating industry benchmarks by over 50%.*Collaborated directly with engineering stakeholders to translate technical findings into actionable recommendations.</t>
+    <t xml:space="preserve">Developed a machine learning pipeline in Python (pandas, scikit-learn, NumPy, Matplotlib) to predict heat-exchanger failures, reducing predictive error by &gt;50% vs. existing models.*Delivered a reproducible, documented package (white paper + codebase + outputs) adopted by engineering teams to guide preventive maintenance schedules and reduce downtime.*Translated model findings into actionable recommendations for non-technical stakeholders, improving cross-functional data literacy and model adoption.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Candidate</t>
@@ -299,7 +300,7 @@
     <t xml:space="preserve">SUNY–ESF</t>
   </si>
   <si>
-    <t xml:space="preserve">Applied multivariate statistics (e.g., NMDS, regression) to ecological field data to identify drivers of biodiversity change.*Visualized complex datasets and published findings in peer-reviewed journals.*Presented research results to both academic and public audiences, demonstrating strong science communication skills.*Used Python and R for data analysis and reproducibility, supporting open science initiatives.</t>
+    <t xml:space="preserve">Applied multivariate statistics and regression modeling to ecological field datasets, identifying key predictors of biodiversity change across multiple watersheds.*Created visualizations and open, reproducible analyses in R and Python, later cited in peer-reviewed publications and ecological management reports.*Presented analytical findings to diverse audiences, strengthening science communication and data storytelling skills transferable to applied analytics roles.</t>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Researcher</t>
@@ -527,13 +528,13 @@
     <t xml:space="preserve">order</t>
   </si>
   <si>
-    <t xml:space="preserve">R</t>
+    <t xml:space="preserve">R (tidyverse, tidymodels, targets)</t>
   </si>
   <si>
     <t xml:space="preserve">programming_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Python</t>
+    <t xml:space="preserve">Python (pandas, scikit-learn, NumPy, Matplotlib)</t>
   </si>
   <si>
     <t xml:space="preserve">Julia</t>
@@ -701,7 +702,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,6 +803,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1270,8 +1274,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1342,7 +1346,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>43891</v>
       </c>
@@ -1358,14 +1362,14 @@
       <c r="E4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>40391</v>
       </c>
@@ -1381,21 +1385,21 @@
       <c r="E5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>40391</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>41760</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1405,7 +1409,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>40330</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>40148</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>40087</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>39965</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>39569</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>39295</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>38930</v>
       </c>
@@ -1524,6 +1528,1006 @@
         <v>84</v>
       </c>
     </row>
+    <row r="14" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1549,8 +2553,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4609375" defaultRowHeight="36" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="40.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="6" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="40.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="11" width="19.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1595,7 +2599,7 @@
       <c r="F2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="11" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -1618,7 +2622,7 @@
       <c r="F3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="11" t="n">
         <v>2018</v>
       </c>
     </row>
@@ -1641,7 +2645,7 @@
       <c r="F4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="11" t="n">
         <v>2017</v>
       </c>
     </row>
@@ -1664,7 +2668,7 @@
       <c r="F5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="11" t="n">
         <v>2013</v>
       </c>
     </row>
@@ -1687,7 +2691,7 @@
       <c r="F6" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -1710,7 +2714,7 @@
       <c r="F7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -1733,7 +2737,7 @@
       <c r="F8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -1761,214 +2765,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="12" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="13" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="13" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="13" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="13" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="13" t="n">
         <v>2013</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <v>2014</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="13" t="n">
         <v>2012</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="13" t="n">
         <v>2013</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="13" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="13" t="n">
         <v>2011</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="13" t="n">
         <v>2011</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="13" t="n">
         <v>2011</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="13" t="n">
         <v>2007</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2000,97 +3004,97 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="13" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="13" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="13" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="13" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="13" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="13" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="13" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2174,8 +3178,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2477,7 +3481,7 @@
       <c r="B27" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2541,7 +3545,7 @@
       <c r="A5" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2549,7 +3553,7 @@
       <c r="A6" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>207</v>
       </c>
     </row>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -269,7 +269,7 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Led development of an agent-based simulation toolkit used by government stakeholders to model tradeoffs between ecological and economic outcomes, directly informing endangered species management decisions.*Designed and deployed end-to-end analytical pipelines (data ingestion → validation → modeling → visualization) in R using tidyverse, tidymodels, targets, and Quarto.*Containerized workflows with Docker and version control via Git, improving cross-team reproducibility and deployment reliability.*Authored detailed technical documentation and interactive dashboards for policymakers, ensuring non-technical users could interpret model outcomes.*Coordinated with distributed teams across 3 time zones, maintaining delivery of concurrent milestones through asynchronous collaboration tools.</t>
+    <t xml:space="preserve">Led development of an agent-based simulation toolkit used by government stakeholders to model tradeoffs between ecological and economic outcomes, directly informing endangered species management decisions.*Designed and deployed end-to-end analytical pipelines in R using tidyverse, tidymodels, targets, and Quarto.*Containerized workflows with Docker and version control via Git, improving cross-team reproducibility and deployment reliability.*Authored detailed technical documentation for policymakers and non-technical users.*Coordinated with distributed teams across 3 time zones, maintaining delivery of concurrent milestones through asynchronous collaboration tools.</t>
   </si>
   <si>
     <t xml:space="preserve">Research Scientist</t>
@@ -702,6 +702,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1275,7 +1276,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="245">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -264,10 +264,10 @@
     <t xml:space="preserve">names_for_short</t>
   </si>
   <si>
-    <t xml:space="preserve">06/21/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/31/25</t>
+    <t xml:space="preserve">21/06/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/03/2025</t>
   </si>
   <si>
     <t xml:space="preserve">Postdoctoral Scholar</t>
@@ -298,10 +298,10 @@
     <t xml:space="preserve">Research Data Scientist</t>
   </si>
   <si>
-    <t xml:space="preserve">03/01/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/01/20</t>
+    <t xml:space="preserve">01/03/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/04/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Data Science Consultant</t>
@@ -317,10 +317,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">08/01/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/01/18</t>
+    <t xml:space="preserve">01/08/2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/12/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Candidate</t>
@@ -338,6 +338,9 @@
     <t xml:space="preserve">Ph.D. Researcher / Data Analyst (Research Associate)</t>
   </si>
   <si>
+    <t xml:space="preserve">01/01/2014</t>
+  </si>
+  <si>
     <t xml:space="preserve">Independent Writing and Editing Professional</t>
   </si>
   <si>
@@ -347,31 +350,64 @@
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
+    <t xml:space="preserve">01/05/2014</t>
+  </si>
+  <si>
     <t xml:space="preserve">Graduate Teaching Assistant</t>
   </si>
   <si>
+    <t xml:space="preserve">01/06/2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laboratory Technician</t>
   </si>
   <si>
     <t xml:space="preserve">Hewson Laboratory, Cornell University</t>
   </si>
   <si>
+    <t xml:space="preserve">01/12/2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cornell Isotope Laboratory</t>
   </si>
   <si>
+    <t xml:space="preserve">01/10/2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Collection’s Assistant</t>
   </si>
   <si>
     <t xml:space="preserve">Paleontological Research Institution</t>
   </si>
   <si>
+    <t xml:space="preserve">01/06/2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hairston Limnology Laboratory, Cornell University</t>
   </si>
   <si>
+    <t xml:space="preserve">01/05/2008</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laboratory Assistant</t>
   </si>
   <si>
+    <t xml:space="preserve">01/08/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/08/2008</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goman Paleoecology Laboratory, Cornell University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/08/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2007</t>
   </si>
   <si>
     <t xml:space="preserve">McCune Ichthyology Laboratory, Cornell University</t>
@@ -738,8 +774,8 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="11">
@@ -850,7 +886,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,6 +923,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -895,7 +935,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -931,7 +971,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1401,7 +1441,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1448,20 +1488,20 @@
       <c r="D2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>84</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -1474,7 +1514,7 @@
       <c r="D3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1487,7 +1527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
@@ -1500,20 +1540,20 @@
       <c r="D4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>89</v>
       </c>
@@ -1526,7 +1566,7 @@
       <c r="D5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1539,7 +1579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>95</v>
       </c>
@@ -1552,1250 +1592,1250 @@
       <c r="D6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>100</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
-        <v>41640</v>
-      </c>
-      <c r="B7" s="11"/>
+    <row r="7" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="13"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <v>40391</v>
-      </c>
-      <c r="B8" s="11" t="n">
-        <v>41760</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>105</v>
+    <row r="8" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
-        <v>40330</v>
-      </c>
-      <c r="B9" s="11" t="n">
-        <v>40391</v>
+    <row r="9" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
-        <v>40148</v>
-      </c>
-      <c r="B10" s="11" t="n">
-        <v>40391</v>
+    <row r="10" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
-        <v>40087</v>
-      </c>
-      <c r="B11" s="11" t="n">
-        <v>40148</v>
+    <row r="11" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
-        <v>39965</v>
-      </c>
-      <c r="B12" s="11" t="n">
-        <v>40179</v>
+    <row r="12" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
-        <v>39569</v>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>39965</v>
+    <row r="13" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>39295</v>
-      </c>
-      <c r="B14" s="11" t="n">
-        <v>39661</v>
+    <row r="14" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <v>38930</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>39203</v>
+    <row r="15" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1001" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1002" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1003" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1004" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1005" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1006" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1007" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1008" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1009" s="10" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1010" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="10"/>
-      <c r="B1010" s="10"/>
-      <c r="C1010" s="10"/>
-      <c r="D1010" s="10"/>
-      <c r="E1010" s="10"/>
-      <c r="F1010" s="10"/>
-      <c r="G1010" s="10"/>
-      <c r="H1010" s="10"/>
+      <c r="A1010" s="11"/>
+      <c r="B1010" s="11"/>
+      <c r="C1010" s="11"/>
+      <c r="D1010" s="11"/>
+      <c r="E1010" s="11"/>
+      <c r="F1010" s="11"/>
+      <c r="G1010" s="11"/>
+      <c r="H1010" s="11"/>
     </row>
     <row r="1011" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="10"/>
-      <c r="B1011" s="10"/>
-      <c r="C1011" s="10"/>
-      <c r="D1011" s="10"/>
-      <c r="E1011" s="10"/>
-      <c r="F1011" s="10"/>
-      <c r="G1011" s="10"/>
-      <c r="H1011" s="10"/>
+      <c r="A1011" s="11"/>
+      <c r="B1011" s="11"/>
+      <c r="C1011" s="11"/>
+      <c r="D1011" s="11"/>
+      <c r="E1011" s="11"/>
+      <c r="F1011" s="11"/>
+      <c r="G1011" s="11"/>
+      <c r="H1011" s="11"/>
     </row>
     <row r="1012" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="10"/>
-      <c r="B1012" s="10"/>
-      <c r="C1012" s="10"/>
-      <c r="D1012" s="10"/>
-      <c r="E1012" s="10"/>
-      <c r="F1012" s="10"/>
-      <c r="G1012" s="10"/>
-      <c r="H1012" s="10"/>
+      <c r="A1012" s="11"/>
+      <c r="B1012" s="11"/>
+      <c r="C1012" s="11"/>
+      <c r="D1012" s="11"/>
+      <c r="E1012" s="11"/>
+      <c r="F1012" s="11"/>
+      <c r="G1012" s="11"/>
+      <c r="H1012" s="11"/>
     </row>
     <row r="1013" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="10"/>
-      <c r="B1013" s="10"/>
-      <c r="C1013" s="10"/>
-      <c r="D1013" s="10"/>
-      <c r="E1013" s="10"/>
-      <c r="F1013" s="10"/>
-      <c r="G1013" s="10"/>
-      <c r="H1013" s="10"/>
+      <c r="A1013" s="11"/>
+      <c r="B1013" s="11"/>
+      <c r="C1013" s="11"/>
+      <c r="D1013" s="11"/>
+      <c r="E1013" s="11"/>
+      <c r="F1013" s="11"/>
+      <c r="G1013" s="11"/>
+      <c r="H1013" s="11"/>
     </row>
     <row r="1014" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="10"/>
-      <c r="B1014" s="10"/>
-      <c r="C1014" s="10"/>
-      <c r="D1014" s="10"/>
-      <c r="E1014" s="10"/>
-      <c r="F1014" s="10"/>
-      <c r="G1014" s="10"/>
-      <c r="H1014" s="10"/>
+      <c r="A1014" s="11"/>
+      <c r="B1014" s="11"/>
+      <c r="C1014" s="11"/>
+      <c r="D1014" s="11"/>
+      <c r="E1014" s="11"/>
+      <c r="F1014" s="11"/>
+      <c r="G1014" s="11"/>
+      <c r="H1014" s="11"/>
     </row>
     <row r="1015" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="10"/>
-      <c r="B1015" s="10"/>
-      <c r="C1015" s="10"/>
-      <c r="D1015" s="10"/>
-      <c r="E1015" s="10"/>
-      <c r="F1015" s="10"/>
-      <c r="G1015" s="10"/>
-      <c r="H1015" s="10"/>
+      <c r="A1015" s="11"/>
+      <c r="B1015" s="11"/>
+      <c r="C1015" s="11"/>
+      <c r="D1015" s="11"/>
+      <c r="E1015" s="11"/>
+      <c r="F1015" s="11"/>
+      <c r="G1015" s="11"/>
+      <c r="H1015" s="11"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2822,8 +2862,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4609375" defaultRowHeight="36" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="40.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="10" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="40.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="11" width="19.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2831,19 +2871,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -2851,162 +2891,162 @@
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="10" t="n">
+        <v>137</v>
+      </c>
+      <c r="G2" s="11" t="n">
         <v>2023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="10" t="n">
+        <v>142</v>
+      </c>
+      <c r="G3" s="11" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="10" t="n">
+        <v>146</v>
+      </c>
+      <c r="G4" s="11" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="10" t="n">
+        <v>151</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="11" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="10" t="n">
+        <v>151</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="10" t="n">
+        <v>151</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="10" t="n">
+        <v>158</v>
+      </c>
+      <c r="G8" s="11" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -3034,215 +3074,215 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="14" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="14" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="15" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="14" t="n">
+      <c r="B2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="15" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>152</v>
+      <c r="E2" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="14" t="n">
+      <c r="B3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>152</v>
+      <c r="E3" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="14" t="n">
+      <c r="B4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="15" t="n">
         <v>2013</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>152</v>
+      <c r="E4" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="14" t="n">
+      <c r="B5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="15" t="n">
         <v>2014</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>152</v>
+      <c r="E5" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="14" t="n">
+      <c r="B6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="15" t="n">
         <v>2012</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>152</v>
+      <c r="E6" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="14" t="n">
+      <c r="B7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="15" t="n">
         <v>2013</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>152</v>
+      <c r="E7" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="14" t="n">
+      <c r="B8" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="15" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>152</v>
+      <c r="E8" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="14" t="n">
+      <c r="B9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="15" t="n">
         <v>2011</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>152</v>
+      <c r="E9" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="14" t="n">
+      <c r="B10" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="15" t="n">
         <v>2011</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>152</v>
+      <c r="E10" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="14" t="n">
+      <c r="B11" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="15" t="n">
         <v>2011</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>152</v>
+      <c r="E11" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="14" t="n">
+      <c r="A12" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="15" t="n">
         <v>2007</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>152</v>
+      <c r="E12" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3269,101 +3309,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="57.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="57.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="14" t="n">
+      <c r="A2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="15" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="14" t="n">
+      <c r="A3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="15" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="14" t="n">
+      <c r="A4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="15" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="14" t="n">
+      <c r="A5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="14" t="n">
+      <c r="A6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="15" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="14" t="n">
+      <c r="A7" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="15" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="14" t="n">
+      <c r="A8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="15" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3390,43 +3430,43 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>171</v>
+      <c r="A2" s="16" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>172</v>
+      <c r="A3" s="16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>173</v>
+      <c r="A4" s="16" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>174</v>
+      <c r="A6" s="16" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>175</v>
+      <c r="A7" s="16" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>176</v>
+      <c r="A8" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3453,701 +3493,701 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="A1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>180</v>
+      <c r="G1" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="19" t="n">
+      <c r="A2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="19" t="n">
+      <c r="E2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>183</v>
+      <c r="G2" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="19" t="n">
+      <c r="A3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="19" t="n">
+      <c r="E3" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>183</v>
+      <c r="G3" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="19" t="n">
+      <c r="A4" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="19" t="n">
+      <c r="E4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>183</v>
+      <c r="G4" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="19" t="n">
+      <c r="A5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="19" t="n">
+      <c r="E5" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>183</v>
+      <c r="G5" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="19" t="n">
+      <c r="A6" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>183</v>
+      <c r="G6" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="19" t="n">
+      <c r="A7" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="19" t="n">
+      <c r="E7" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>183</v>
+      <c r="G7" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="19" t="n">
+      <c r="A8" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>183</v>
+      <c r="G8" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="19" t="n">
+      <c r="A9" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>183</v>
+      <c r="G9" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="19" t="n">
+      <c r="A10" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>183</v>
+      <c r="G10" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="19" t="n">
+      <c r="A11" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>183</v>
+      <c r="G11" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="19" t="n">
+      <c r="A12" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>183</v>
+      <c r="G12" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="19" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="F20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E21" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="19" t="n">
+      <c r="G21" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="F24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="E25" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="G25" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="19" t="n">
-        <v>17</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="E28" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="G28" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E29" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F29" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="G29" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="E30" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
+      <c r="G30" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C30" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4175,51 +4215,51 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>218</v>
+      <c r="A1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>220</v>
+      <c r="A2" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>222</v>
+      <c r="A3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>224</v>
+      <c r="A4" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>226</v>
+      <c r="A5" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>228</v>
+      <c r="A6" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4261,37 +4301,37 @@
         <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="b">
+      <c r="A2" s="24" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="b">
+      <c r="A3" s="24" t="b">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="b">
+      <c r="A4" s="24" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>232</v>
+      <c r="C4" s="25" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="244">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">industry</t>
   </si>
   <si>
-    <t xml:space="preserve">Built and maintained an R-based simulation platform enabling partners to test water-policy scenarios and evaluate ecological–economic trade-offs.*Designed and ran A/B-style experiments within the simulation to compare alternative management strategies and quantify outcome uncertainty.*Automated pipelines (targets + Docker) that cut manual data-prep time by ~30% and improved reproducibility across teams.*Produced clear, stakeholder-ready visual and written reports in Quarto that reduced model-to-insight turnaround from weeks to days.*Delivered documentation enabling non-technical users to run analyses reliably across distributed teams.</t>
+    <t xml:space="preserve">Built and maintained an R-based simulation platform enabling partners to test water-policy scenarios and evaluate ecological–economic trade-offs*Designed and ran A/B-style experiments within the simulation to compare alternative management strategies and quantify outcome uncertainty*Automated pipelines (targets + Docker) that cut manual data-prep time by about 30% and improved reproducibility across teams*Produced clear, stakeholder-ready visual and written reports in Quarto that reduced model-to-insight turnaround from weeks to days*Delivered documentation enabling non-technical users to run analyses reliably across distributed teams</t>
   </si>
   <si>
     <t xml:space="preserve">Applied Data Scientist</t>
@@ -291,7 +291,7 @@
     <t xml:space="preserve">research</t>
   </si>
   <si>
-    <t xml:space="preserve">Led development of a simulation toolkit allowing government and research partners to explore water-policy scenarios and ecological trade-offs.*Implemented containerized, version-controlled R workflows (targets + Docker + Git) ensuring reproducibility and long-term maintainability.*Produced FAIR-compliant data and documentation, improving transparency for future analysis and model reuse.*Coordinated across academic and agency teams in multiple time zones to align deliverables, data standards, and reporting timelines.
+    <t xml:space="preserve">Led development of a simulation toolkit allowing government and research partners to explore water-policy scenarios and ecological trade-offs*Implemented containerized, version-controlled R workflows (targets + Docker + Git) ensuring reproducibility and long-term maintainability*Produced FAIR-compliant data and documentation, improving transparency for future analysis and model reuse*Coordinated across academic and agency teams in multiple time zones to align deliverables, data standards, and reporting timelines
 </t>
   </si>
   <si>
@@ -307,13 +307,13 @@
     <t xml:space="preserve">Data Science Consultant</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Power Research Institute (EPRI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Built a Python ML pipeline (pandas, scikit-learn) to predict heat-exchanger failures, achieving &gt;50% lower error vs. baseline.*Delivered a reproducible code + documentation package adopted by engineering teams for preventive maintenance.*Communicated results in plain language to increase model adoption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed and validated Python-based predictive models for heat-exchanger reliability, achieving &gt;50% lower error than baseline methods.*Authored a white paper detailing methodology, validation, and uncertainty assessment for engineering and management stakeholders.*Delivered a fully documented, reproducible workflow later adopted for maintenance-planning studies.
+    <t xml:space="preserve">Electric Power Research Institute (EPRI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built a Python ML pipeline (pandas, scikit-learn) to predict heat-exchanger failures, achieving &gt;50% lower error vs. baseline*Delivered a fully documented, reproducible code package adopted by engineering teams for preventive maintenance*Communicated results in plain language to increase model adoption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed and validated Python-based predictive models for heat-exchanger reliability, achieving &gt;50% lower error than baseline methods*Authored a white paper detailing methodology, validation, and uncertainty assessment for engineering and management stakeholders*Delivered a fully documented, reproducible workflow later adopted for maintenance-planning studies
 </t>
   </si>
   <si>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">both</t>
   </si>
   <si>
-    <t xml:space="preserve">Applied multivariate and regression methods to ecological datasets to identify drivers of biodiversity change.*Built reusable R/Python analyses later repurposed for resource-management projects and agency reporting.*Presented findings to mixed audiences, strengthening data storytelling.</t>
+    <t xml:space="preserve">Applied multivariate and regression methods to ecological datasets to identify drivers of biodiversity change*Built reusable R/Python analyses later repurposed for resource-management projects and agency reporting*Presented findings to mixed audiences, strengthening data storytelling</t>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Researcher / Data Analyst (Research Associate)</t>
@@ -692,9 +692,6 @@
     <t xml:space="preserve">visualization</t>
   </si>
   <si>
-    <t xml:space="preserve">hypothesis testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">agent-based modeling</t>
   </si>
   <si>
@@ -761,7 +758,7 @@
     <t xml:space="preserve">I am a scientist and software practitioner with training in ecology and quantitative methods, and several years of hands-on experience building data workflows, predictive models, and reproducible research systems. I enjoy moving between domains, whether ecology, resource management, or environmental systems, and applying rigorous, transparent computational tools to real problems. My work emphasizes clarity, modularity, and reproducibility, and I am comfortable in languages and environments such as R, Python, Julia, bash, Docker, Git, and Linux. I thrive in multidisciplinary settings, collaborating across teams and translating technical results into accessible forms for decision makers, stakeholders, or broader audiences.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data scientist and analyst with 7 years of experience turning environmental and engineering data into decision ready insights. I build reproducible Python, R, and SQL pipelines, predictive models, and automated reports that cut cycle time and surface clear metrics. Strong at translating technical results for stakeholders.</t>
+    <t xml:space="preserve">Data scientist and analyst with 7 years of experience turning environmental and engineering data into decision-ready insights. I build reproducible Python, R, and SQL pipelines, predictive models, and automated reports that cut cycle time and surface clear metrics. Strong at translating technical results into actionable insights for stakeholders and decision-makers.</t>
   </si>
   <si>
     <t xml:space="preserve">Applied data scientist focused on transparent, reproducible analytics for institutes and public partners. I design containerized R and Python workflows, document methods clearly, and turn complex models into policy relevant evidence for environmental management. Experienced in cross institution collaboration, FAIR aligned practices, and stakeholder reporting.</t>
@@ -813,7 +810,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -842,6 +839,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -886,7 +884,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -915,24 +913,28 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -955,23 +957,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,11 +985,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1440,8 +1446,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1598,7 +1604,7 @@
       <c r="F6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>100</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -1606,48 +1612,48 @@
       </c>
     </row>
     <row r="7" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1656,18 +1662,18 @@
       <c r="D9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1676,18 +1682,18 @@
       <c r="D10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1696,18 +1702,18 @@
       <c r="D11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1716,18 +1722,18 @@
       <c r="D12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1736,18 +1742,18 @@
       <c r="D13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1756,18 +1762,18 @@
       <c r="D14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1776,10 +1782,10 @@
       <c r="D15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
@@ -2776,7 +2782,16 @@
     <row r="1006" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1007" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1008" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1009" s="11" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="11"/>
+      <c r="B1009" s="11"/>
+      <c r="C1009" s="11"/>
+      <c r="D1009" s="11"/>
+      <c r="E1009" s="11"/>
+      <c r="F1009" s="11"/>
+      <c r="G1009" s="11"/>
+      <c r="H1009" s="11"/>
+    </row>
     <row r="1010" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1010" s="11"/>
       <c r="B1010" s="11"/>
@@ -2974,7 +2989,7 @@
       <c r="E5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>152</v>
       </c>
       <c r="G5" s="11" t="n">
@@ -2997,7 +3012,7 @@
       <c r="E6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="G6" s="11" t="n">
@@ -3020,7 +3035,7 @@
       <c r="E7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>154</v>
       </c>
       <c r="G7" s="11" t="n">
@@ -3074,214 +3089,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="40.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="37.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="15" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="31.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="37.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="16" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="31.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="16" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D2" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="16" t="n">
         <v>2014</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="16" t="n">
         <v>2012</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="16" t="n">
         <v>2013</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="16" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="16" t="n">
         <v>2011</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="16" t="n">
         <v>2007</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3309,101 +3324,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="57.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="57.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="16" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="16" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="16" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="16" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="16" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="16" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="16" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3430,42 +3445,42 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3485,708 +3500,685 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="19.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="18.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="20" t="n">
+      <c r="E2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E8" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="20" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="F9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="20" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="E10" s="21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="20" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E14" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>17</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="20" t="n">
+      <c r="G22" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E23" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="G27" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E28" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="G28" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="20" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E29" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="20" t="n">
-        <v>13</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="20" t="n">
-        <v>17</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="G29" s="20" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4215,51 +4207,51 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="16" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="16" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="22" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>239</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4285,53 +4277,56 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="b">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" state="visible" r:id="rId3"/>
@@ -741,7 +741,7 @@
     <t xml:space="preserve">I am a scientist and software practitioner with training in ecology and quantitative methods, and several years of hands-on experience building data workflows, predictive models, and reproducible research systems. I enjoy moving between domains, whether ecology, resource management, or environmental systems, and applying rigorous, transparent computational tools to real problems. My work emphasizes clarity, modularity, and reproducibility, and I am comfortable in languages and environments such as R, Python, Julia, bash, Docker, Git, and Linux. I thrive in multidisciplinary settings, collaborating across teams and translating technical results into accessible forms for decision makers, stakeholders, or broader audiences.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data scientist and analyst with 7 years of experience turning environmental and engineering data into decision-ready insights. I build reproducible Python, R, and SQL pipelines, predictive models, and automated reports that cut cycle time and surface clear metrics. Strong at translating technical results into actionable insights for stakeholders and decision-makers.</t>
+    <t xml:space="preserve">Applied data scientist who builds reproducible pipelines, predictive models, and automated reporting tools that help teams work faster and more clearly. Comfortable moving between data engineering, modeling, and communication, and able to turn technical findings into insights that support operational and strategic decisions.</t>
   </si>
   <si>
     <t xml:space="preserve">Applied data scientist focused on transparent, reproducible analytics for institutes and public partners. I design containerized R and Python workflows, document methods clearly, and turn complex models into policy-relevant evidence for environmental management. Experienced in cross-institution collaboration, FAIR-aligned practices, and stakeholder reporting.</t>
@@ -1376,7 +1376,7 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -17236,8 +17236,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Self-employed</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide subject-specific editing for over 300 manuscripts by non-native English researchers across the Life and Earth Sciences, Public Policy, and Engineering*Collaborate with authors worldwide to improve clarity, structure, and data presentation, increasing acceptance rates in peer-reviewed journals*Advise clients on journal selection, ethics, and publication workflows*Maintain reproducible editorial templates and documentation to ensure consistency and high quality </t>
+    <t xml:space="preserve">Provide subject-specific editing for over 300 manuscripts by non-native English researchers across the Life and Earth Sciences, Public Policy, and Engineering*Collaborate with authors worldwide to improve clarity, structure, and data presentation, increasing acceptance rates in peer-reviewed journals*Advise clients on journal selection, ethics, and publication workflows</t>
   </si>
   <si>
     <t xml:space="preserve">Independent Editor / Science Communicator</t>
@@ -875,7 +875,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -913,6 +913,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -926,19 +927,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -984,7 +972,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1049,16 +1037,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1081,37 +1061,37 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1531,26 +1511,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="45.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="20.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1558,21 +1538,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="6" t="s">
         <v>273</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>276</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1597,8 +1577,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1693,7 +1673,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="0"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
@@ -1723,7 +1703,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="0"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -1737,7 +1717,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="0"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
@@ -1767,7 +1747,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="0"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
@@ -1797,7 +1777,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="0"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
@@ -1827,7 +1807,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="0"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -1841,7 +1821,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="0"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
@@ -1871,7 +1851,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="0"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
@@ -1901,7 +1881,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="0"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
@@ -1929,7 +1909,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="0"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -1943,7 +1923,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="0"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
@@ -1965,7 +1945,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="0"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
@@ -1987,7 +1967,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="0"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
@@ -2009,7 +1989,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="0"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
@@ -2031,7 +2011,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="0"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
@@ -2053,7 +2033,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="0"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
@@ -2075,7 +2055,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="0"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
@@ -2097,7 +2077,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="0"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
@@ -2119,7 +2099,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="0"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
@@ -2149,7 +2129,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="0"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
@@ -2179,7 +2159,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="0"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
@@ -2209,7 +2189,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="0"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
@@ -2223,7 +2203,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="0"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
@@ -2237,7 +2217,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="0"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
@@ -2251,7 +2231,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="0"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
@@ -2265,7 +2245,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="0"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -2279,7 +2259,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="0"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
@@ -2293,7 +2273,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="0"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
@@ -2307,7 +2287,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="0"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
@@ -2321,7 +2301,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="0"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
@@ -2335,7 +2315,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="0"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
@@ -2349,7 +2329,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="0"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
@@ -2363,7 +2343,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="0"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
@@ -2377,7 +2357,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="0"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
@@ -2391,7 +2371,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="0"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
@@ -2405,7 +2385,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="0"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
@@ -2419,7 +2399,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="0"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
@@ -2433,7 +2413,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="0"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
@@ -2447,7 +2427,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="0"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
@@ -2461,7 +2441,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="0"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
@@ -2475,7 +2455,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="0"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
@@ -2489,7 +2469,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="0"/>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
@@ -2503,7 +2483,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="0"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
@@ -2517,7 +2497,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="0"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
@@ -2531,7 +2511,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="0"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
@@ -2545,7 +2525,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="0"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
@@ -2559,7 +2539,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="0"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
@@ -2573,7 +2553,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="0"/>
+      <c r="L50" s="6"/>
     </row>
     <row r="51" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
@@ -2587,7 +2567,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="0"/>
+      <c r="L51" s="6"/>
     </row>
     <row r="52" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
@@ -2601,7 +2581,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="0"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
@@ -2615,7 +2595,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="0"/>
+      <c r="L53" s="6"/>
     </row>
     <row r="54" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
@@ -2629,7 +2609,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="0"/>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
@@ -2643,7 +2623,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="0"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
@@ -2657,7 +2637,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="0"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
@@ -2671,7 +2651,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="0"/>
+      <c r="L57" s="6"/>
     </row>
     <row r="58" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
@@ -2685,7 +2665,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="0"/>
+      <c r="L58" s="6"/>
     </row>
     <row r="59" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
@@ -2699,7 +2679,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="0"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
@@ -2713,7 +2693,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="0"/>
+      <c r="L60" s="6"/>
     </row>
     <row r="61" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
@@ -2727,7 +2707,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="0"/>
+      <c r="L61" s="6"/>
     </row>
     <row r="62" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
@@ -2741,7 +2721,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="0"/>
+      <c r="L62" s="6"/>
     </row>
     <row r="63" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
@@ -2755,7 +2735,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="0"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
@@ -2769,7 +2749,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="0"/>
+      <c r="L64" s="6"/>
     </row>
     <row r="65" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
@@ -2783,7 +2763,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="0"/>
+      <c r="L65" s="6"/>
     </row>
     <row r="66" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
@@ -2797,7 +2777,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="0"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
@@ -2811,7 +2791,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="0"/>
+      <c r="L67" s="6"/>
     </row>
     <row r="68" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
@@ -2825,7 +2805,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="0"/>
+      <c r="L68" s="6"/>
     </row>
     <row r="69" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
@@ -2839,7 +2819,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="0"/>
+      <c r="L69" s="6"/>
     </row>
     <row r="70" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
@@ -2853,7 +2833,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="0"/>
+      <c r="L70" s="6"/>
     </row>
     <row r="71" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
@@ -2867,7 +2847,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="0"/>
+      <c r="L71" s="6"/>
     </row>
     <row r="72" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
@@ -2881,7 +2861,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="0"/>
+      <c r="L72" s="6"/>
     </row>
     <row r="73" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
@@ -2895,7 +2875,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="0"/>
+      <c r="L73" s="6"/>
     </row>
     <row r="74" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
@@ -2909,7 +2889,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="0"/>
+      <c r="L74" s="6"/>
     </row>
     <row r="75" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
@@ -2923,7 +2903,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="0"/>
+      <c r="L75" s="6"/>
     </row>
     <row r="76" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
@@ -2937,7 +2917,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="0"/>
+      <c r="L76" s="6"/>
     </row>
     <row r="77" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
@@ -2951,7 +2931,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="0"/>
+      <c r="L77" s="6"/>
     </row>
     <row r="78" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
@@ -2965,7 +2945,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="0"/>
+      <c r="L78" s="6"/>
     </row>
     <row r="79" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
@@ -2979,7 +2959,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="0"/>
+      <c r="L79" s="6"/>
     </row>
     <row r="80" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
@@ -2993,7 +2973,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="0"/>
+      <c r="L80" s="6"/>
     </row>
     <row r="81" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
@@ -3007,7 +2987,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="0"/>
+      <c r="L81" s="6"/>
     </row>
     <row r="82" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
@@ -3021,7 +3001,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="0"/>
+      <c r="L82" s="6"/>
     </row>
     <row r="83" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
@@ -3035,7 +3015,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="0"/>
+      <c r="L83" s="6"/>
     </row>
     <row r="84" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
@@ -3049,7 +3029,7 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="0"/>
+      <c r="L84" s="6"/>
     </row>
     <row r="85" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
@@ -3063,7 +3043,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="0"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
@@ -3077,7 +3057,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="0"/>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
@@ -3091,7 +3071,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="0"/>
+      <c r="L87" s="6"/>
     </row>
     <row r="88" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
@@ -3105,7 +3085,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="0"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
@@ -3119,7 +3099,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="0"/>
+      <c r="L89" s="6"/>
     </row>
     <row r="90" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
@@ -3133,7 +3113,7 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="0"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
@@ -3147,7 +3127,7 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" s="0"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
@@ -3161,7 +3141,7 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="0"/>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
@@ -3175,7 +3155,7 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="0"/>
+      <c r="L93" s="6"/>
     </row>
     <row r="94" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
@@ -3189,7 +3169,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="L94" s="0"/>
+      <c r="L94" s="6"/>
     </row>
     <row r="95" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
@@ -3203,7 +3183,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
-      <c r="L95" s="0"/>
+      <c r="L95" s="6"/>
     </row>
     <row r="96" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
@@ -3217,7 +3197,7 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="L96" s="0"/>
+      <c r="L96" s="6"/>
     </row>
     <row r="97" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
@@ -3231,7 +3211,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="L97" s="0"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
@@ -3245,7 +3225,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="0"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
@@ -3259,7 +3239,7 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
-      <c r="L99" s="0"/>
+      <c r="L99" s="6"/>
     </row>
     <row r="100" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
@@ -3273,7 +3253,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="0"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
@@ -3287,7 +3267,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
-      <c r="L101" s="0"/>
+      <c r="L101" s="6"/>
     </row>
     <row r="102" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
@@ -3301,7 +3281,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
-      <c r="L102" s="0"/>
+      <c r="L102" s="6"/>
     </row>
     <row r="103" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
@@ -3315,7 +3295,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
-      <c r="L103" s="0"/>
+      <c r="L103" s="6"/>
     </row>
     <row r="104" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
@@ -3329,7 +3309,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
-      <c r="L104" s="0"/>
+      <c r="L104" s="6"/>
     </row>
     <row r="105" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
@@ -3343,7 +3323,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
-      <c r="L105" s="0"/>
+      <c r="L105" s="6"/>
     </row>
     <row r="106" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
@@ -3357,7 +3337,7 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
-      <c r="L106" s="0"/>
+      <c r="L106" s="6"/>
     </row>
     <row r="107" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
@@ -3371,7 +3351,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
-      <c r="L107" s="0"/>
+      <c r="L107" s="6"/>
     </row>
     <row r="108" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
@@ -3385,7 +3365,7 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
-      <c r="L108" s="0"/>
+      <c r="L108" s="6"/>
     </row>
     <row r="109" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
@@ -3399,7 +3379,7 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
-      <c r="L109" s="0"/>
+      <c r="L109" s="6"/>
     </row>
     <row r="110" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
@@ -3413,7 +3393,7 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
-      <c r="L110" s="0"/>
+      <c r="L110" s="6"/>
     </row>
     <row r="111" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
@@ -3427,7 +3407,7 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
-      <c r="L111" s="0"/>
+      <c r="L111" s="6"/>
     </row>
     <row r="112" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
@@ -3441,7 +3421,7 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="L112" s="0"/>
+      <c r="L112" s="6"/>
     </row>
     <row r="113" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
@@ -3455,7 +3435,7 @@
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
-      <c r="L113" s="0"/>
+      <c r="L113" s="6"/>
     </row>
     <row r="114" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
@@ -3469,7 +3449,7 @@
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="L114" s="0"/>
+      <c r="L114" s="6"/>
     </row>
     <row r="115" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
@@ -3483,7 +3463,7 @@
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
-      <c r="L115" s="0"/>
+      <c r="L115" s="6"/>
     </row>
     <row r="116" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
@@ -3497,7 +3477,7 @@
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
-      <c r="L116" s="0"/>
+      <c r="L116" s="6"/>
     </row>
     <row r="117" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
@@ -3511,7 +3491,7 @@
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
-      <c r="L117" s="0"/>
+      <c r="L117" s="6"/>
     </row>
     <row r="118" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
@@ -3525,7 +3505,7 @@
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="0"/>
+      <c r="L118" s="6"/>
     </row>
     <row r="119" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
@@ -3539,7 +3519,7 @@
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
-      <c r="L119" s="0"/>
+      <c r="L119" s="6"/>
     </row>
     <row r="120" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
@@ -3553,7 +3533,7 @@
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
-      <c r="L120" s="0"/>
+      <c r="L120" s="6"/>
     </row>
     <row r="121" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
@@ -3567,7 +3547,7 @@
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
-      <c r="L121" s="0"/>
+      <c r="L121" s="6"/>
     </row>
     <row r="122" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
@@ -3581,7 +3561,7 @@
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
-      <c r="L122" s="0"/>
+      <c r="L122" s="6"/>
     </row>
     <row r="123" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
@@ -3595,7 +3575,7 @@
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
-      <c r="L123" s="0"/>
+      <c r="L123" s="6"/>
     </row>
     <row r="124" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
@@ -3609,7 +3589,7 @@
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
-      <c r="L124" s="0"/>
+      <c r="L124" s="6"/>
     </row>
     <row r="125" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
@@ -3623,7 +3603,7 @@
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
-      <c r="L125" s="0"/>
+      <c r="L125" s="6"/>
     </row>
     <row r="126" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
@@ -3637,7 +3617,7 @@
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
-      <c r="L126" s="0"/>
+      <c r="L126" s="6"/>
     </row>
     <row r="127" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
@@ -3651,7 +3631,7 @@
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
-      <c r="L127" s="0"/>
+      <c r="L127" s="6"/>
     </row>
     <row r="128" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
@@ -3665,7 +3645,7 @@
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
-      <c r="L128" s="0"/>
+      <c r="L128" s="6"/>
     </row>
     <row r="129" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
@@ -3679,7 +3659,7 @@
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
-      <c r="L129" s="0"/>
+      <c r="L129" s="6"/>
     </row>
     <row r="130" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
@@ -3693,7 +3673,7 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
-      <c r="L130" s="0"/>
+      <c r="L130" s="6"/>
     </row>
     <row r="131" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
@@ -3707,7 +3687,7 @@
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
-      <c r="L131" s="0"/>
+      <c r="L131" s="6"/>
     </row>
     <row r="132" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
@@ -3721,7 +3701,7 @@
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
-      <c r="L132" s="0"/>
+      <c r="L132" s="6"/>
     </row>
     <row r="133" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
@@ -3735,7 +3715,7 @@
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
-      <c r="L133" s="0"/>
+      <c r="L133" s="6"/>
     </row>
     <row r="134" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
@@ -3749,7 +3729,7 @@
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
-      <c r="L134" s="0"/>
+      <c r="L134" s="6"/>
     </row>
     <row r="135" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
@@ -3763,7 +3743,7 @@
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
-      <c r="L135" s="0"/>
+      <c r="L135" s="6"/>
     </row>
     <row r="136" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
@@ -3777,7 +3757,7 @@
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
-      <c r="L136" s="0"/>
+      <c r="L136" s="6"/>
     </row>
     <row r="137" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
@@ -3791,7 +3771,7 @@
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
-      <c r="L137" s="0"/>
+      <c r="L137" s="6"/>
     </row>
     <row r="138" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
@@ -3805,7 +3785,7 @@
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
-      <c r="L138" s="0"/>
+      <c r="L138" s="6"/>
     </row>
     <row r="139" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
@@ -3819,7 +3799,7 @@
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
-      <c r="L139" s="0"/>
+      <c r="L139" s="6"/>
     </row>
     <row r="140" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
@@ -3833,7 +3813,7 @@
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
-      <c r="L140" s="0"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
@@ -3847,7 +3827,7 @@
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
-      <c r="L141" s="0"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
@@ -3861,7 +3841,7 @@
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="0"/>
+      <c r="L142" s="6"/>
     </row>
     <row r="143" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6"/>
@@ -3875,7 +3855,7 @@
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="0"/>
+      <c r="L143" s="6"/>
     </row>
     <row r="144" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6"/>
@@ -3889,7 +3869,7 @@
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
-      <c r="L144" s="0"/>
+      <c r="L144" s="6"/>
     </row>
     <row r="145" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6"/>
@@ -3903,7 +3883,7 @@
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
-      <c r="L145" s="0"/>
+      <c r="L145" s="6"/>
     </row>
     <row r="146" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6"/>
@@ -3917,7 +3897,7 @@
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
-      <c r="L146" s="0"/>
+      <c r="L146" s="6"/>
     </row>
     <row r="147" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
@@ -3931,7 +3911,7 @@
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
-      <c r="L147" s="0"/>
+      <c r="L147" s="6"/>
     </row>
     <row r="148" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
@@ -3945,7 +3925,7 @@
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
-      <c r="L148" s="0"/>
+      <c r="L148" s="6"/>
     </row>
     <row r="149" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
@@ -3959,7 +3939,7 @@
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
-      <c r="L149" s="0"/>
+      <c r="L149" s="6"/>
     </row>
     <row r="150" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
@@ -3973,7 +3953,7 @@
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
-      <c r="L150" s="0"/>
+      <c r="L150" s="6"/>
     </row>
     <row r="151" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
@@ -3987,7 +3967,7 @@
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
-      <c r="L151" s="0"/>
+      <c r="L151" s="6"/>
     </row>
     <row r="152" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
@@ -4001,7 +3981,7 @@
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
-      <c r="L152" s="0"/>
+      <c r="L152" s="6"/>
     </row>
     <row r="153" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
@@ -4015,7 +3995,7 @@
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
-      <c r="L153" s="0"/>
+      <c r="L153" s="6"/>
     </row>
     <row r="154" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
@@ -4029,7 +4009,7 @@
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
-      <c r="L154" s="0"/>
+      <c r="L154" s="6"/>
     </row>
     <row r="155" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
@@ -4043,7 +4023,7 @@
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
-      <c r="L155" s="0"/>
+      <c r="L155" s="6"/>
     </row>
     <row r="156" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
@@ -4057,7 +4037,7 @@
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
-      <c r="L156" s="0"/>
+      <c r="L156" s="6"/>
     </row>
     <row r="157" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
@@ -4071,7 +4051,7 @@
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
-      <c r="L157" s="0"/>
+      <c r="L157" s="6"/>
     </row>
     <row r="158" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
@@ -4085,7 +4065,7 @@
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
-      <c r="L158" s="0"/>
+      <c r="L158" s="6"/>
     </row>
     <row r="159" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
@@ -4099,7 +4079,7 @@
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
-      <c r="L159" s="0"/>
+      <c r="L159" s="6"/>
     </row>
     <row r="160" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
@@ -4113,7 +4093,7 @@
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
-      <c r="L160" s="0"/>
+      <c r="L160" s="6"/>
     </row>
     <row r="161" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6"/>
@@ -4127,7 +4107,7 @@
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
-      <c r="L161" s="0"/>
+      <c r="L161" s="6"/>
     </row>
     <row r="162" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6"/>
@@ -4141,7 +4121,7 @@
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
-      <c r="L162" s="0"/>
+      <c r="L162" s="6"/>
     </row>
     <row r="163" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6"/>
@@ -4155,7 +4135,7 @@
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
-      <c r="L163" s="0"/>
+      <c r="L163" s="6"/>
     </row>
     <row r="164" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6"/>
@@ -4169,7 +4149,7 @@
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
-      <c r="L164" s="0"/>
+      <c r="L164" s="6"/>
     </row>
     <row r="165" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6"/>
@@ -4183,7 +4163,7 @@
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
-      <c r="L165" s="0"/>
+      <c r="L165" s="6"/>
     </row>
     <row r="166" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6"/>
@@ -4197,7 +4177,7 @@
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
-      <c r="L166" s="0"/>
+      <c r="L166" s="6"/>
     </row>
     <row r="167" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6"/>
@@ -4211,7 +4191,7 @@
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
-      <c r="L167" s="0"/>
+      <c r="L167" s="6"/>
     </row>
     <row r="168" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6"/>
@@ -4225,7 +4205,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
-      <c r="L168" s="0"/>
+      <c r="L168" s="6"/>
     </row>
     <row r="169" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6"/>
@@ -4239,7 +4219,7 @@
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
-      <c r="L169" s="0"/>
+      <c r="L169" s="6"/>
     </row>
     <row r="170" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6"/>
@@ -4253,7 +4233,7 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
-      <c r="L170" s="0"/>
+      <c r="L170" s="6"/>
     </row>
     <row r="171" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6"/>
@@ -4267,7 +4247,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
-      <c r="L171" s="0"/>
+      <c r="L171" s="6"/>
     </row>
     <row r="172" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6"/>
@@ -4281,7 +4261,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
-      <c r="L172" s="0"/>
+      <c r="L172" s="6"/>
     </row>
     <row r="173" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6"/>
@@ -4295,7 +4275,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
-      <c r="L173" s="0"/>
+      <c r="L173" s="6"/>
     </row>
     <row r="174" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6"/>
@@ -4309,7 +4289,7 @@
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
-      <c r="L174" s="0"/>
+      <c r="L174" s="6"/>
     </row>
     <row r="175" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6"/>
@@ -4323,7 +4303,7 @@
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
-      <c r="L175" s="0"/>
+      <c r="L175" s="6"/>
     </row>
     <row r="176" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6"/>
@@ -4337,7 +4317,7 @@
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
-      <c r="L176" s="0"/>
+      <c r="L176" s="6"/>
     </row>
     <row r="177" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6"/>
@@ -4351,7 +4331,7 @@
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
-      <c r="L177" s="0"/>
+      <c r="L177" s="6"/>
     </row>
     <row r="178" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6"/>
@@ -4365,7 +4345,7 @@
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
-      <c r="L178" s="0"/>
+      <c r="L178" s="6"/>
     </row>
     <row r="179" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6"/>
@@ -4379,7 +4359,7 @@
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
-      <c r="L179" s="0"/>
+      <c r="L179" s="6"/>
     </row>
     <row r="180" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6"/>
@@ -4393,7 +4373,7 @@
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
-      <c r="L180" s="0"/>
+      <c r="L180" s="6"/>
     </row>
     <row r="181" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6"/>
@@ -4407,7 +4387,7 @@
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
-      <c r="L181" s="0"/>
+      <c r="L181" s="6"/>
     </row>
     <row r="182" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6"/>
@@ -4421,7 +4401,7 @@
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
-      <c r="L182" s="0"/>
+      <c r="L182" s="6"/>
     </row>
     <row r="183" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6"/>
@@ -4435,7 +4415,7 @@
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
-      <c r="L183" s="0"/>
+      <c r="L183" s="6"/>
     </row>
     <row r="184" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6"/>
@@ -4449,7 +4429,7 @@
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
-      <c r="L184" s="0"/>
+      <c r="L184" s="6"/>
     </row>
     <row r="185" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6"/>
@@ -4463,7 +4443,7 @@
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
-      <c r="L185" s="0"/>
+      <c r="L185" s="6"/>
     </row>
     <row r="186" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6"/>
@@ -4477,7 +4457,7 @@
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
-      <c r="L186" s="0"/>
+      <c r="L186" s="6"/>
     </row>
     <row r="187" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6"/>
@@ -4491,7 +4471,7 @@
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
-      <c r="L187" s="0"/>
+      <c r="L187" s="6"/>
     </row>
     <row r="188" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6"/>
@@ -4505,7 +4485,7 @@
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
-      <c r="L188" s="0"/>
+      <c r="L188" s="6"/>
     </row>
     <row r="189" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6"/>
@@ -4519,7 +4499,7 @@
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
-      <c r="L189" s="0"/>
+      <c r="L189" s="6"/>
     </row>
     <row r="190" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6"/>
@@ -4533,7 +4513,7 @@
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
-      <c r="L190" s="0"/>
+      <c r="L190" s="6"/>
     </row>
     <row r="191" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6"/>
@@ -4547,7 +4527,7 @@
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
-      <c r="L191" s="0"/>
+      <c r="L191" s="6"/>
     </row>
     <row r="192" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6"/>
@@ -4561,7 +4541,7 @@
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
-      <c r="L192" s="0"/>
+      <c r="L192" s="6"/>
     </row>
     <row r="193" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="6"/>
@@ -4575,7 +4555,7 @@
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
-      <c r="L193" s="0"/>
+      <c r="L193" s="6"/>
     </row>
     <row r="194" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="6"/>
@@ -4589,7 +4569,7 @@
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
-      <c r="L194" s="0"/>
+      <c r="L194" s="6"/>
     </row>
     <row r="195" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6"/>
@@ -4603,7 +4583,7 @@
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
-      <c r="L195" s="0"/>
+      <c r="L195" s="6"/>
     </row>
     <row r="196" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6"/>
@@ -4617,7 +4597,7 @@
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
-      <c r="L196" s="0"/>
+      <c r="L196" s="6"/>
     </row>
     <row r="197" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="6"/>
@@ -4631,7 +4611,7 @@
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
-      <c r="L197" s="0"/>
+      <c r="L197" s="6"/>
     </row>
     <row r="198" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="6"/>
@@ -4645,7 +4625,7 @@
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
-      <c r="L198" s="0"/>
+      <c r="L198" s="6"/>
     </row>
     <row r="199" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="6"/>
@@ -4659,7 +4639,7 @@
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
-      <c r="L199" s="0"/>
+      <c r="L199" s="6"/>
     </row>
     <row r="200" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6"/>
@@ -4673,7 +4653,7 @@
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
-      <c r="L200" s="0"/>
+      <c r="L200" s="6"/>
     </row>
     <row r="201" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6"/>
@@ -4687,7 +4667,7 @@
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
-      <c r="L201" s="0"/>
+      <c r="L201" s="6"/>
     </row>
     <row r="202" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6"/>
@@ -4701,7 +4681,7 @@
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
       <c r="K202" s="6"/>
-      <c r="L202" s="0"/>
+      <c r="L202" s="6"/>
     </row>
     <row r="203" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6"/>
@@ -4715,7 +4695,7 @@
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
-      <c r="L203" s="0"/>
+      <c r="L203" s="6"/>
     </row>
     <row r="204" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6"/>
@@ -4729,7 +4709,7 @@
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
-      <c r="L204" s="0"/>
+      <c r="L204" s="6"/>
     </row>
     <row r="205" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="6"/>
@@ -4743,7 +4723,7 @@
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
-      <c r="L205" s="0"/>
+      <c r="L205" s="6"/>
     </row>
     <row r="206" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="6"/>
@@ -4757,7 +4737,7 @@
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
-      <c r="L206" s="0"/>
+      <c r="L206" s="6"/>
     </row>
     <row r="207" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6"/>
@@ -4771,7 +4751,7 @@
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
-      <c r="L207" s="0"/>
+      <c r="L207" s="6"/>
     </row>
     <row r="208" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="6"/>
@@ -4785,7 +4765,7 @@
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
-      <c r="L208" s="0"/>
+      <c r="L208" s="6"/>
     </row>
     <row r="209" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="6"/>
@@ -4799,7 +4779,7 @@
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
-      <c r="L209" s="0"/>
+      <c r="L209" s="6"/>
     </row>
     <row r="210" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6"/>
@@ -4813,7 +4793,7 @@
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
       <c r="K210" s="6"/>
-      <c r="L210" s="0"/>
+      <c r="L210" s="6"/>
     </row>
     <row r="211" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="6"/>
@@ -4827,7 +4807,7 @@
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
-      <c r="L211" s="0"/>
+      <c r="L211" s="6"/>
     </row>
     <row r="212" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
@@ -4841,7 +4821,7 @@
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
-      <c r="L212" s="0"/>
+      <c r="L212" s="6"/>
     </row>
     <row r="213" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
@@ -4855,7 +4835,7 @@
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
-      <c r="L213" s="0"/>
+      <c r="L213" s="6"/>
     </row>
     <row r="214" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6"/>
@@ -4869,7 +4849,7 @@
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
-      <c r="L214" s="0"/>
+      <c r="L214" s="6"/>
     </row>
     <row r="215" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6"/>
@@ -4883,7 +4863,7 @@
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
-      <c r="L215" s="0"/>
+      <c r="L215" s="6"/>
     </row>
     <row r="216" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6"/>
@@ -4897,7 +4877,7 @@
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
-      <c r="L216" s="0"/>
+      <c r="L216" s="6"/>
     </row>
     <row r="217" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6"/>
@@ -4911,7 +4891,7 @@
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
-      <c r="L217" s="0"/>
+      <c r="L217" s="6"/>
     </row>
     <row r="218" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6"/>
@@ -4925,7 +4905,7 @@
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
-      <c r="L218" s="0"/>
+      <c r="L218" s="6"/>
     </row>
     <row r="219" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6"/>
@@ -4939,7 +4919,7 @@
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
-      <c r="L219" s="0"/>
+      <c r="L219" s="6"/>
     </row>
     <row r="220" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6"/>
@@ -4953,7 +4933,7 @@
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
-      <c r="L220" s="0"/>
+      <c r="L220" s="6"/>
     </row>
     <row r="221" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="6"/>
@@ -4967,7 +4947,7 @@
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
-      <c r="L221" s="0"/>
+      <c r="L221" s="6"/>
     </row>
     <row r="222" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="6"/>
@@ -4981,7 +4961,7 @@
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
-      <c r="L222" s="0"/>
+      <c r="L222" s="6"/>
     </row>
     <row r="223" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6"/>
@@ -4995,7 +4975,7 @@
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
-      <c r="L223" s="0"/>
+      <c r="L223" s="6"/>
     </row>
     <row r="224" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6"/>
@@ -5009,7 +4989,7 @@
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
-      <c r="L224" s="0"/>
+      <c r="L224" s="6"/>
     </row>
     <row r="225" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6"/>
@@ -5023,7 +5003,7 @@
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
-      <c r="L225" s="0"/>
+      <c r="L225" s="6"/>
     </row>
     <row r="226" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6"/>
@@ -5037,7 +5017,7 @@
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
-      <c r="L226" s="0"/>
+      <c r="L226" s="6"/>
     </row>
     <row r="227" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6"/>
@@ -5051,7 +5031,7 @@
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
-      <c r="L227" s="0"/>
+      <c r="L227" s="6"/>
     </row>
     <row r="228" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6"/>
@@ -5065,7 +5045,7 @@
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
-      <c r="L228" s="0"/>
+      <c r="L228" s="6"/>
     </row>
     <row r="229" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6"/>
@@ -5079,7 +5059,7 @@
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
-      <c r="L229" s="0"/>
+      <c r="L229" s="6"/>
     </row>
     <row r="230" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6"/>
@@ -5093,7 +5073,7 @@
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
-      <c r="L230" s="0"/>
+      <c r="L230" s="6"/>
     </row>
     <row r="231" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6"/>
@@ -5107,7 +5087,7 @@
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
-      <c r="L231" s="0"/>
+      <c r="L231" s="6"/>
     </row>
     <row r="232" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6"/>
@@ -5121,7 +5101,7 @@
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
-      <c r="L232" s="0"/>
+      <c r="L232" s="6"/>
     </row>
     <row r="233" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6"/>
@@ -5135,7 +5115,7 @@
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
-      <c r="L233" s="0"/>
+      <c r="L233" s="6"/>
     </row>
     <row r="234" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6"/>
@@ -5149,7 +5129,7 @@
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
-      <c r="L234" s="0"/>
+      <c r="L234" s="6"/>
     </row>
     <row r="235" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6"/>
@@ -5163,7 +5143,7 @@
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
-      <c r="L235" s="0"/>
+      <c r="L235" s="6"/>
     </row>
     <row r="236" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6"/>
@@ -5177,7 +5157,7 @@
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
-      <c r="L236" s="0"/>
+      <c r="L236" s="6"/>
     </row>
     <row r="237" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6"/>
@@ -5191,7 +5171,7 @@
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
-      <c r="L237" s="0"/>
+      <c r="L237" s="6"/>
     </row>
     <row r="238" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6"/>
@@ -5205,7 +5185,7 @@
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
-      <c r="L238" s="0"/>
+      <c r="L238" s="6"/>
     </row>
     <row r="239" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6"/>
@@ -5219,7 +5199,7 @@
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
-      <c r="L239" s="0"/>
+      <c r="L239" s="6"/>
     </row>
     <row r="240" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6"/>
@@ -5233,7 +5213,7 @@
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
-      <c r="L240" s="0"/>
+      <c r="L240" s="6"/>
     </row>
     <row r="241" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6"/>
@@ -5247,7 +5227,7 @@
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
-      <c r="L241" s="0"/>
+      <c r="L241" s="6"/>
     </row>
     <row r="242" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6"/>
@@ -5261,7 +5241,7 @@
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
-      <c r="L242" s="0"/>
+      <c r="L242" s="6"/>
     </row>
     <row r="243" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6"/>
@@ -5275,7 +5255,7 @@
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
-      <c r="L243" s="0"/>
+      <c r="L243" s="6"/>
     </row>
     <row r="244" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6"/>
@@ -5289,7 +5269,7 @@
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
-      <c r="L244" s="0"/>
+      <c r="L244" s="6"/>
     </row>
     <row r="245" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="6"/>
@@ -5303,7 +5283,7 @@
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
-      <c r="L245" s="0"/>
+      <c r="L245" s="6"/>
     </row>
     <row r="246" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="6"/>
@@ -5317,7 +5297,7 @@
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
-      <c r="L246" s="0"/>
+      <c r="L246" s="6"/>
     </row>
     <row r="247" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="6"/>
@@ -5331,7 +5311,7 @@
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
-      <c r="L247" s="0"/>
+      <c r="L247" s="6"/>
     </row>
     <row r="248" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="6"/>
@@ -5345,7 +5325,7 @@
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
-      <c r="L248" s="0"/>
+      <c r="L248" s="6"/>
     </row>
     <row r="249" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="6"/>
@@ -5359,7 +5339,7 @@
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
-      <c r="L249" s="0"/>
+      <c r="L249" s="6"/>
     </row>
     <row r="250" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="6"/>
@@ -5373,7 +5353,7 @@
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
-      <c r="L250" s="0"/>
+      <c r="L250" s="6"/>
     </row>
     <row r="251" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="6"/>
@@ -5387,7 +5367,7 @@
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
-      <c r="L251" s="0"/>
+      <c r="L251" s="6"/>
     </row>
     <row r="252" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="6"/>
@@ -5401,7 +5381,7 @@
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
-      <c r="L252" s="0"/>
+      <c r="L252" s="6"/>
     </row>
     <row r="253" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="6"/>
@@ -5415,7 +5395,7 @@
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
-      <c r="L253" s="0"/>
+      <c r="L253" s="6"/>
     </row>
     <row r="254" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="6"/>
@@ -5429,7 +5409,7 @@
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
-      <c r="L254" s="0"/>
+      <c r="L254" s="6"/>
     </row>
     <row r="255" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="6"/>
@@ -5443,7 +5423,7 @@
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
       <c r="K255" s="6"/>
-      <c r="L255" s="0"/>
+      <c r="L255" s="6"/>
     </row>
     <row r="256" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="6"/>
@@ -5457,7 +5437,7 @@
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
-      <c r="L256" s="0"/>
+      <c r="L256" s="6"/>
     </row>
     <row r="257" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="6"/>
@@ -5471,7 +5451,7 @@
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
-      <c r="L257" s="0"/>
+      <c r="L257" s="6"/>
     </row>
     <row r="258" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="6"/>
@@ -5485,7 +5465,7 @@
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
-      <c r="L258" s="0"/>
+      <c r="L258" s="6"/>
     </row>
     <row r="259" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="6"/>
@@ -5499,7 +5479,7 @@
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
-      <c r="L259" s="0"/>
+      <c r="L259" s="6"/>
     </row>
     <row r="260" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="6"/>
@@ -5513,7 +5493,7 @@
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
       <c r="K260" s="6"/>
-      <c r="L260" s="0"/>
+      <c r="L260" s="6"/>
     </row>
     <row r="261" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="6"/>
@@ -5527,7 +5507,7 @@
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
-      <c r="L261" s="0"/>
+      <c r="L261" s="6"/>
     </row>
     <row r="262" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="6"/>
@@ -5541,7 +5521,7 @@
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
       <c r="K262" s="6"/>
-      <c r="L262" s="0"/>
+      <c r="L262" s="6"/>
     </row>
     <row r="263" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="6"/>
@@ -5555,7 +5535,7 @@
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
-      <c r="L263" s="0"/>
+      <c r="L263" s="6"/>
     </row>
     <row r="264" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="6"/>
@@ -5569,7 +5549,7 @@
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
       <c r="K264" s="6"/>
-      <c r="L264" s="0"/>
+      <c r="L264" s="6"/>
     </row>
     <row r="265" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="6"/>
@@ -5583,7 +5563,7 @@
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
-      <c r="L265" s="0"/>
+      <c r="L265" s="6"/>
     </row>
     <row r="266" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="6"/>
@@ -5597,7 +5577,7 @@
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
       <c r="K266" s="6"/>
-      <c r="L266" s="0"/>
+      <c r="L266" s="6"/>
     </row>
     <row r="267" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="6"/>
@@ -5611,7 +5591,7 @@
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
       <c r="K267" s="6"/>
-      <c r="L267" s="0"/>
+      <c r="L267" s="6"/>
     </row>
     <row r="268" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="6"/>
@@ -5625,7 +5605,7 @@
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
       <c r="K268" s="6"/>
-      <c r="L268" s="0"/>
+      <c r="L268" s="6"/>
     </row>
     <row r="269" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="6"/>
@@ -5639,7 +5619,7 @@
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
       <c r="K269" s="6"/>
-      <c r="L269" s="0"/>
+      <c r="L269" s="6"/>
     </row>
     <row r="270" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="6"/>
@@ -5653,7 +5633,7 @@
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="0"/>
+      <c r="L270" s="6"/>
     </row>
     <row r="271" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="6"/>
@@ -5667,7 +5647,7 @@
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="0"/>
+      <c r="L271" s="6"/>
     </row>
     <row r="272" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="6"/>
@@ -5681,7 +5661,7 @@
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="0"/>
+      <c r="L272" s="6"/>
     </row>
     <row r="273" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="6"/>
@@ -5695,7 +5675,7 @@
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="0"/>
+      <c r="L273" s="6"/>
     </row>
     <row r="274" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="6"/>
@@ -5709,7 +5689,7 @@
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="0"/>
+      <c r="L274" s="6"/>
     </row>
     <row r="275" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="6"/>
@@ -5723,7 +5703,7 @@
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="0"/>
+      <c r="L275" s="6"/>
     </row>
     <row r="276" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="6"/>
@@ -5737,7 +5717,7 @@
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
       <c r="K276" s="6"/>
-      <c r="L276" s="0"/>
+      <c r="L276" s="6"/>
     </row>
     <row r="277" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="6"/>
@@ -5751,7 +5731,7 @@
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
       <c r="K277" s="6"/>
-      <c r="L277" s="0"/>
+      <c r="L277" s="6"/>
     </row>
     <row r="278" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="6"/>
@@ -5765,7 +5745,7 @@
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
       <c r="K278" s="6"/>
-      <c r="L278" s="0"/>
+      <c r="L278" s="6"/>
     </row>
     <row r="279" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="6"/>
@@ -5779,7 +5759,7 @@
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
       <c r="K279" s="6"/>
-      <c r="L279" s="0"/>
+      <c r="L279" s="6"/>
     </row>
     <row r="280" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="6"/>
@@ -5793,7 +5773,7 @@
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
       <c r="K280" s="6"/>
-      <c r="L280" s="0"/>
+      <c r="L280" s="6"/>
     </row>
     <row r="281" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="6"/>
@@ -5807,7 +5787,7 @@
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
       <c r="K281" s="6"/>
-      <c r="L281" s="0"/>
+      <c r="L281" s="6"/>
     </row>
     <row r="282" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="6"/>
@@ -5821,7 +5801,7 @@
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
       <c r="K282" s="6"/>
-      <c r="L282" s="0"/>
+      <c r="L282" s="6"/>
     </row>
     <row r="283" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="6"/>
@@ -5835,7 +5815,7 @@
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
       <c r="K283" s="6"/>
-      <c r="L283" s="0"/>
+      <c r="L283" s="6"/>
     </row>
     <row r="284" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="6"/>
@@ -5849,7 +5829,7 @@
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
       <c r="K284" s="6"/>
-      <c r="L284" s="0"/>
+      <c r="L284" s="6"/>
     </row>
     <row r="285" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="6"/>
@@ -5863,7 +5843,7 @@
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
       <c r="K285" s="6"/>
-      <c r="L285" s="0"/>
+      <c r="L285" s="6"/>
     </row>
     <row r="286" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="6"/>
@@ -5877,7 +5857,7 @@
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
       <c r="K286" s="6"/>
-      <c r="L286" s="0"/>
+      <c r="L286" s="6"/>
     </row>
     <row r="287" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="6"/>
@@ -5891,7 +5871,7 @@
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
       <c r="K287" s="6"/>
-      <c r="L287" s="0"/>
+      <c r="L287" s="6"/>
     </row>
     <row r="288" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="6"/>
@@ -5905,7 +5885,7 @@
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
       <c r="K288" s="6"/>
-      <c r="L288" s="0"/>
+      <c r="L288" s="6"/>
     </row>
     <row r="289" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="6"/>
@@ -5919,7 +5899,7 @@
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
       <c r="K289" s="6"/>
-      <c r="L289" s="0"/>
+      <c r="L289" s="6"/>
     </row>
     <row r="290" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="6"/>
@@ -5933,7 +5913,7 @@
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
       <c r="K290" s="6"/>
-      <c r="L290" s="0"/>
+      <c r="L290" s="6"/>
     </row>
     <row r="291" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="6"/>
@@ -5947,7 +5927,7 @@
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
       <c r="K291" s="6"/>
-      <c r="L291" s="0"/>
+      <c r="L291" s="6"/>
     </row>
     <row r="292" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="6"/>
@@ -5961,7 +5941,7 @@
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
       <c r="K292" s="6"/>
-      <c r="L292" s="0"/>
+      <c r="L292" s="6"/>
     </row>
     <row r="293" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="6"/>
@@ -5975,7 +5955,7 @@
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
       <c r="K293" s="6"/>
-      <c r="L293" s="0"/>
+      <c r="L293" s="6"/>
     </row>
     <row r="294" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="6"/>
@@ -5989,7 +5969,7 @@
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
       <c r="K294" s="6"/>
-      <c r="L294" s="0"/>
+      <c r="L294" s="6"/>
     </row>
     <row r="295" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="6"/>
@@ -6003,7 +5983,7 @@
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
       <c r="K295" s="6"/>
-      <c r="L295" s="0"/>
+      <c r="L295" s="6"/>
     </row>
     <row r="296" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="6"/>
@@ -6017,7 +5997,7 @@
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
       <c r="K296" s="6"/>
-      <c r="L296" s="0"/>
+      <c r="L296" s="6"/>
     </row>
     <row r="297" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="6"/>
@@ -6031,7 +6011,7 @@
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
       <c r="K297" s="6"/>
-      <c r="L297" s="0"/>
+      <c r="L297" s="6"/>
     </row>
     <row r="298" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="6"/>
@@ -6045,7 +6025,7 @@
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
       <c r="K298" s="6"/>
-      <c r="L298" s="0"/>
+      <c r="L298" s="6"/>
     </row>
     <row r="299" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="6"/>
@@ -6059,7 +6039,7 @@
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
       <c r="K299" s="6"/>
-      <c r="L299" s="0"/>
+      <c r="L299" s="6"/>
     </row>
     <row r="300" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="6"/>
@@ -6073,7 +6053,7 @@
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
       <c r="K300" s="6"/>
-      <c r="L300" s="0"/>
+      <c r="L300" s="6"/>
     </row>
     <row r="301" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="6"/>
@@ -6087,7 +6067,7 @@
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
       <c r="K301" s="6"/>
-      <c r="L301" s="0"/>
+      <c r="L301" s="6"/>
     </row>
     <row r="302" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="6"/>
@@ -6101,7 +6081,7 @@
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
       <c r="K302" s="6"/>
-      <c r="L302" s="0"/>
+      <c r="L302" s="6"/>
     </row>
     <row r="303" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="6"/>
@@ -6115,7 +6095,7 @@
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
       <c r="K303" s="6"/>
-      <c r="L303" s="0"/>
+      <c r="L303" s="6"/>
     </row>
     <row r="304" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="6"/>
@@ -6129,7 +6109,7 @@
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
       <c r="K304" s="6"/>
-      <c r="L304" s="0"/>
+      <c r="L304" s="6"/>
     </row>
     <row r="305" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="6"/>
@@ -6143,7 +6123,7 @@
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
-      <c r="L305" s="0"/>
+      <c r="L305" s="6"/>
     </row>
     <row r="306" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="6"/>
@@ -6157,7 +6137,7 @@
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
       <c r="K306" s="6"/>
-      <c r="L306" s="0"/>
+      <c r="L306" s="6"/>
     </row>
     <row r="307" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="6"/>
@@ -6171,7 +6151,7 @@
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
       <c r="K307" s="6"/>
-      <c r="L307" s="0"/>
+      <c r="L307" s="6"/>
     </row>
     <row r="308" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="6"/>
@@ -6185,7 +6165,7 @@
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
       <c r="K308" s="6"/>
-      <c r="L308" s="0"/>
+      <c r="L308" s="6"/>
     </row>
     <row r="309" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="6"/>
@@ -6199,7 +6179,7 @@
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
       <c r="K309" s="6"/>
-      <c r="L309" s="0"/>
+      <c r="L309" s="6"/>
     </row>
     <row r="310" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="6"/>
@@ -6213,7 +6193,7 @@
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
       <c r="K310" s="6"/>
-      <c r="L310" s="0"/>
+      <c r="L310" s="6"/>
     </row>
     <row r="311" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="6"/>
@@ -6227,7 +6207,7 @@
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
       <c r="K311" s="6"/>
-      <c r="L311" s="0"/>
+      <c r="L311" s="6"/>
     </row>
     <row r="312" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="6"/>
@@ -6241,7 +6221,7 @@
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
       <c r="K312" s="6"/>
-      <c r="L312" s="0"/>
+      <c r="L312" s="6"/>
     </row>
     <row r="313" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="6"/>
@@ -6255,7 +6235,7 @@
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
       <c r="K313" s="6"/>
-      <c r="L313" s="0"/>
+      <c r="L313" s="6"/>
     </row>
     <row r="314" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="6"/>
@@ -6269,7 +6249,7 @@
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
       <c r="K314" s="6"/>
-      <c r="L314" s="0"/>
+      <c r="L314" s="6"/>
     </row>
     <row r="315" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="6"/>
@@ -6283,7 +6263,7 @@
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
       <c r="K315" s="6"/>
-      <c r="L315" s="0"/>
+      <c r="L315" s="6"/>
     </row>
     <row r="316" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="6"/>
@@ -6297,7 +6277,7 @@
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
       <c r="K316" s="6"/>
-      <c r="L316" s="0"/>
+      <c r="L316" s="6"/>
     </row>
     <row r="317" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="6"/>
@@ -6311,7 +6291,7 @@
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
       <c r="K317" s="6"/>
-      <c r="L317" s="0"/>
+      <c r="L317" s="6"/>
     </row>
     <row r="318" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="6"/>
@@ -6325,7 +6305,7 @@
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
       <c r="K318" s="6"/>
-      <c r="L318" s="0"/>
+      <c r="L318" s="6"/>
     </row>
     <row r="319" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="6"/>
@@ -6339,7 +6319,7 @@
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
       <c r="K319" s="6"/>
-      <c r="L319" s="0"/>
+      <c r="L319" s="6"/>
     </row>
     <row r="320" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="6"/>
@@ -6353,7 +6333,7 @@
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
       <c r="K320" s="6"/>
-      <c r="L320" s="0"/>
+      <c r="L320" s="6"/>
     </row>
     <row r="321" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="6"/>
@@ -6367,7 +6347,7 @@
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
       <c r="K321" s="6"/>
-      <c r="L321" s="0"/>
+      <c r="L321" s="6"/>
     </row>
     <row r="322" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="6"/>
@@ -6381,7 +6361,7 @@
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
       <c r="K322" s="6"/>
-      <c r="L322" s="0"/>
+      <c r="L322" s="6"/>
     </row>
     <row r="323" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="6"/>
@@ -6395,7 +6375,7 @@
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
-      <c r="L323" s="0"/>
+      <c r="L323" s="6"/>
     </row>
     <row r="324" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="6"/>
@@ -6409,7 +6389,7 @@
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
       <c r="K324" s="6"/>
-      <c r="L324" s="0"/>
+      <c r="L324" s="6"/>
     </row>
     <row r="325" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="6"/>
@@ -6423,7 +6403,7 @@
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
       <c r="K325" s="6"/>
-      <c r="L325" s="0"/>
+      <c r="L325" s="6"/>
     </row>
     <row r="326" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="6"/>
@@ -6437,7 +6417,7 @@
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
       <c r="K326" s="6"/>
-      <c r="L326" s="0"/>
+      <c r="L326" s="6"/>
     </row>
     <row r="327" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="6"/>
@@ -6451,7 +6431,7 @@
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
       <c r="K327" s="6"/>
-      <c r="L327" s="0"/>
+      <c r="L327" s="6"/>
     </row>
     <row r="328" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="6"/>
@@ -6465,7 +6445,7 @@
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
       <c r="K328" s="6"/>
-      <c r="L328" s="0"/>
+      <c r="L328" s="6"/>
     </row>
     <row r="329" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="6"/>
@@ -6479,7 +6459,7 @@
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
       <c r="K329" s="6"/>
-      <c r="L329" s="0"/>
+      <c r="L329" s="6"/>
     </row>
     <row r="330" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="6"/>
@@ -6493,7 +6473,7 @@
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
       <c r="K330" s="6"/>
-      <c r="L330" s="0"/>
+      <c r="L330" s="6"/>
     </row>
     <row r="331" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="6"/>
@@ -6507,7 +6487,7 @@
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
       <c r="K331" s="6"/>
-      <c r="L331" s="0"/>
+      <c r="L331" s="6"/>
     </row>
     <row r="332" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="6"/>
@@ -6521,7 +6501,7 @@
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
       <c r="K332" s="6"/>
-      <c r="L332" s="0"/>
+      <c r="L332" s="6"/>
     </row>
     <row r="333" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="6"/>
@@ -6535,7 +6515,7 @@
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
       <c r="K333" s="6"/>
-      <c r="L333" s="0"/>
+      <c r="L333" s="6"/>
     </row>
     <row r="334" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="6"/>
@@ -6549,7 +6529,7 @@
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
       <c r="K334" s="6"/>
-      <c r="L334" s="0"/>
+      <c r="L334" s="6"/>
     </row>
     <row r="335" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="6"/>
@@ -6563,7 +6543,7 @@
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
-      <c r="L335" s="0"/>
+      <c r="L335" s="6"/>
     </row>
     <row r="336" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="6"/>
@@ -6577,7 +6557,7 @@
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
       <c r="K336" s="6"/>
-      <c r="L336" s="0"/>
+      <c r="L336" s="6"/>
     </row>
     <row r="337" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="6"/>
@@ -6591,7 +6571,7 @@
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
       <c r="K337" s="6"/>
-      <c r="L337" s="0"/>
+      <c r="L337" s="6"/>
     </row>
     <row r="338" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="6"/>
@@ -6605,7 +6585,7 @@
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
       <c r="K338" s="6"/>
-      <c r="L338" s="0"/>
+      <c r="L338" s="6"/>
     </row>
     <row r="339" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="6"/>
@@ -6619,7 +6599,7 @@
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
       <c r="K339" s="6"/>
-      <c r="L339" s="0"/>
+      <c r="L339" s="6"/>
     </row>
     <row r="340" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="6"/>
@@ -6633,7 +6613,7 @@
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
       <c r="K340" s="6"/>
-      <c r="L340" s="0"/>
+      <c r="L340" s="6"/>
     </row>
     <row r="341" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="6"/>
@@ -6647,7 +6627,7 @@
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
       <c r="K341" s="6"/>
-      <c r="L341" s="0"/>
+      <c r="L341" s="6"/>
     </row>
     <row r="342" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="6"/>
@@ -6661,7 +6641,7 @@
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
       <c r="K342" s="6"/>
-      <c r="L342" s="0"/>
+      <c r="L342" s="6"/>
     </row>
     <row r="343" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="6"/>
@@ -6675,7 +6655,7 @@
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
       <c r="K343" s="6"/>
-      <c r="L343" s="0"/>
+      <c r="L343" s="6"/>
     </row>
     <row r="344" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="6"/>
@@ -6689,7 +6669,7 @@
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
       <c r="K344" s="6"/>
-      <c r="L344" s="0"/>
+      <c r="L344" s="6"/>
     </row>
     <row r="345" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="6"/>
@@ -6703,7 +6683,7 @@
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
       <c r="K345" s="6"/>
-      <c r="L345" s="0"/>
+      <c r="L345" s="6"/>
     </row>
     <row r="346" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="6"/>
@@ -6717,7 +6697,7 @@
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
       <c r="K346" s="6"/>
-      <c r="L346" s="0"/>
+      <c r="L346" s="6"/>
     </row>
     <row r="347" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="6"/>
@@ -6731,7 +6711,7 @@
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
       <c r="K347" s="6"/>
-      <c r="L347" s="0"/>
+      <c r="L347" s="6"/>
     </row>
     <row r="348" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="6"/>
@@ -6745,7 +6725,7 @@
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
       <c r="K348" s="6"/>
-      <c r="L348" s="0"/>
+      <c r="L348" s="6"/>
     </row>
     <row r="349" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="6"/>
@@ -6759,7 +6739,7 @@
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
       <c r="K349" s="6"/>
-      <c r="L349" s="0"/>
+      <c r="L349" s="6"/>
     </row>
     <row r="350" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="6"/>
@@ -6773,7 +6753,7 @@
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
       <c r="K350" s="6"/>
-      <c r="L350" s="0"/>
+      <c r="L350" s="6"/>
     </row>
     <row r="351" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="6"/>
@@ -6787,7 +6767,7 @@
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
       <c r="K351" s="6"/>
-      <c r="L351" s="0"/>
+      <c r="L351" s="6"/>
     </row>
     <row r="352" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="6"/>
@@ -6801,7 +6781,7 @@
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
       <c r="K352" s="6"/>
-      <c r="L352" s="0"/>
+      <c r="L352" s="6"/>
     </row>
     <row r="353" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="6"/>
@@ -6815,7 +6795,7 @@
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
       <c r="K353" s="6"/>
-      <c r="L353" s="0"/>
+      <c r="L353" s="6"/>
     </row>
     <row r="354" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="6"/>
@@ -6829,7 +6809,7 @@
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
       <c r="K354" s="6"/>
-      <c r="L354" s="0"/>
+      <c r="L354" s="6"/>
     </row>
     <row r="355" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="6"/>
@@ -6843,7 +6823,7 @@
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
       <c r="K355" s="6"/>
-      <c r="L355" s="0"/>
+      <c r="L355" s="6"/>
     </row>
     <row r="356" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="6"/>
@@ -6857,7 +6837,7 @@
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
       <c r="K356" s="6"/>
-      <c r="L356" s="0"/>
+      <c r="L356" s="6"/>
     </row>
     <row r="357" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="6"/>
@@ -6871,7 +6851,7 @@
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
       <c r="K357" s="6"/>
-      <c r="L357" s="0"/>
+      <c r="L357" s="6"/>
     </row>
     <row r="358" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="6"/>
@@ -6885,7 +6865,7 @@
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
       <c r="K358" s="6"/>
-      <c r="L358" s="0"/>
+      <c r="L358" s="6"/>
     </row>
     <row r="359" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="6"/>
@@ -6899,7 +6879,7 @@
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
       <c r="K359" s="6"/>
-      <c r="L359" s="0"/>
+      <c r="L359" s="6"/>
     </row>
     <row r="360" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="6"/>
@@ -6913,7 +6893,7 @@
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
       <c r="K360" s="6"/>
-      <c r="L360" s="0"/>
+      <c r="L360" s="6"/>
     </row>
     <row r="361" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="6"/>
@@ -6927,7 +6907,7 @@
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
       <c r="K361" s="6"/>
-      <c r="L361" s="0"/>
+      <c r="L361" s="6"/>
     </row>
     <row r="362" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="6"/>
@@ -6941,7 +6921,7 @@
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
       <c r="K362" s="6"/>
-      <c r="L362" s="0"/>
+      <c r="L362" s="6"/>
     </row>
     <row r="363" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="6"/>
@@ -6955,7 +6935,7 @@
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
       <c r="K363" s="6"/>
-      <c r="L363" s="0"/>
+      <c r="L363" s="6"/>
     </row>
     <row r="364" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="6"/>
@@ -6969,7 +6949,7 @@
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
       <c r="K364" s="6"/>
-      <c r="L364" s="0"/>
+      <c r="L364" s="6"/>
     </row>
     <row r="365" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="6"/>
@@ -6983,7 +6963,7 @@
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
       <c r="K365" s="6"/>
-      <c r="L365" s="0"/>
+      <c r="L365" s="6"/>
     </row>
     <row r="366" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="6"/>
@@ -6997,7 +6977,7 @@
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
       <c r="K366" s="6"/>
-      <c r="L366" s="0"/>
+      <c r="L366" s="6"/>
     </row>
     <row r="367" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="6"/>
@@ -7011,7 +6991,7 @@
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
       <c r="K367" s="6"/>
-      <c r="L367" s="0"/>
+      <c r="L367" s="6"/>
     </row>
     <row r="368" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="6"/>
@@ -7025,7 +7005,7 @@
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
       <c r="K368" s="6"/>
-      <c r="L368" s="0"/>
+      <c r="L368" s="6"/>
     </row>
     <row r="369" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="6"/>
@@ -7039,7 +7019,7 @@
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
       <c r="K369" s="6"/>
-      <c r="L369" s="0"/>
+      <c r="L369" s="6"/>
     </row>
     <row r="370" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="6"/>
@@ -7053,7 +7033,7 @@
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
       <c r="K370" s="6"/>
-      <c r="L370" s="0"/>
+      <c r="L370" s="6"/>
     </row>
     <row r="371" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="6"/>
@@ -7067,7 +7047,7 @@
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
       <c r="K371" s="6"/>
-      <c r="L371" s="0"/>
+      <c r="L371" s="6"/>
     </row>
     <row r="372" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="6"/>
@@ -7081,7 +7061,7 @@
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
       <c r="K372" s="6"/>
-      <c r="L372" s="0"/>
+      <c r="L372" s="6"/>
     </row>
     <row r="373" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="6"/>
@@ -7095,7 +7075,7 @@
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
       <c r="K373" s="6"/>
-      <c r="L373" s="0"/>
+      <c r="L373" s="6"/>
     </row>
     <row r="374" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="6"/>
@@ -7109,7 +7089,7 @@
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
       <c r="K374" s="6"/>
-      <c r="L374" s="0"/>
+      <c r="L374" s="6"/>
     </row>
     <row r="375" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="6"/>
@@ -7123,7 +7103,7 @@
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
       <c r="K375" s="6"/>
-      <c r="L375" s="0"/>
+      <c r="L375" s="6"/>
     </row>
     <row r="376" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="6"/>
@@ -7137,7 +7117,7 @@
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
       <c r="K376" s="6"/>
-      <c r="L376" s="0"/>
+      <c r="L376" s="6"/>
     </row>
     <row r="377" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="6"/>
@@ -7151,7 +7131,7 @@
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
       <c r="K377" s="6"/>
-      <c r="L377" s="0"/>
+      <c r="L377" s="6"/>
     </row>
     <row r="378" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="6"/>
@@ -7165,7 +7145,7 @@
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
       <c r="K378" s="6"/>
-      <c r="L378" s="0"/>
+      <c r="L378" s="6"/>
     </row>
     <row r="379" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="6"/>
@@ -7179,7 +7159,7 @@
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
       <c r="K379" s="6"/>
-      <c r="L379" s="0"/>
+      <c r="L379" s="6"/>
     </row>
     <row r="380" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="6"/>
@@ -7193,7 +7173,7 @@
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
       <c r="K380" s="6"/>
-      <c r="L380" s="0"/>
+      <c r="L380" s="6"/>
     </row>
     <row r="381" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="6"/>
@@ -7207,7 +7187,7 @@
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
       <c r="K381" s="6"/>
-      <c r="L381" s="0"/>
+      <c r="L381" s="6"/>
     </row>
     <row r="382" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="6"/>
@@ -7221,7 +7201,7 @@
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
       <c r="K382" s="6"/>
-      <c r="L382" s="0"/>
+      <c r="L382" s="6"/>
     </row>
     <row r="383" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="6"/>
@@ -7235,7 +7215,7 @@
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
-      <c r="L383" s="0"/>
+      <c r="L383" s="6"/>
     </row>
     <row r="384" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="6"/>
@@ -7249,7 +7229,7 @@
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
       <c r="K384" s="6"/>
-      <c r="L384" s="0"/>
+      <c r="L384" s="6"/>
     </row>
     <row r="385" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="6"/>
@@ -7263,7 +7243,7 @@
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
       <c r="K385" s="6"/>
-      <c r="L385" s="0"/>
+      <c r="L385" s="6"/>
     </row>
     <row r="386" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="6"/>
@@ -7277,7 +7257,7 @@
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
       <c r="K386" s="6"/>
-      <c r="L386" s="0"/>
+      <c r="L386" s="6"/>
     </row>
     <row r="387" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="6"/>
@@ -7291,7 +7271,7 @@
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
       <c r="K387" s="6"/>
-      <c r="L387" s="0"/>
+      <c r="L387" s="6"/>
     </row>
     <row r="388" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="6"/>
@@ -7305,7 +7285,7 @@
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
       <c r="K388" s="6"/>
-      <c r="L388" s="0"/>
+      <c r="L388" s="6"/>
     </row>
     <row r="389" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="6"/>
@@ -7319,7 +7299,7 @@
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
       <c r="K389" s="6"/>
-      <c r="L389" s="0"/>
+      <c r="L389" s="6"/>
     </row>
     <row r="390" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="6"/>
@@ -7333,7 +7313,7 @@
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
       <c r="K390" s="6"/>
-      <c r="L390" s="0"/>
+      <c r="L390" s="6"/>
     </row>
     <row r="391" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="6"/>
@@ -7347,7 +7327,7 @@
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
       <c r="K391" s="6"/>
-      <c r="L391" s="0"/>
+      <c r="L391" s="6"/>
     </row>
     <row r="392" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="6"/>
@@ -7361,7 +7341,7 @@
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
       <c r="K392" s="6"/>
-      <c r="L392" s="0"/>
+      <c r="L392" s="6"/>
     </row>
     <row r="393" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="6"/>
@@ -7375,7 +7355,7 @@
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
       <c r="K393" s="6"/>
-      <c r="L393" s="0"/>
+      <c r="L393" s="6"/>
     </row>
     <row r="394" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="6"/>
@@ -7389,7 +7369,7 @@
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
       <c r="K394" s="6"/>
-      <c r="L394" s="0"/>
+      <c r="L394" s="6"/>
     </row>
     <row r="395" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="6"/>
@@ -7403,7 +7383,7 @@
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
       <c r="K395" s="6"/>
-      <c r="L395" s="0"/>
+      <c r="L395" s="6"/>
     </row>
     <row r="396" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="6"/>
@@ -7417,7 +7397,7 @@
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
       <c r="K396" s="6"/>
-      <c r="L396" s="0"/>
+      <c r="L396" s="6"/>
     </row>
     <row r="397" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="6"/>
@@ -7431,7 +7411,7 @@
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
       <c r="K397" s="6"/>
-      <c r="L397" s="0"/>
+      <c r="L397" s="6"/>
     </row>
     <row r="398" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="6"/>
@@ -7445,7 +7425,7 @@
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
       <c r="K398" s="6"/>
-      <c r="L398" s="0"/>
+      <c r="L398" s="6"/>
     </row>
     <row r="399" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="6"/>
@@ -7459,7 +7439,7 @@
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
       <c r="K399" s="6"/>
-      <c r="L399" s="0"/>
+      <c r="L399" s="6"/>
     </row>
     <row r="400" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="6"/>
@@ -7473,7 +7453,7 @@
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
       <c r="K400" s="6"/>
-      <c r="L400" s="0"/>
+      <c r="L400" s="6"/>
     </row>
     <row r="401" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="6"/>
@@ -7487,7 +7467,7 @@
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
       <c r="K401" s="6"/>
-      <c r="L401" s="0"/>
+      <c r="L401" s="6"/>
     </row>
     <row r="402" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="6"/>
@@ -7501,7 +7481,7 @@
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
       <c r="K402" s="6"/>
-      <c r="L402" s="0"/>
+      <c r="L402" s="6"/>
     </row>
     <row r="403" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="6"/>
@@ -7515,7 +7495,7 @@
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
       <c r="K403" s="6"/>
-      <c r="L403" s="0"/>
+      <c r="L403" s="6"/>
     </row>
     <row r="404" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="6"/>
@@ -7529,7 +7509,7 @@
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
       <c r="K404" s="6"/>
-      <c r="L404" s="0"/>
+      <c r="L404" s="6"/>
     </row>
     <row r="405" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="6"/>
@@ -7543,7 +7523,7 @@
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
       <c r="K405" s="6"/>
-      <c r="L405" s="0"/>
+      <c r="L405" s="6"/>
     </row>
     <row r="406" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="6"/>
@@ -7557,7 +7537,7 @@
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
       <c r="K406" s="6"/>
-      <c r="L406" s="0"/>
+      <c r="L406" s="6"/>
     </row>
     <row r="407" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="6"/>
@@ -7571,7 +7551,7 @@
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
       <c r="K407" s="6"/>
-      <c r="L407" s="0"/>
+      <c r="L407" s="6"/>
     </row>
     <row r="408" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="6"/>
@@ -7585,7 +7565,7 @@
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
       <c r="K408" s="6"/>
-      <c r="L408" s="0"/>
+      <c r="L408" s="6"/>
     </row>
     <row r="409" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="6"/>
@@ -7599,7 +7579,7 @@
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
       <c r="K409" s="6"/>
-      <c r="L409" s="0"/>
+      <c r="L409" s="6"/>
     </row>
     <row r="410" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="6"/>
@@ -7613,7 +7593,7 @@
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
       <c r="K410" s="6"/>
-      <c r="L410" s="0"/>
+      <c r="L410" s="6"/>
     </row>
     <row r="411" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="6"/>
@@ -7627,7 +7607,7 @@
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
       <c r="K411" s="6"/>
-      <c r="L411" s="0"/>
+      <c r="L411" s="6"/>
     </row>
     <row r="412" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="6"/>
@@ -7641,7 +7621,7 @@
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
       <c r="K412" s="6"/>
-      <c r="L412" s="0"/>
+      <c r="L412" s="6"/>
     </row>
     <row r="413" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="6"/>
@@ -7655,7 +7635,7 @@
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
       <c r="K413" s="6"/>
-      <c r="L413" s="0"/>
+      <c r="L413" s="6"/>
     </row>
     <row r="414" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="6"/>
@@ -7669,7 +7649,7 @@
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
       <c r="K414" s="6"/>
-      <c r="L414" s="0"/>
+      <c r="L414" s="6"/>
     </row>
     <row r="415" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="6"/>
@@ -7683,7 +7663,7 @@
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
       <c r="K415" s="6"/>
-      <c r="L415" s="0"/>
+      <c r="L415" s="6"/>
     </row>
     <row r="416" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="6"/>
@@ -7697,7 +7677,7 @@
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
       <c r="K416" s="6"/>
-      <c r="L416" s="0"/>
+      <c r="L416" s="6"/>
     </row>
     <row r="417" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="6"/>
@@ -7711,7 +7691,7 @@
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
       <c r="K417" s="6"/>
-      <c r="L417" s="0"/>
+      <c r="L417" s="6"/>
     </row>
     <row r="418" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="6"/>
@@ -7725,7 +7705,7 @@
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
       <c r="K418" s="6"/>
-      <c r="L418" s="0"/>
+      <c r="L418" s="6"/>
     </row>
     <row r="419" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="6"/>
@@ -7739,7 +7719,7 @@
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
       <c r="K419" s="6"/>
-      <c r="L419" s="0"/>
+      <c r="L419" s="6"/>
     </row>
     <row r="420" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="6"/>
@@ -7753,7 +7733,7 @@
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
       <c r="K420" s="6"/>
-      <c r="L420" s="0"/>
+      <c r="L420" s="6"/>
     </row>
     <row r="421" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="6"/>
@@ -7767,7 +7747,7 @@
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
-      <c r="L421" s="0"/>
+      <c r="L421" s="6"/>
     </row>
     <row r="422" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="6"/>
@@ -7781,7 +7761,7 @@
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
       <c r="K422" s="6"/>
-      <c r="L422" s="0"/>
+      <c r="L422" s="6"/>
     </row>
     <row r="423" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="6"/>
@@ -7795,7 +7775,7 @@
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
       <c r="K423" s="6"/>
-      <c r="L423" s="0"/>
+      <c r="L423" s="6"/>
     </row>
     <row r="424" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="6"/>
@@ -7809,7 +7789,7 @@
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
       <c r="K424" s="6"/>
-      <c r="L424" s="0"/>
+      <c r="L424" s="6"/>
     </row>
     <row r="425" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="6"/>
@@ -7823,7 +7803,7 @@
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
       <c r="K425" s="6"/>
-      <c r="L425" s="0"/>
+      <c r="L425" s="6"/>
     </row>
     <row r="426" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="6"/>
@@ -7837,7 +7817,7 @@
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
       <c r="K426" s="6"/>
-      <c r="L426" s="0"/>
+      <c r="L426" s="6"/>
     </row>
     <row r="427" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="6"/>
@@ -7851,7 +7831,7 @@
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
       <c r="K427" s="6"/>
-      <c r="L427" s="0"/>
+      <c r="L427" s="6"/>
     </row>
     <row r="428" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="6"/>
@@ -7865,7 +7845,7 @@
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
       <c r="K428" s="6"/>
-      <c r="L428" s="0"/>
+      <c r="L428" s="6"/>
     </row>
     <row r="429" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="6"/>
@@ -7879,7 +7859,7 @@
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
       <c r="K429" s="6"/>
-      <c r="L429" s="0"/>
+      <c r="L429" s="6"/>
     </row>
     <row r="430" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="6"/>
@@ -7893,7 +7873,7 @@
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
       <c r="K430" s="6"/>
-      <c r="L430" s="0"/>
+      <c r="L430" s="6"/>
     </row>
     <row r="431" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="6"/>
@@ -7907,7 +7887,7 @@
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
       <c r="K431" s="6"/>
-      <c r="L431" s="0"/>
+      <c r="L431" s="6"/>
     </row>
     <row r="432" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="6"/>
@@ -7921,7 +7901,7 @@
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
       <c r="K432" s="6"/>
-      <c r="L432" s="0"/>
+      <c r="L432" s="6"/>
     </row>
     <row r="433" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="6"/>
@@ -7935,7 +7915,7 @@
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
       <c r="K433" s="6"/>
-      <c r="L433" s="0"/>
+      <c r="L433" s="6"/>
     </row>
     <row r="434" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="6"/>
@@ -7949,7 +7929,7 @@
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
       <c r="K434" s="6"/>
-      <c r="L434" s="0"/>
+      <c r="L434" s="6"/>
     </row>
     <row r="435" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="6"/>
@@ -7963,7 +7943,7 @@
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
       <c r="K435" s="6"/>
-      <c r="L435" s="0"/>
+      <c r="L435" s="6"/>
     </row>
     <row r="436" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="6"/>
@@ -7977,7 +7957,7 @@
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
       <c r="K436" s="6"/>
-      <c r="L436" s="0"/>
+      <c r="L436" s="6"/>
     </row>
     <row r="437" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="6"/>
@@ -7991,7 +7971,7 @@
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
       <c r="K437" s="6"/>
-      <c r="L437" s="0"/>
+      <c r="L437" s="6"/>
     </row>
     <row r="438" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="6"/>
@@ -8005,7 +7985,7 @@
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
       <c r="K438" s="6"/>
-      <c r="L438" s="0"/>
+      <c r="L438" s="6"/>
     </row>
     <row r="439" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="6"/>
@@ -8019,7 +7999,7 @@
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
       <c r="K439" s="6"/>
-      <c r="L439" s="0"/>
+      <c r="L439" s="6"/>
     </row>
     <row r="440" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="6"/>
@@ -8033,7 +8013,7 @@
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
       <c r="K440" s="6"/>
-      <c r="L440" s="0"/>
+      <c r="L440" s="6"/>
     </row>
     <row r="441" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="6"/>
@@ -8047,7 +8027,7 @@
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
       <c r="K441" s="6"/>
-      <c r="L441" s="0"/>
+      <c r="L441" s="6"/>
     </row>
     <row r="442" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="6"/>
@@ -8061,7 +8041,7 @@
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
       <c r="K442" s="6"/>
-      <c r="L442" s="0"/>
+      <c r="L442" s="6"/>
     </row>
     <row r="443" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="6"/>
@@ -8075,7 +8055,7 @@
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
       <c r="K443" s="6"/>
-      <c r="L443" s="0"/>
+      <c r="L443" s="6"/>
     </row>
     <row r="444" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="6"/>
@@ -8089,7 +8069,7 @@
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
       <c r="K444" s="6"/>
-      <c r="L444" s="0"/>
+      <c r="L444" s="6"/>
     </row>
     <row r="445" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="6"/>
@@ -8103,7 +8083,7 @@
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
       <c r="K445" s="6"/>
-      <c r="L445" s="0"/>
+      <c r="L445" s="6"/>
     </row>
     <row r="446" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="6"/>
@@ -8117,7 +8097,7 @@
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
       <c r="K446" s="6"/>
-      <c r="L446" s="0"/>
+      <c r="L446" s="6"/>
     </row>
     <row r="447" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="6"/>
@@ -8131,7 +8111,7 @@
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
       <c r="K447" s="6"/>
-      <c r="L447" s="0"/>
+      <c r="L447" s="6"/>
     </row>
     <row r="448" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="6"/>
@@ -8145,7 +8125,7 @@
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
       <c r="K448" s="6"/>
-      <c r="L448" s="0"/>
+      <c r="L448" s="6"/>
     </row>
     <row r="449" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="6"/>
@@ -8159,7 +8139,7 @@
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
       <c r="K449" s="6"/>
-      <c r="L449" s="0"/>
+      <c r="L449" s="6"/>
     </row>
     <row r="450" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="6"/>
@@ -8173,7 +8153,7 @@
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
       <c r="K450" s="6"/>
-      <c r="L450" s="0"/>
+      <c r="L450" s="6"/>
     </row>
     <row r="451" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="6"/>
@@ -8187,7 +8167,7 @@
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
       <c r="K451" s="6"/>
-      <c r="L451" s="0"/>
+      <c r="L451" s="6"/>
     </row>
     <row r="452" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="6"/>
@@ -8201,7 +8181,7 @@
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
       <c r="K452" s="6"/>
-      <c r="L452" s="0"/>
+      <c r="L452" s="6"/>
     </row>
     <row r="453" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="6"/>
@@ -8215,7 +8195,7 @@
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
       <c r="K453" s="6"/>
-      <c r="L453" s="0"/>
+      <c r="L453" s="6"/>
     </row>
     <row r="454" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="6"/>
@@ -8229,7 +8209,7 @@
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
       <c r="K454" s="6"/>
-      <c r="L454" s="0"/>
+      <c r="L454" s="6"/>
     </row>
     <row r="455" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="6"/>
@@ -8243,7 +8223,7 @@
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
       <c r="K455" s="6"/>
-      <c r="L455" s="0"/>
+      <c r="L455" s="6"/>
     </row>
     <row r="456" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="6"/>
@@ -8257,7 +8237,7 @@
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
       <c r="K456" s="6"/>
-      <c r="L456" s="0"/>
+      <c r="L456" s="6"/>
     </row>
     <row r="457" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="6"/>
@@ -8271,7 +8251,7 @@
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
       <c r="K457" s="6"/>
-      <c r="L457" s="0"/>
+      <c r="L457" s="6"/>
     </row>
     <row r="458" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="6"/>
@@ -8285,7 +8265,7 @@
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
       <c r="K458" s="6"/>
-      <c r="L458" s="0"/>
+      <c r="L458" s="6"/>
     </row>
     <row r="459" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="6"/>
@@ -8299,7 +8279,7 @@
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
       <c r="K459" s="6"/>
-      <c r="L459" s="0"/>
+      <c r="L459" s="6"/>
     </row>
     <row r="460" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="6"/>
@@ -8313,7 +8293,7 @@
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
       <c r="K460" s="6"/>
-      <c r="L460" s="0"/>
+      <c r="L460" s="6"/>
     </row>
     <row r="461" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="6"/>
@@ -8327,7 +8307,7 @@
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
       <c r="K461" s="6"/>
-      <c r="L461" s="0"/>
+      <c r="L461" s="6"/>
     </row>
     <row r="462" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="6"/>
@@ -8341,7 +8321,7 @@
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
       <c r="K462" s="6"/>
-      <c r="L462" s="0"/>
+      <c r="L462" s="6"/>
     </row>
     <row r="463" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="6"/>
@@ -8355,7 +8335,7 @@
       <c r="I463" s="6"/>
       <c r="J463" s="6"/>
       <c r="K463" s="6"/>
-      <c r="L463" s="0"/>
+      <c r="L463" s="6"/>
     </row>
     <row r="464" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="6"/>
@@ -8369,7 +8349,7 @@
       <c r="I464" s="6"/>
       <c r="J464" s="6"/>
       <c r="K464" s="6"/>
-      <c r="L464" s="0"/>
+      <c r="L464" s="6"/>
     </row>
     <row r="465" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="6"/>
@@ -8383,7 +8363,7 @@
       <c r="I465" s="6"/>
       <c r="J465" s="6"/>
       <c r="K465" s="6"/>
-      <c r="L465" s="0"/>
+      <c r="L465" s="6"/>
     </row>
     <row r="466" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="6"/>
@@ -8397,7 +8377,7 @@
       <c r="I466" s="6"/>
       <c r="J466" s="6"/>
       <c r="K466" s="6"/>
-      <c r="L466" s="0"/>
+      <c r="L466" s="6"/>
     </row>
     <row r="467" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="6"/>
@@ -8411,7 +8391,7 @@
       <c r="I467" s="6"/>
       <c r="J467" s="6"/>
       <c r="K467" s="6"/>
-      <c r="L467" s="0"/>
+      <c r="L467" s="6"/>
     </row>
     <row r="468" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="6"/>
@@ -8425,7 +8405,7 @@
       <c r="I468" s="6"/>
       <c r="J468" s="6"/>
       <c r="K468" s="6"/>
-      <c r="L468" s="0"/>
+      <c r="L468" s="6"/>
     </row>
     <row r="469" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="6"/>
@@ -8439,7 +8419,7 @@
       <c r="I469" s="6"/>
       <c r="J469" s="6"/>
       <c r="K469" s="6"/>
-      <c r="L469" s="0"/>
+      <c r="L469" s="6"/>
     </row>
     <row r="470" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="6"/>
@@ -8453,7 +8433,7 @@
       <c r="I470" s="6"/>
       <c r="J470" s="6"/>
       <c r="K470" s="6"/>
-      <c r="L470" s="0"/>
+      <c r="L470" s="6"/>
     </row>
     <row r="471" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
@@ -8467,7 +8447,7 @@
       <c r="I471" s="6"/>
       <c r="J471" s="6"/>
       <c r="K471" s="6"/>
-      <c r="L471" s="0"/>
+      <c r="L471" s="6"/>
     </row>
     <row r="472" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="6"/>
@@ -8481,7 +8461,7 @@
       <c r="I472" s="6"/>
       <c r="J472" s="6"/>
       <c r="K472" s="6"/>
-      <c r="L472" s="0"/>
+      <c r="L472" s="6"/>
     </row>
     <row r="473" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="6"/>
@@ -8495,7 +8475,7 @@
       <c r="I473" s="6"/>
       <c r="J473" s="6"/>
       <c r="K473" s="6"/>
-      <c r="L473" s="0"/>
+      <c r="L473" s="6"/>
     </row>
     <row r="474" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="6"/>
@@ -8509,7 +8489,7 @@
       <c r="I474" s="6"/>
       <c r="J474" s="6"/>
       <c r="K474" s="6"/>
-      <c r="L474" s="0"/>
+      <c r="L474" s="6"/>
     </row>
     <row r="475" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="6"/>
@@ -8523,7 +8503,7 @@
       <c r="I475" s="6"/>
       <c r="J475" s="6"/>
       <c r="K475" s="6"/>
-      <c r="L475" s="0"/>
+      <c r="L475" s="6"/>
     </row>
     <row r="476" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="6"/>
@@ -8537,7 +8517,7 @@
       <c r="I476" s="6"/>
       <c r="J476" s="6"/>
       <c r="K476" s="6"/>
-      <c r="L476" s="0"/>
+      <c r="L476" s="6"/>
     </row>
     <row r="477" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="6"/>
@@ -8551,7 +8531,7 @@
       <c r="I477" s="6"/>
       <c r="J477" s="6"/>
       <c r="K477" s="6"/>
-      <c r="L477" s="0"/>
+      <c r="L477" s="6"/>
     </row>
     <row r="478" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="6"/>
@@ -8565,7 +8545,7 @@
       <c r="I478" s="6"/>
       <c r="J478" s="6"/>
       <c r="K478" s="6"/>
-      <c r="L478" s="0"/>
+      <c r="L478" s="6"/>
     </row>
     <row r="479" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="6"/>
@@ -8579,7 +8559,7 @@
       <c r="I479" s="6"/>
       <c r="J479" s="6"/>
       <c r="K479" s="6"/>
-      <c r="L479" s="0"/>
+      <c r="L479" s="6"/>
     </row>
     <row r="480" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="6"/>
@@ -8593,7 +8573,7 @@
       <c r="I480" s="6"/>
       <c r="J480" s="6"/>
       <c r="K480" s="6"/>
-      <c r="L480" s="0"/>
+      <c r="L480" s="6"/>
     </row>
     <row r="481" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="6"/>
@@ -8607,7 +8587,7 @@
       <c r="I481" s="6"/>
       <c r="J481" s="6"/>
       <c r="K481" s="6"/>
-      <c r="L481" s="0"/>
+      <c r="L481" s="6"/>
     </row>
     <row r="482" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="6"/>
@@ -8621,7 +8601,7 @@
       <c r="I482" s="6"/>
       <c r="J482" s="6"/>
       <c r="K482" s="6"/>
-      <c r="L482" s="0"/>
+      <c r="L482" s="6"/>
     </row>
     <row r="483" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="6"/>
@@ -8635,7 +8615,7 @@
       <c r="I483" s="6"/>
       <c r="J483" s="6"/>
       <c r="K483" s="6"/>
-      <c r="L483" s="0"/>
+      <c r="L483" s="6"/>
     </row>
     <row r="484" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="6"/>
@@ -8649,7 +8629,7 @@
       <c r="I484" s="6"/>
       <c r="J484" s="6"/>
       <c r="K484" s="6"/>
-      <c r="L484" s="0"/>
+      <c r="L484" s="6"/>
     </row>
     <row r="485" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="6"/>
@@ -8663,7 +8643,7 @@
       <c r="I485" s="6"/>
       <c r="J485" s="6"/>
       <c r="K485" s="6"/>
-      <c r="L485" s="0"/>
+      <c r="L485" s="6"/>
     </row>
     <row r="486" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="6"/>
@@ -8677,7 +8657,7 @@
       <c r="I486" s="6"/>
       <c r="J486" s="6"/>
       <c r="K486" s="6"/>
-      <c r="L486" s="0"/>
+      <c r="L486" s="6"/>
     </row>
     <row r="487" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="6"/>
@@ -8691,7 +8671,7 @@
       <c r="I487" s="6"/>
       <c r="J487" s="6"/>
       <c r="K487" s="6"/>
-      <c r="L487" s="0"/>
+      <c r="L487" s="6"/>
     </row>
     <row r="488" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="6"/>
@@ -8705,7 +8685,7 @@
       <c r="I488" s="6"/>
       <c r="J488" s="6"/>
       <c r="K488" s="6"/>
-      <c r="L488" s="0"/>
+      <c r="L488" s="6"/>
     </row>
     <row r="489" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="6"/>
@@ -8719,7 +8699,7 @@
       <c r="I489" s="6"/>
       <c r="J489" s="6"/>
       <c r="K489" s="6"/>
-      <c r="L489" s="0"/>
+      <c r="L489" s="6"/>
     </row>
     <row r="490" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="6"/>
@@ -8733,7 +8713,7 @@
       <c r="I490" s="6"/>
       <c r="J490" s="6"/>
       <c r="K490" s="6"/>
-      <c r="L490" s="0"/>
+      <c r="L490" s="6"/>
     </row>
     <row r="491" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="6"/>
@@ -8747,7 +8727,7 @@
       <c r="I491" s="6"/>
       <c r="J491" s="6"/>
       <c r="K491" s="6"/>
-      <c r="L491" s="0"/>
+      <c r="L491" s="6"/>
     </row>
     <row r="492" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="6"/>
@@ -8761,7 +8741,7 @@
       <c r="I492" s="6"/>
       <c r="J492" s="6"/>
       <c r="K492" s="6"/>
-      <c r="L492" s="0"/>
+      <c r="L492" s="6"/>
     </row>
     <row r="493" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="6"/>
@@ -8775,7 +8755,7 @@
       <c r="I493" s="6"/>
       <c r="J493" s="6"/>
       <c r="K493" s="6"/>
-      <c r="L493" s="0"/>
+      <c r="L493" s="6"/>
     </row>
     <row r="494" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="6"/>
@@ -8789,7 +8769,7 @@
       <c r="I494" s="6"/>
       <c r="J494" s="6"/>
       <c r="K494" s="6"/>
-      <c r="L494" s="0"/>
+      <c r="L494" s="6"/>
     </row>
     <row r="495" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="6"/>
@@ -8803,7 +8783,7 @@
       <c r="I495" s="6"/>
       <c r="J495" s="6"/>
       <c r="K495" s="6"/>
-      <c r="L495" s="0"/>
+      <c r="L495" s="6"/>
     </row>
     <row r="496" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="6"/>
@@ -8817,7 +8797,7 @@
       <c r="I496" s="6"/>
       <c r="J496" s="6"/>
       <c r="K496" s="6"/>
-      <c r="L496" s="0"/>
+      <c r="L496" s="6"/>
     </row>
     <row r="497" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="6"/>
@@ -8831,7 +8811,7 @@
       <c r="I497" s="6"/>
       <c r="J497" s="6"/>
       <c r="K497" s="6"/>
-      <c r="L497" s="0"/>
+      <c r="L497" s="6"/>
     </row>
     <row r="498" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="6"/>
@@ -8845,7 +8825,7 @@
       <c r="I498" s="6"/>
       <c r="J498" s="6"/>
       <c r="K498" s="6"/>
-      <c r="L498" s="0"/>
+      <c r="L498" s="6"/>
     </row>
     <row r="499" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="6"/>
@@ -8859,7 +8839,7 @@
       <c r="I499" s="6"/>
       <c r="J499" s="6"/>
       <c r="K499" s="6"/>
-      <c r="L499" s="0"/>
+      <c r="L499" s="6"/>
     </row>
     <row r="500" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="6"/>
@@ -8873,7 +8853,7 @@
       <c r="I500" s="6"/>
       <c r="J500" s="6"/>
       <c r="K500" s="6"/>
-      <c r="L500" s="0"/>
+      <c r="L500" s="6"/>
     </row>
     <row r="501" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="6"/>
@@ -8887,7 +8867,7 @@
       <c r="I501" s="6"/>
       <c r="J501" s="6"/>
       <c r="K501" s="6"/>
-      <c r="L501" s="0"/>
+      <c r="L501" s="6"/>
     </row>
     <row r="502" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="6"/>
@@ -8901,7 +8881,7 @@
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
       <c r="K502" s="6"/>
-      <c r="L502" s="0"/>
+      <c r="L502" s="6"/>
     </row>
     <row r="503" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="6"/>
@@ -8915,7 +8895,7 @@
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
       <c r="K503" s="6"/>
-      <c r="L503" s="0"/>
+      <c r="L503" s="6"/>
     </row>
     <row r="504" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="6"/>
@@ -8929,7 +8909,7 @@
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
       <c r="K504" s="6"/>
-      <c r="L504" s="0"/>
+      <c r="L504" s="6"/>
     </row>
     <row r="505" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="6"/>
@@ -8943,7 +8923,7 @@
       <c r="I505" s="6"/>
       <c r="J505" s="6"/>
       <c r="K505" s="6"/>
-      <c r="L505" s="0"/>
+      <c r="L505" s="6"/>
     </row>
     <row r="506" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="6"/>
@@ -8957,7 +8937,7 @@
       <c r="I506" s="6"/>
       <c r="J506" s="6"/>
       <c r="K506" s="6"/>
-      <c r="L506" s="0"/>
+      <c r="L506" s="6"/>
     </row>
     <row r="507" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="6"/>
@@ -8971,7 +8951,7 @@
       <c r="I507" s="6"/>
       <c r="J507" s="6"/>
       <c r="K507" s="6"/>
-      <c r="L507" s="0"/>
+      <c r="L507" s="6"/>
     </row>
     <row r="508" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="6"/>
@@ -8985,7 +8965,7 @@
       <c r="I508" s="6"/>
       <c r="J508" s="6"/>
       <c r="K508" s="6"/>
-      <c r="L508" s="0"/>
+      <c r="L508" s="6"/>
     </row>
     <row r="509" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="6"/>
@@ -8999,7 +8979,7 @@
       <c r="I509" s="6"/>
       <c r="J509" s="6"/>
       <c r="K509" s="6"/>
-      <c r="L509" s="0"/>
+      <c r="L509" s="6"/>
     </row>
     <row r="510" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="6"/>
@@ -9013,7 +8993,7 @@
       <c r="I510" s="6"/>
       <c r="J510" s="6"/>
       <c r="K510" s="6"/>
-      <c r="L510" s="0"/>
+      <c r="L510" s="6"/>
     </row>
     <row r="511" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="6"/>
@@ -9027,7 +9007,7 @@
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
       <c r="K511" s="6"/>
-      <c r="L511" s="0"/>
+      <c r="L511" s="6"/>
     </row>
     <row r="512" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="6"/>
@@ -9041,7 +9021,7 @@
       <c r="I512" s="6"/>
       <c r="J512" s="6"/>
       <c r="K512" s="6"/>
-      <c r="L512" s="0"/>
+      <c r="L512" s="6"/>
     </row>
     <row r="513" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="6"/>
@@ -9055,7 +9035,7 @@
       <c r="I513" s="6"/>
       <c r="J513" s="6"/>
       <c r="K513" s="6"/>
-      <c r="L513" s="0"/>
+      <c r="L513" s="6"/>
     </row>
     <row r="514" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="6"/>
@@ -9069,7 +9049,7 @@
       <c r="I514" s="6"/>
       <c r="J514" s="6"/>
       <c r="K514" s="6"/>
-      <c r="L514" s="0"/>
+      <c r="L514" s="6"/>
     </row>
     <row r="515" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="6"/>
@@ -9083,7 +9063,7 @@
       <c r="I515" s="6"/>
       <c r="J515" s="6"/>
       <c r="K515" s="6"/>
-      <c r="L515" s="0"/>
+      <c r="L515" s="6"/>
     </row>
     <row r="516" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="6"/>
@@ -9097,7 +9077,7 @@
       <c r="I516" s="6"/>
       <c r="J516" s="6"/>
       <c r="K516" s="6"/>
-      <c r="L516" s="0"/>
+      <c r="L516" s="6"/>
     </row>
     <row r="517" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="6"/>
@@ -9111,7 +9091,7 @@
       <c r="I517" s="6"/>
       <c r="J517" s="6"/>
       <c r="K517" s="6"/>
-      <c r="L517" s="0"/>
+      <c r="L517" s="6"/>
     </row>
     <row r="518" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="6"/>
@@ -9125,7 +9105,7 @@
       <c r="I518" s="6"/>
       <c r="J518" s="6"/>
       <c r="K518" s="6"/>
-      <c r="L518" s="0"/>
+      <c r="L518" s="6"/>
     </row>
     <row r="519" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="6"/>
@@ -9139,7 +9119,7 @@
       <c r="I519" s="6"/>
       <c r="J519" s="6"/>
       <c r="K519" s="6"/>
-      <c r="L519" s="0"/>
+      <c r="L519" s="6"/>
     </row>
     <row r="520" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="6"/>
@@ -9153,7 +9133,7 @@
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
       <c r="K520" s="6"/>
-      <c r="L520" s="0"/>
+      <c r="L520" s="6"/>
     </row>
     <row r="521" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="6"/>
@@ -9167,7 +9147,7 @@
       <c r="I521" s="6"/>
       <c r="J521" s="6"/>
       <c r="K521" s="6"/>
-      <c r="L521" s="0"/>
+      <c r="L521" s="6"/>
     </row>
     <row r="522" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="6"/>
@@ -9181,7 +9161,7 @@
       <c r="I522" s="6"/>
       <c r="J522" s="6"/>
       <c r="K522" s="6"/>
-      <c r="L522" s="0"/>
+      <c r="L522" s="6"/>
     </row>
     <row r="523" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="6"/>
@@ -9195,7 +9175,7 @@
       <c r="I523" s="6"/>
       <c r="J523" s="6"/>
       <c r="K523" s="6"/>
-      <c r="L523" s="0"/>
+      <c r="L523" s="6"/>
     </row>
     <row r="524" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="6"/>
@@ -9209,7 +9189,7 @@
       <c r="I524" s="6"/>
       <c r="J524" s="6"/>
       <c r="K524" s="6"/>
-      <c r="L524" s="0"/>
+      <c r="L524" s="6"/>
     </row>
     <row r="525" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="6"/>
@@ -9223,7 +9203,7 @@
       <c r="I525" s="6"/>
       <c r="J525" s="6"/>
       <c r="K525" s="6"/>
-      <c r="L525" s="0"/>
+      <c r="L525" s="6"/>
     </row>
     <row r="526" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="6"/>
@@ -9237,7 +9217,7 @@
       <c r="I526" s="6"/>
       <c r="J526" s="6"/>
       <c r="K526" s="6"/>
-      <c r="L526" s="0"/>
+      <c r="L526" s="6"/>
     </row>
     <row r="527" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="6"/>
@@ -9251,7 +9231,7 @@
       <c r="I527" s="6"/>
       <c r="J527" s="6"/>
       <c r="K527" s="6"/>
-      <c r="L527" s="0"/>
+      <c r="L527" s="6"/>
     </row>
     <row r="528" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="6"/>
@@ -9265,7 +9245,7 @@
       <c r="I528" s="6"/>
       <c r="J528" s="6"/>
       <c r="K528" s="6"/>
-      <c r="L528" s="0"/>
+      <c r="L528" s="6"/>
     </row>
     <row r="529" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="6"/>
@@ -9279,7 +9259,7 @@
       <c r="I529" s="6"/>
       <c r="J529" s="6"/>
       <c r="K529" s="6"/>
-      <c r="L529" s="0"/>
+      <c r="L529" s="6"/>
     </row>
     <row r="530" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="6"/>
@@ -9293,7 +9273,7 @@
       <c r="I530" s="6"/>
       <c r="J530" s="6"/>
       <c r="K530" s="6"/>
-      <c r="L530" s="0"/>
+      <c r="L530" s="6"/>
     </row>
     <row r="531" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="6"/>
@@ -9307,7 +9287,7 @@
       <c r="I531" s="6"/>
       <c r="J531" s="6"/>
       <c r="K531" s="6"/>
-      <c r="L531" s="0"/>
+      <c r="L531" s="6"/>
     </row>
     <row r="532" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="6"/>
@@ -9321,7 +9301,7 @@
       <c r="I532" s="6"/>
       <c r="J532" s="6"/>
       <c r="K532" s="6"/>
-      <c r="L532" s="0"/>
+      <c r="L532" s="6"/>
     </row>
     <row r="533" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="6"/>
@@ -9335,7 +9315,7 @@
       <c r="I533" s="6"/>
       <c r="J533" s="6"/>
       <c r="K533" s="6"/>
-      <c r="L533" s="0"/>
+      <c r="L533" s="6"/>
     </row>
     <row r="534" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="6"/>
@@ -9349,7 +9329,7 @@
       <c r="I534" s="6"/>
       <c r="J534" s="6"/>
       <c r="K534" s="6"/>
-      <c r="L534" s="0"/>
+      <c r="L534" s="6"/>
     </row>
     <row r="535" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="6"/>
@@ -9363,7 +9343,7 @@
       <c r="I535" s="6"/>
       <c r="J535" s="6"/>
       <c r="K535" s="6"/>
-      <c r="L535" s="0"/>
+      <c r="L535" s="6"/>
     </row>
     <row r="536" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="6"/>
@@ -9377,7 +9357,7 @@
       <c r="I536" s="6"/>
       <c r="J536" s="6"/>
       <c r="K536" s="6"/>
-      <c r="L536" s="0"/>
+      <c r="L536" s="6"/>
     </row>
     <row r="537" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="6"/>
@@ -9391,7 +9371,7 @@
       <c r="I537" s="6"/>
       <c r="J537" s="6"/>
       <c r="K537" s="6"/>
-      <c r="L537" s="0"/>
+      <c r="L537" s="6"/>
     </row>
     <row r="538" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="6"/>
@@ -9405,7 +9385,7 @@
       <c r="I538" s="6"/>
       <c r="J538" s="6"/>
       <c r="K538" s="6"/>
-      <c r="L538" s="0"/>
+      <c r="L538" s="6"/>
     </row>
     <row r="539" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="6"/>
@@ -9419,7 +9399,7 @@
       <c r="I539" s="6"/>
       <c r="J539" s="6"/>
       <c r="K539" s="6"/>
-      <c r="L539" s="0"/>
+      <c r="L539" s="6"/>
     </row>
     <row r="540" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="6"/>
@@ -9433,7 +9413,7 @@
       <c r="I540" s="6"/>
       <c r="J540" s="6"/>
       <c r="K540" s="6"/>
-      <c r="L540" s="0"/>
+      <c r="L540" s="6"/>
     </row>
     <row r="541" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="6"/>
@@ -9447,7 +9427,7 @@
       <c r="I541" s="6"/>
       <c r="J541" s="6"/>
       <c r="K541" s="6"/>
-      <c r="L541" s="0"/>
+      <c r="L541" s="6"/>
     </row>
     <row r="542" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="6"/>
@@ -9461,7 +9441,7 @@
       <c r="I542" s="6"/>
       <c r="J542" s="6"/>
       <c r="K542" s="6"/>
-      <c r="L542" s="0"/>
+      <c r="L542" s="6"/>
     </row>
     <row r="543" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="6"/>
@@ -9475,7 +9455,7 @@
       <c r="I543" s="6"/>
       <c r="J543" s="6"/>
       <c r="K543" s="6"/>
-      <c r="L543" s="0"/>
+      <c r="L543" s="6"/>
     </row>
     <row r="544" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="6"/>
@@ -9489,7 +9469,7 @@
       <c r="I544" s="6"/>
       <c r="J544" s="6"/>
       <c r="K544" s="6"/>
-      <c r="L544" s="0"/>
+      <c r="L544" s="6"/>
     </row>
     <row r="545" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="6"/>
@@ -9503,7 +9483,7 @@
       <c r="I545" s="6"/>
       <c r="J545" s="6"/>
       <c r="K545" s="6"/>
-      <c r="L545" s="0"/>
+      <c r="L545" s="6"/>
     </row>
     <row r="546" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="6"/>
@@ -9517,7 +9497,7 @@
       <c r="I546" s="6"/>
       <c r="J546" s="6"/>
       <c r="K546" s="6"/>
-      <c r="L546" s="0"/>
+      <c r="L546" s="6"/>
     </row>
     <row r="547" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="6"/>
@@ -9531,7 +9511,7 @@
       <c r="I547" s="6"/>
       <c r="J547" s="6"/>
       <c r="K547" s="6"/>
-      <c r="L547" s="0"/>
+      <c r="L547" s="6"/>
     </row>
     <row r="548" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="6"/>
@@ -9545,7 +9525,7 @@
       <c r="I548" s="6"/>
       <c r="J548" s="6"/>
       <c r="K548" s="6"/>
-      <c r="L548" s="0"/>
+      <c r="L548" s="6"/>
     </row>
     <row r="549" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="6"/>
@@ -9559,7 +9539,7 @@
       <c r="I549" s="6"/>
       <c r="J549" s="6"/>
       <c r="K549" s="6"/>
-      <c r="L549" s="0"/>
+      <c r="L549" s="6"/>
     </row>
     <row r="550" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="6"/>
@@ -9573,7 +9553,7 @@
       <c r="I550" s="6"/>
       <c r="J550" s="6"/>
       <c r="K550" s="6"/>
-      <c r="L550" s="0"/>
+      <c r="L550" s="6"/>
     </row>
     <row r="551" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="6"/>
@@ -9587,7 +9567,7 @@
       <c r="I551" s="6"/>
       <c r="J551" s="6"/>
       <c r="K551" s="6"/>
-      <c r="L551" s="0"/>
+      <c r="L551" s="6"/>
     </row>
     <row r="552" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="6"/>
@@ -9601,7 +9581,7 @@
       <c r="I552" s="6"/>
       <c r="J552" s="6"/>
       <c r="K552" s="6"/>
-      <c r="L552" s="0"/>
+      <c r="L552" s="6"/>
     </row>
     <row r="553" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="6"/>
@@ -9615,7 +9595,7 @@
       <c r="I553" s="6"/>
       <c r="J553" s="6"/>
       <c r="K553" s="6"/>
-      <c r="L553" s="0"/>
+      <c r="L553" s="6"/>
     </row>
     <row r="554" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="6"/>
@@ -9629,7 +9609,7 @@
       <c r="I554" s="6"/>
       <c r="J554" s="6"/>
       <c r="K554" s="6"/>
-      <c r="L554" s="0"/>
+      <c r="L554" s="6"/>
     </row>
     <row r="555" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="6"/>
@@ -9643,7 +9623,7 @@
       <c r="I555" s="6"/>
       <c r="J555" s="6"/>
       <c r="K555" s="6"/>
-      <c r="L555" s="0"/>
+      <c r="L555" s="6"/>
     </row>
     <row r="556" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="6"/>
@@ -9657,7 +9637,7 @@
       <c r="I556" s="6"/>
       <c r="J556" s="6"/>
       <c r="K556" s="6"/>
-      <c r="L556" s="0"/>
+      <c r="L556" s="6"/>
     </row>
     <row r="557" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="6"/>
@@ -9671,7 +9651,7 @@
       <c r="I557" s="6"/>
       <c r="J557" s="6"/>
       <c r="K557" s="6"/>
-      <c r="L557" s="0"/>
+      <c r="L557" s="6"/>
     </row>
     <row r="558" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="6"/>
@@ -9685,7 +9665,7 @@
       <c r="I558" s="6"/>
       <c r="J558" s="6"/>
       <c r="K558" s="6"/>
-      <c r="L558" s="0"/>
+      <c r="L558" s="6"/>
     </row>
     <row r="559" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="6"/>
@@ -9699,7 +9679,7 @@
       <c r="I559" s="6"/>
       <c r="J559" s="6"/>
       <c r="K559" s="6"/>
-      <c r="L559" s="0"/>
+      <c r="L559" s="6"/>
     </row>
     <row r="560" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="6"/>
@@ -9713,7 +9693,7 @@
       <c r="I560" s="6"/>
       <c r="J560" s="6"/>
       <c r="K560" s="6"/>
-      <c r="L560" s="0"/>
+      <c r="L560" s="6"/>
     </row>
     <row r="561" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="6"/>
@@ -9727,7 +9707,7 @@
       <c r="I561" s="6"/>
       <c r="J561" s="6"/>
       <c r="K561" s="6"/>
-      <c r="L561" s="0"/>
+      <c r="L561" s="6"/>
     </row>
     <row r="562" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="6"/>
@@ -9741,7 +9721,7 @@
       <c r="I562" s="6"/>
       <c r="J562" s="6"/>
       <c r="K562" s="6"/>
-      <c r="L562" s="0"/>
+      <c r="L562" s="6"/>
     </row>
     <row r="563" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="6"/>
@@ -9755,7 +9735,7 @@
       <c r="I563" s="6"/>
       <c r="J563" s="6"/>
       <c r="K563" s="6"/>
-      <c r="L563" s="0"/>
+      <c r="L563" s="6"/>
     </row>
     <row r="564" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="6"/>
@@ -9769,7 +9749,7 @@
       <c r="I564" s="6"/>
       <c r="J564" s="6"/>
       <c r="K564" s="6"/>
-      <c r="L564" s="0"/>
+      <c r="L564" s="6"/>
     </row>
     <row r="565" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="6"/>
@@ -9783,7 +9763,7 @@
       <c r="I565" s="6"/>
       <c r="J565" s="6"/>
       <c r="K565" s="6"/>
-      <c r="L565" s="0"/>
+      <c r="L565" s="6"/>
     </row>
     <row r="566" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="6"/>
@@ -9797,7 +9777,7 @@
       <c r="I566" s="6"/>
       <c r="J566" s="6"/>
       <c r="K566" s="6"/>
-      <c r="L566" s="0"/>
+      <c r="L566" s="6"/>
     </row>
     <row r="567" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="6"/>
@@ -9811,7 +9791,7 @@
       <c r="I567" s="6"/>
       <c r="J567" s="6"/>
       <c r="K567" s="6"/>
-      <c r="L567" s="0"/>
+      <c r="L567" s="6"/>
     </row>
     <row r="568" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="6"/>
@@ -9825,7 +9805,7 @@
       <c r="I568" s="6"/>
       <c r="J568" s="6"/>
       <c r="K568" s="6"/>
-      <c r="L568" s="0"/>
+      <c r="L568" s="6"/>
     </row>
     <row r="569" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="6"/>
@@ -9839,7 +9819,7 @@
       <c r="I569" s="6"/>
       <c r="J569" s="6"/>
       <c r="K569" s="6"/>
-      <c r="L569" s="0"/>
+      <c r="L569" s="6"/>
     </row>
     <row r="570" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="6"/>
@@ -9853,7 +9833,7 @@
       <c r="I570" s="6"/>
       <c r="J570" s="6"/>
       <c r="K570" s="6"/>
-      <c r="L570" s="0"/>
+      <c r="L570" s="6"/>
     </row>
     <row r="571" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="6"/>
@@ -9867,7 +9847,7 @@
       <c r="I571" s="6"/>
       <c r="J571" s="6"/>
       <c r="K571" s="6"/>
-      <c r="L571" s="0"/>
+      <c r="L571" s="6"/>
     </row>
     <row r="572" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="6"/>
@@ -9881,7 +9861,7 @@
       <c r="I572" s="6"/>
       <c r="J572" s="6"/>
       <c r="K572" s="6"/>
-      <c r="L572" s="0"/>
+      <c r="L572" s="6"/>
     </row>
     <row r="573" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="6"/>
@@ -9895,7 +9875,7 @@
       <c r="I573" s="6"/>
       <c r="J573" s="6"/>
       <c r="K573" s="6"/>
-      <c r="L573" s="0"/>
+      <c r="L573" s="6"/>
     </row>
     <row r="574" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="6"/>
@@ -9909,7 +9889,7 @@
       <c r="I574" s="6"/>
       <c r="J574" s="6"/>
       <c r="K574" s="6"/>
-      <c r="L574" s="0"/>
+      <c r="L574" s="6"/>
     </row>
     <row r="575" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="6"/>
@@ -9923,7 +9903,7 @@
       <c r="I575" s="6"/>
       <c r="J575" s="6"/>
       <c r="K575" s="6"/>
-      <c r="L575" s="0"/>
+      <c r="L575" s="6"/>
     </row>
     <row r="576" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="6"/>
@@ -9937,7 +9917,7 @@
       <c r="I576" s="6"/>
       <c r="J576" s="6"/>
       <c r="K576" s="6"/>
-      <c r="L576" s="0"/>
+      <c r="L576" s="6"/>
     </row>
     <row r="577" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="6"/>
@@ -9951,7 +9931,7 @@
       <c r="I577" s="6"/>
       <c r="J577" s="6"/>
       <c r="K577" s="6"/>
-      <c r="L577" s="0"/>
+      <c r="L577" s="6"/>
     </row>
     <row r="578" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="6"/>
@@ -9965,7 +9945,7 @@
       <c r="I578" s="6"/>
       <c r="J578" s="6"/>
       <c r="K578" s="6"/>
-      <c r="L578" s="0"/>
+      <c r="L578" s="6"/>
     </row>
     <row r="579" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="6"/>
@@ -9979,7 +9959,7 @@
       <c r="I579" s="6"/>
       <c r="J579" s="6"/>
       <c r="K579" s="6"/>
-      <c r="L579" s="0"/>
+      <c r="L579" s="6"/>
     </row>
     <row r="580" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="6"/>
@@ -9993,7 +9973,7 @@
       <c r="I580" s="6"/>
       <c r="J580" s="6"/>
       <c r="K580" s="6"/>
-      <c r="L580" s="0"/>
+      <c r="L580" s="6"/>
     </row>
     <row r="581" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="6"/>
@@ -10007,7 +9987,7 @@
       <c r="I581" s="6"/>
       <c r="J581" s="6"/>
       <c r="K581" s="6"/>
-      <c r="L581" s="0"/>
+      <c r="L581" s="6"/>
     </row>
     <row r="582" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="6"/>
@@ -10021,7 +10001,7 @@
       <c r="I582" s="6"/>
       <c r="J582" s="6"/>
       <c r="K582" s="6"/>
-      <c r="L582" s="0"/>
+      <c r="L582" s="6"/>
     </row>
     <row r="583" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="6"/>
@@ -10035,7 +10015,7 @@
       <c r="I583" s="6"/>
       <c r="J583" s="6"/>
       <c r="K583" s="6"/>
-      <c r="L583" s="0"/>
+      <c r="L583" s="6"/>
     </row>
     <row r="584" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="6"/>
@@ -10049,7 +10029,7 @@
       <c r="I584" s="6"/>
       <c r="J584" s="6"/>
       <c r="K584" s="6"/>
-      <c r="L584" s="0"/>
+      <c r="L584" s="6"/>
     </row>
     <row r="585" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="6"/>
@@ -10063,7 +10043,7 @@
       <c r="I585" s="6"/>
       <c r="J585" s="6"/>
       <c r="K585" s="6"/>
-      <c r="L585" s="0"/>
+      <c r="L585" s="6"/>
     </row>
     <row r="586" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="6"/>
@@ -10077,7 +10057,7 @@
       <c r="I586" s="6"/>
       <c r="J586" s="6"/>
       <c r="K586" s="6"/>
-      <c r="L586" s="0"/>
+      <c r="L586" s="6"/>
     </row>
     <row r="587" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="6"/>
@@ -10091,7 +10071,7 @@
       <c r="I587" s="6"/>
       <c r="J587" s="6"/>
       <c r="K587" s="6"/>
-      <c r="L587" s="0"/>
+      <c r="L587" s="6"/>
     </row>
     <row r="588" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="6"/>
@@ -10105,7 +10085,7 @@
       <c r="I588" s="6"/>
       <c r="J588" s="6"/>
       <c r="K588" s="6"/>
-      <c r="L588" s="0"/>
+      <c r="L588" s="6"/>
     </row>
     <row r="589" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="6"/>
@@ -10119,7 +10099,7 @@
       <c r="I589" s="6"/>
       <c r="J589" s="6"/>
       <c r="K589" s="6"/>
-      <c r="L589" s="0"/>
+      <c r="L589" s="6"/>
     </row>
     <row r="590" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="6"/>
@@ -10133,7 +10113,7 @@
       <c r="I590" s="6"/>
       <c r="J590" s="6"/>
       <c r="K590" s="6"/>
-      <c r="L590" s="0"/>
+      <c r="L590" s="6"/>
     </row>
     <row r="591" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="6"/>
@@ -10147,7 +10127,7 @@
       <c r="I591" s="6"/>
       <c r="J591" s="6"/>
       <c r="K591" s="6"/>
-      <c r="L591" s="0"/>
+      <c r="L591" s="6"/>
     </row>
     <row r="592" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="6"/>
@@ -10161,7 +10141,7 @@
       <c r="I592" s="6"/>
       <c r="J592" s="6"/>
       <c r="K592" s="6"/>
-      <c r="L592" s="0"/>
+      <c r="L592" s="6"/>
     </row>
     <row r="593" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="6"/>
@@ -10175,7 +10155,7 @@
       <c r="I593" s="6"/>
       <c r="J593" s="6"/>
       <c r="K593" s="6"/>
-      <c r="L593" s="0"/>
+      <c r="L593" s="6"/>
     </row>
     <row r="594" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="6"/>
@@ -10189,7 +10169,7 @@
       <c r="I594" s="6"/>
       <c r="J594" s="6"/>
       <c r="K594" s="6"/>
-      <c r="L594" s="0"/>
+      <c r="L594" s="6"/>
     </row>
     <row r="595" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="6"/>
@@ -10203,7 +10183,7 @@
       <c r="I595" s="6"/>
       <c r="J595" s="6"/>
       <c r="K595" s="6"/>
-      <c r="L595" s="0"/>
+      <c r="L595" s="6"/>
     </row>
     <row r="596" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="6"/>
@@ -10217,7 +10197,7 @@
       <c r="I596" s="6"/>
       <c r="J596" s="6"/>
       <c r="K596" s="6"/>
-      <c r="L596" s="0"/>
+      <c r="L596" s="6"/>
     </row>
     <row r="597" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="6"/>
@@ -10231,7 +10211,7 @@
       <c r="I597" s="6"/>
       <c r="J597" s="6"/>
       <c r="K597" s="6"/>
-      <c r="L597" s="0"/>
+      <c r="L597" s="6"/>
     </row>
     <row r="598" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="6"/>
@@ -10245,7 +10225,7 @@
       <c r="I598" s="6"/>
       <c r="J598" s="6"/>
       <c r="K598" s="6"/>
-      <c r="L598" s="0"/>
+      <c r="L598" s="6"/>
     </row>
     <row r="599" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="6"/>
@@ -10259,7 +10239,7 @@
       <c r="I599" s="6"/>
       <c r="J599" s="6"/>
       <c r="K599" s="6"/>
-      <c r="L599" s="0"/>
+      <c r="L599" s="6"/>
     </row>
     <row r="600" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="6"/>
@@ -10273,7 +10253,7 @@
       <c r="I600" s="6"/>
       <c r="J600" s="6"/>
       <c r="K600" s="6"/>
-      <c r="L600" s="0"/>
+      <c r="L600" s="6"/>
     </row>
     <row r="601" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="6"/>
@@ -10287,7 +10267,7 @@
       <c r="I601" s="6"/>
       <c r="J601" s="6"/>
       <c r="K601" s="6"/>
-      <c r="L601" s="0"/>
+      <c r="L601" s="6"/>
     </row>
     <row r="602" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="6"/>
@@ -10301,7 +10281,7 @@
       <c r="I602" s="6"/>
       <c r="J602" s="6"/>
       <c r="K602" s="6"/>
-      <c r="L602" s="0"/>
+      <c r="L602" s="6"/>
     </row>
     <row r="603" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="6"/>
@@ -10315,7 +10295,7 @@
       <c r="I603" s="6"/>
       <c r="J603" s="6"/>
       <c r="K603" s="6"/>
-      <c r="L603" s="0"/>
+      <c r="L603" s="6"/>
     </row>
     <row r="604" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="6"/>
@@ -10329,7 +10309,7 @@
       <c r="I604" s="6"/>
       <c r="J604" s="6"/>
       <c r="K604" s="6"/>
-      <c r="L604" s="0"/>
+      <c r="L604" s="6"/>
     </row>
     <row r="605" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="6"/>
@@ -10343,7 +10323,7 @@
       <c r="I605" s="6"/>
       <c r="J605" s="6"/>
       <c r="K605" s="6"/>
-      <c r="L605" s="0"/>
+      <c r="L605" s="6"/>
     </row>
     <row r="606" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="6"/>
@@ -10357,7 +10337,7 @@
       <c r="I606" s="6"/>
       <c r="J606" s="6"/>
       <c r="K606" s="6"/>
-      <c r="L606" s="0"/>
+      <c r="L606" s="6"/>
     </row>
     <row r="607" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="6"/>
@@ -10371,7 +10351,7 @@
       <c r="I607" s="6"/>
       <c r="J607" s="6"/>
       <c r="K607" s="6"/>
-      <c r="L607" s="0"/>
+      <c r="L607" s="6"/>
     </row>
     <row r="608" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="6"/>
@@ -10385,7 +10365,7 @@
       <c r="I608" s="6"/>
       <c r="J608" s="6"/>
       <c r="K608" s="6"/>
-      <c r="L608" s="0"/>
+      <c r="L608" s="6"/>
     </row>
     <row r="609" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="6"/>
@@ -10399,7 +10379,7 @@
       <c r="I609" s="6"/>
       <c r="J609" s="6"/>
       <c r="K609" s="6"/>
-      <c r="L609" s="0"/>
+      <c r="L609" s="6"/>
     </row>
     <row r="610" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="6"/>
@@ -10413,7 +10393,7 @@
       <c r="I610" s="6"/>
       <c r="J610" s="6"/>
       <c r="K610" s="6"/>
-      <c r="L610" s="0"/>
+      <c r="L610" s="6"/>
     </row>
     <row r="611" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="6"/>
@@ -10427,7 +10407,7 @@
       <c r="I611" s="6"/>
       <c r="J611" s="6"/>
       <c r="K611" s="6"/>
-      <c r="L611" s="0"/>
+      <c r="L611" s="6"/>
     </row>
     <row r="612" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="6"/>
@@ -10441,7 +10421,7 @@
       <c r="I612" s="6"/>
       <c r="J612" s="6"/>
       <c r="K612" s="6"/>
-      <c r="L612" s="0"/>
+      <c r="L612" s="6"/>
     </row>
     <row r="613" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="6"/>
@@ -10455,7 +10435,7 @@
       <c r="I613" s="6"/>
       <c r="J613" s="6"/>
       <c r="K613" s="6"/>
-      <c r="L613" s="0"/>
+      <c r="L613" s="6"/>
     </row>
     <row r="614" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="6"/>
@@ -10469,7 +10449,7 @@
       <c r="I614" s="6"/>
       <c r="J614" s="6"/>
       <c r="K614" s="6"/>
-      <c r="L614" s="0"/>
+      <c r="L614" s="6"/>
     </row>
     <row r="615" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="6"/>
@@ -10483,7 +10463,7 @@
       <c r="I615" s="6"/>
       <c r="J615" s="6"/>
       <c r="K615" s="6"/>
-      <c r="L615" s="0"/>
+      <c r="L615" s="6"/>
     </row>
     <row r="616" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="6"/>
@@ -10497,7 +10477,7 @@
       <c r="I616" s="6"/>
       <c r="J616" s="6"/>
       <c r="K616" s="6"/>
-      <c r="L616" s="0"/>
+      <c r="L616" s="6"/>
     </row>
     <row r="617" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="6"/>
@@ -10511,7 +10491,7 @@
       <c r="I617" s="6"/>
       <c r="J617" s="6"/>
       <c r="K617" s="6"/>
-      <c r="L617" s="0"/>
+      <c r="L617" s="6"/>
     </row>
     <row r="618" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="6"/>
@@ -10525,7 +10505,7 @@
       <c r="I618" s="6"/>
       <c r="J618" s="6"/>
       <c r="K618" s="6"/>
-      <c r="L618" s="0"/>
+      <c r="L618" s="6"/>
     </row>
     <row r="619" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="6"/>
@@ -10539,7 +10519,7 @@
       <c r="I619" s="6"/>
       <c r="J619" s="6"/>
       <c r="K619" s="6"/>
-      <c r="L619" s="0"/>
+      <c r="L619" s="6"/>
     </row>
     <row r="620" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="6"/>
@@ -10553,7 +10533,7 @@
       <c r="I620" s="6"/>
       <c r="J620" s="6"/>
       <c r="K620" s="6"/>
-      <c r="L620" s="0"/>
+      <c r="L620" s="6"/>
     </row>
     <row r="621" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="6"/>
@@ -10567,7 +10547,7 @@
       <c r="I621" s="6"/>
       <c r="J621" s="6"/>
       <c r="K621" s="6"/>
-      <c r="L621" s="0"/>
+      <c r="L621" s="6"/>
     </row>
     <row r="622" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="6"/>
@@ -10581,7 +10561,7 @@
       <c r="I622" s="6"/>
       <c r="J622" s="6"/>
       <c r="K622" s="6"/>
-      <c r="L622" s="0"/>
+      <c r="L622" s="6"/>
     </row>
     <row r="623" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="6"/>
@@ -10595,7 +10575,7 @@
       <c r="I623" s="6"/>
       <c r="J623" s="6"/>
       <c r="K623" s="6"/>
-      <c r="L623" s="0"/>
+      <c r="L623" s="6"/>
     </row>
     <row r="624" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="6"/>
@@ -10609,7 +10589,7 @@
       <c r="I624" s="6"/>
       <c r="J624" s="6"/>
       <c r="K624" s="6"/>
-      <c r="L624" s="0"/>
+      <c r="L624" s="6"/>
     </row>
     <row r="625" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="6"/>
@@ -10623,7 +10603,7 @@
       <c r="I625" s="6"/>
       <c r="J625" s="6"/>
       <c r="K625" s="6"/>
-      <c r="L625" s="0"/>
+      <c r="L625" s="6"/>
     </row>
     <row r="626" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="6"/>
@@ -10637,7 +10617,7 @@
       <c r="I626" s="6"/>
       <c r="J626" s="6"/>
       <c r="K626" s="6"/>
-      <c r="L626" s="0"/>
+      <c r="L626" s="6"/>
     </row>
     <row r="627" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="6"/>
@@ -10651,7 +10631,7 @@
       <c r="I627" s="6"/>
       <c r="J627" s="6"/>
       <c r="K627" s="6"/>
-      <c r="L627" s="0"/>
+      <c r="L627" s="6"/>
     </row>
     <row r="628" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="6"/>
@@ -10665,7 +10645,7 @@
       <c r="I628" s="6"/>
       <c r="J628" s="6"/>
       <c r="K628" s="6"/>
-      <c r="L628" s="0"/>
+      <c r="L628" s="6"/>
     </row>
     <row r="629" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="6"/>
@@ -10679,7 +10659,7 @@
       <c r="I629" s="6"/>
       <c r="J629" s="6"/>
       <c r="K629" s="6"/>
-      <c r="L629" s="0"/>
+      <c r="L629" s="6"/>
     </row>
     <row r="630" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="6"/>
@@ -10693,7 +10673,7 @@
       <c r="I630" s="6"/>
       <c r="J630" s="6"/>
       <c r="K630" s="6"/>
-      <c r="L630" s="0"/>
+      <c r="L630" s="6"/>
     </row>
     <row r="631" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="6"/>
@@ -10707,7 +10687,7 @@
       <c r="I631" s="6"/>
       <c r="J631" s="6"/>
       <c r="K631" s="6"/>
-      <c r="L631" s="0"/>
+      <c r="L631" s="6"/>
     </row>
     <row r="632" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="6"/>
@@ -10721,7 +10701,7 @@
       <c r="I632" s="6"/>
       <c r="J632" s="6"/>
       <c r="K632" s="6"/>
-      <c r="L632" s="0"/>
+      <c r="L632" s="6"/>
     </row>
     <row r="633" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="6"/>
@@ -10735,7 +10715,7 @@
       <c r="I633" s="6"/>
       <c r="J633" s="6"/>
       <c r="K633" s="6"/>
-      <c r="L633" s="0"/>
+      <c r="L633" s="6"/>
     </row>
     <row r="634" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="6"/>
@@ -10749,7 +10729,7 @@
       <c r="I634" s="6"/>
       <c r="J634" s="6"/>
       <c r="K634" s="6"/>
-      <c r="L634" s="0"/>
+      <c r="L634" s="6"/>
     </row>
     <row r="635" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="6"/>
@@ -10763,7 +10743,7 @@
       <c r="I635" s="6"/>
       <c r="J635" s="6"/>
       <c r="K635" s="6"/>
-      <c r="L635" s="0"/>
+      <c r="L635" s="6"/>
     </row>
     <row r="636" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="6"/>
@@ -10777,7 +10757,7 @@
       <c r="I636" s="6"/>
       <c r="J636" s="6"/>
       <c r="K636" s="6"/>
-      <c r="L636" s="0"/>
+      <c r="L636" s="6"/>
     </row>
     <row r="637" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="6"/>
@@ -10791,7 +10771,7 @@
       <c r="I637" s="6"/>
       <c r="J637" s="6"/>
       <c r="K637" s="6"/>
-      <c r="L637" s="0"/>
+      <c r="L637" s="6"/>
     </row>
     <row r="638" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="6"/>
@@ -10805,7 +10785,7 @@
       <c r="I638" s="6"/>
       <c r="J638" s="6"/>
       <c r="K638" s="6"/>
-      <c r="L638" s="0"/>
+      <c r="L638" s="6"/>
     </row>
     <row r="639" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="6"/>
@@ -10819,7 +10799,7 @@
       <c r="I639" s="6"/>
       <c r="J639" s="6"/>
       <c r="K639" s="6"/>
-      <c r="L639" s="0"/>
+      <c r="L639" s="6"/>
     </row>
     <row r="640" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="6"/>
@@ -10833,7 +10813,7 @@
       <c r="I640" s="6"/>
       <c r="J640" s="6"/>
       <c r="K640" s="6"/>
-      <c r="L640" s="0"/>
+      <c r="L640" s="6"/>
     </row>
     <row r="641" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="6"/>
@@ -10847,7 +10827,7 @@
       <c r="I641" s="6"/>
       <c r="J641" s="6"/>
       <c r="K641" s="6"/>
-      <c r="L641" s="0"/>
+      <c r="L641" s="6"/>
     </row>
     <row r="642" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="6"/>
@@ -10861,7 +10841,7 @@
       <c r="I642" s="6"/>
       <c r="J642" s="6"/>
       <c r="K642" s="6"/>
-      <c r="L642" s="0"/>
+      <c r="L642" s="6"/>
     </row>
     <row r="643" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="6"/>
@@ -10875,7 +10855,7 @@
       <c r="I643" s="6"/>
       <c r="J643" s="6"/>
       <c r="K643" s="6"/>
-      <c r="L643" s="0"/>
+      <c r="L643" s="6"/>
     </row>
     <row r="644" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="6"/>
@@ -10889,7 +10869,7 @@
       <c r="I644" s="6"/>
       <c r="J644" s="6"/>
       <c r="K644" s="6"/>
-      <c r="L644" s="0"/>
+      <c r="L644" s="6"/>
     </row>
     <row r="645" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="6"/>
@@ -10903,7 +10883,7 @@
       <c r="I645" s="6"/>
       <c r="J645" s="6"/>
       <c r="K645" s="6"/>
-      <c r="L645" s="0"/>
+      <c r="L645" s="6"/>
     </row>
     <row r="646" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="6"/>
@@ -10917,7 +10897,7 @@
       <c r="I646" s="6"/>
       <c r="J646" s="6"/>
       <c r="K646" s="6"/>
-      <c r="L646" s="0"/>
+      <c r="L646" s="6"/>
     </row>
     <row r="647" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="6"/>
@@ -10931,7 +10911,7 @@
       <c r="I647" s="6"/>
       <c r="J647" s="6"/>
       <c r="K647" s="6"/>
-      <c r="L647" s="0"/>
+      <c r="L647" s="6"/>
     </row>
     <row r="648" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="6"/>
@@ -10945,7 +10925,7 @@
       <c r="I648" s="6"/>
       <c r="J648" s="6"/>
       <c r="K648" s="6"/>
-      <c r="L648" s="0"/>
+      <c r="L648" s="6"/>
     </row>
     <row r="649" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="6"/>
@@ -10959,7 +10939,7 @@
       <c r="I649" s="6"/>
       <c r="J649" s="6"/>
       <c r="K649" s="6"/>
-      <c r="L649" s="0"/>
+      <c r="L649" s="6"/>
     </row>
     <row r="650" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="6"/>
@@ -10973,7 +10953,7 @@
       <c r="I650" s="6"/>
       <c r="J650" s="6"/>
       <c r="K650" s="6"/>
-      <c r="L650" s="0"/>
+      <c r="L650" s="6"/>
     </row>
     <row r="651" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="6"/>
@@ -10987,7 +10967,7 @@
       <c r="I651" s="6"/>
       <c r="J651" s="6"/>
       <c r="K651" s="6"/>
-      <c r="L651" s="0"/>
+      <c r="L651" s="6"/>
     </row>
     <row r="652" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="6"/>
@@ -11001,7 +10981,7 @@
       <c r="I652" s="6"/>
       <c r="J652" s="6"/>
       <c r="K652" s="6"/>
-      <c r="L652" s="0"/>
+      <c r="L652" s="6"/>
     </row>
     <row r="653" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="6"/>
@@ -11015,7 +10995,7 @@
       <c r="I653" s="6"/>
       <c r="J653" s="6"/>
       <c r="K653" s="6"/>
-      <c r="L653" s="0"/>
+      <c r="L653" s="6"/>
     </row>
     <row r="654" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="6"/>
@@ -11029,7 +11009,7 @@
       <c r="I654" s="6"/>
       <c r="J654" s="6"/>
       <c r="K654" s="6"/>
-      <c r="L654" s="0"/>
+      <c r="L654" s="6"/>
     </row>
     <row r="655" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="6"/>
@@ -11043,7 +11023,7 @@
       <c r="I655" s="6"/>
       <c r="J655" s="6"/>
       <c r="K655" s="6"/>
-      <c r="L655" s="0"/>
+      <c r="L655" s="6"/>
     </row>
     <row r="656" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="6"/>
@@ -11057,7 +11037,7 @@
       <c r="I656" s="6"/>
       <c r="J656" s="6"/>
       <c r="K656" s="6"/>
-      <c r="L656" s="0"/>
+      <c r="L656" s="6"/>
     </row>
     <row r="657" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="6"/>
@@ -11071,7 +11051,7 @@
       <c r="I657" s="6"/>
       <c r="J657" s="6"/>
       <c r="K657" s="6"/>
-      <c r="L657" s="0"/>
+      <c r="L657" s="6"/>
     </row>
     <row r="658" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="6"/>
@@ -11085,7 +11065,7 @@
       <c r="I658" s="6"/>
       <c r="J658" s="6"/>
       <c r="K658" s="6"/>
-      <c r="L658" s="0"/>
+      <c r="L658" s="6"/>
     </row>
     <row r="659" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="6"/>
@@ -11099,7 +11079,7 @@
       <c r="I659" s="6"/>
       <c r="J659" s="6"/>
       <c r="K659" s="6"/>
-      <c r="L659" s="0"/>
+      <c r="L659" s="6"/>
     </row>
     <row r="660" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="6"/>
@@ -11113,7 +11093,7 @@
       <c r="I660" s="6"/>
       <c r="J660" s="6"/>
       <c r="K660" s="6"/>
-      <c r="L660" s="0"/>
+      <c r="L660" s="6"/>
     </row>
     <row r="661" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="6"/>
@@ -11127,7 +11107,7 @@
       <c r="I661" s="6"/>
       <c r="J661" s="6"/>
       <c r="K661" s="6"/>
-      <c r="L661" s="0"/>
+      <c r="L661" s="6"/>
     </row>
     <row r="662" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="6"/>
@@ -11141,7 +11121,7 @@
       <c r="I662" s="6"/>
       <c r="J662" s="6"/>
       <c r="K662" s="6"/>
-      <c r="L662" s="0"/>
+      <c r="L662" s="6"/>
     </row>
     <row r="663" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="6"/>
@@ -11155,7 +11135,7 @@
       <c r="I663" s="6"/>
       <c r="J663" s="6"/>
       <c r="K663" s="6"/>
-      <c r="L663" s="0"/>
+      <c r="L663" s="6"/>
     </row>
     <row r="664" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="6"/>
@@ -11169,7 +11149,7 @@
       <c r="I664" s="6"/>
       <c r="J664" s="6"/>
       <c r="K664" s="6"/>
-      <c r="L664" s="0"/>
+      <c r="L664" s="6"/>
     </row>
     <row r="665" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="6"/>
@@ -11183,7 +11163,7 @@
       <c r="I665" s="6"/>
       <c r="J665" s="6"/>
       <c r="K665" s="6"/>
-      <c r="L665" s="0"/>
+      <c r="L665" s="6"/>
     </row>
     <row r="666" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="6"/>
@@ -11197,7 +11177,7 @@
       <c r="I666" s="6"/>
       <c r="J666" s="6"/>
       <c r="K666" s="6"/>
-      <c r="L666" s="0"/>
+      <c r="L666" s="6"/>
     </row>
     <row r="667" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="6"/>
@@ -11211,7 +11191,7 @@
       <c r="I667" s="6"/>
       <c r="J667" s="6"/>
       <c r="K667" s="6"/>
-      <c r="L667" s="0"/>
+      <c r="L667" s="6"/>
     </row>
     <row r="668" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="6"/>
@@ -11225,7 +11205,7 @@
       <c r="I668" s="6"/>
       <c r="J668" s="6"/>
       <c r="K668" s="6"/>
-      <c r="L668" s="0"/>
+      <c r="L668" s="6"/>
     </row>
     <row r="669" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="6"/>
@@ -11239,7 +11219,7 @@
       <c r="I669" s="6"/>
       <c r="J669" s="6"/>
       <c r="K669" s="6"/>
-      <c r="L669" s="0"/>
+      <c r="L669" s="6"/>
     </row>
     <row r="670" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="6"/>
@@ -11253,7 +11233,7 @@
       <c r="I670" s="6"/>
       <c r="J670" s="6"/>
       <c r="K670" s="6"/>
-      <c r="L670" s="0"/>
+      <c r="L670" s="6"/>
     </row>
     <row r="671" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="6"/>
@@ -11267,7 +11247,7 @@
       <c r="I671" s="6"/>
       <c r="J671" s="6"/>
       <c r="K671" s="6"/>
-      <c r="L671" s="0"/>
+      <c r="L671" s="6"/>
     </row>
     <row r="672" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="6"/>
@@ -11281,7 +11261,7 @@
       <c r="I672" s="6"/>
       <c r="J672" s="6"/>
       <c r="K672" s="6"/>
-      <c r="L672" s="0"/>
+      <c r="L672" s="6"/>
     </row>
     <row r="673" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="6"/>
@@ -11295,7 +11275,7 @@
       <c r="I673" s="6"/>
       <c r="J673" s="6"/>
       <c r="K673" s="6"/>
-      <c r="L673" s="0"/>
+      <c r="L673" s="6"/>
     </row>
     <row r="674" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="6"/>
@@ -11309,7 +11289,7 @@
       <c r="I674" s="6"/>
       <c r="J674" s="6"/>
       <c r="K674" s="6"/>
-      <c r="L674" s="0"/>
+      <c r="L674" s="6"/>
     </row>
     <row r="675" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="6"/>
@@ -11323,7 +11303,7 @@
       <c r="I675" s="6"/>
       <c r="J675" s="6"/>
       <c r="K675" s="6"/>
-      <c r="L675" s="0"/>
+      <c r="L675" s="6"/>
     </row>
     <row r="676" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="6"/>
@@ -11337,7 +11317,7 @@
       <c r="I676" s="6"/>
       <c r="J676" s="6"/>
       <c r="K676" s="6"/>
-      <c r="L676" s="0"/>
+      <c r="L676" s="6"/>
     </row>
     <row r="677" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="6"/>
@@ -11351,7 +11331,7 @@
       <c r="I677" s="6"/>
       <c r="J677" s="6"/>
       <c r="K677" s="6"/>
-      <c r="L677" s="0"/>
+      <c r="L677" s="6"/>
     </row>
     <row r="678" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="6"/>
@@ -11365,7 +11345,7 @@
       <c r="I678" s="6"/>
       <c r="J678" s="6"/>
       <c r="K678" s="6"/>
-      <c r="L678" s="0"/>
+      <c r="L678" s="6"/>
     </row>
     <row r="679" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="6"/>
@@ -11379,7 +11359,7 @@
       <c r="I679" s="6"/>
       <c r="J679" s="6"/>
       <c r="K679" s="6"/>
-      <c r="L679" s="0"/>
+      <c r="L679" s="6"/>
     </row>
     <row r="680" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="6"/>
@@ -11393,7 +11373,7 @@
       <c r="I680" s="6"/>
       <c r="J680" s="6"/>
       <c r="K680" s="6"/>
-      <c r="L680" s="0"/>
+      <c r="L680" s="6"/>
     </row>
     <row r="681" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="6"/>
@@ -11407,7 +11387,7 @@
       <c r="I681" s="6"/>
       <c r="J681" s="6"/>
       <c r="K681" s="6"/>
-      <c r="L681" s="0"/>
+      <c r="L681" s="6"/>
     </row>
     <row r="682" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="6"/>
@@ -11421,7 +11401,7 @@
       <c r="I682" s="6"/>
       <c r="J682" s="6"/>
       <c r="K682" s="6"/>
-      <c r="L682" s="0"/>
+      <c r="L682" s="6"/>
     </row>
     <row r="683" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="6"/>
@@ -11435,7 +11415,7 @@
       <c r="I683" s="6"/>
       <c r="J683" s="6"/>
       <c r="K683" s="6"/>
-      <c r="L683" s="0"/>
+      <c r="L683" s="6"/>
     </row>
     <row r="684" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="6"/>
@@ -11449,7 +11429,7 @@
       <c r="I684" s="6"/>
       <c r="J684" s="6"/>
       <c r="K684" s="6"/>
-      <c r="L684" s="0"/>
+      <c r="L684" s="6"/>
     </row>
     <row r="685" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="6"/>
@@ -11463,7 +11443,7 @@
       <c r="I685" s="6"/>
       <c r="J685" s="6"/>
       <c r="K685" s="6"/>
-      <c r="L685" s="0"/>
+      <c r="L685" s="6"/>
     </row>
     <row r="686" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="6"/>
@@ -11477,7 +11457,7 @@
       <c r="I686" s="6"/>
       <c r="J686" s="6"/>
       <c r="K686" s="6"/>
-      <c r="L686" s="0"/>
+      <c r="L686" s="6"/>
     </row>
     <row r="687" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="6"/>
@@ -11491,7 +11471,7 @@
       <c r="I687" s="6"/>
       <c r="J687" s="6"/>
       <c r="K687" s="6"/>
-      <c r="L687" s="0"/>
+      <c r="L687" s="6"/>
     </row>
     <row r="688" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="6"/>
@@ -11505,7 +11485,7 @@
       <c r="I688" s="6"/>
       <c r="J688" s="6"/>
       <c r="K688" s="6"/>
-      <c r="L688" s="0"/>
+      <c r="L688" s="6"/>
     </row>
     <row r="689" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="6"/>
@@ -11519,7 +11499,7 @@
       <c r="I689" s="6"/>
       <c r="J689" s="6"/>
       <c r="K689" s="6"/>
-      <c r="L689" s="0"/>
+      <c r="L689" s="6"/>
     </row>
     <row r="690" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="6"/>
@@ -11533,7 +11513,7 @@
       <c r="I690" s="6"/>
       <c r="J690" s="6"/>
       <c r="K690" s="6"/>
-      <c r="L690" s="0"/>
+      <c r="L690" s="6"/>
     </row>
     <row r="691" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="6"/>
@@ -11547,7 +11527,7 @@
       <c r="I691" s="6"/>
       <c r="J691" s="6"/>
       <c r="K691" s="6"/>
-      <c r="L691" s="0"/>
+      <c r="L691" s="6"/>
     </row>
     <row r="692" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="6"/>
@@ -11561,7 +11541,7 @@
       <c r="I692" s="6"/>
       <c r="J692" s="6"/>
       <c r="K692" s="6"/>
-      <c r="L692" s="0"/>
+      <c r="L692" s="6"/>
     </row>
     <row r="693" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="6"/>
@@ -11575,7 +11555,7 @@
       <c r="I693" s="6"/>
       <c r="J693" s="6"/>
       <c r="K693" s="6"/>
-      <c r="L693" s="0"/>
+      <c r="L693" s="6"/>
     </row>
     <row r="694" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="6"/>
@@ -11589,7 +11569,7 @@
       <c r="I694" s="6"/>
       <c r="J694" s="6"/>
       <c r="K694" s="6"/>
-      <c r="L694" s="0"/>
+      <c r="L694" s="6"/>
     </row>
     <row r="695" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="6"/>
@@ -11603,7 +11583,7 @@
       <c r="I695" s="6"/>
       <c r="J695" s="6"/>
       <c r="K695" s="6"/>
-      <c r="L695" s="0"/>
+      <c r="L695" s="6"/>
     </row>
     <row r="696" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="6"/>
@@ -11617,7 +11597,7 @@
       <c r="I696" s="6"/>
       <c r="J696" s="6"/>
       <c r="K696" s="6"/>
-      <c r="L696" s="0"/>
+      <c r="L696" s="6"/>
     </row>
     <row r="697" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="6"/>
@@ -11631,7 +11611,7 @@
       <c r="I697" s="6"/>
       <c r="J697" s="6"/>
       <c r="K697" s="6"/>
-      <c r="L697" s="0"/>
+      <c r="L697" s="6"/>
     </row>
     <row r="698" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="6"/>
@@ -11645,7 +11625,7 @@
       <c r="I698" s="6"/>
       <c r="J698" s="6"/>
       <c r="K698" s="6"/>
-      <c r="L698" s="0"/>
+      <c r="L698" s="6"/>
     </row>
     <row r="699" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="6"/>
@@ -11659,7 +11639,7 @@
       <c r="I699" s="6"/>
       <c r="J699" s="6"/>
       <c r="K699" s="6"/>
-      <c r="L699" s="0"/>
+      <c r="L699" s="6"/>
     </row>
     <row r="700" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="6"/>
@@ -11673,7 +11653,7 @@
       <c r="I700" s="6"/>
       <c r="J700" s="6"/>
       <c r="K700" s="6"/>
-      <c r="L700" s="0"/>
+      <c r="L700" s="6"/>
     </row>
     <row r="701" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="6"/>
@@ -11687,7 +11667,7 @@
       <c r="I701" s="6"/>
       <c r="J701" s="6"/>
       <c r="K701" s="6"/>
-      <c r="L701" s="0"/>
+      <c r="L701" s="6"/>
     </row>
     <row r="702" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="6"/>
@@ -11701,7 +11681,7 @@
       <c r="I702" s="6"/>
       <c r="J702" s="6"/>
       <c r="K702" s="6"/>
-      <c r="L702" s="0"/>
+      <c r="L702" s="6"/>
     </row>
     <row r="703" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="6"/>
@@ -11715,7 +11695,7 @@
       <c r="I703" s="6"/>
       <c r="J703" s="6"/>
       <c r="K703" s="6"/>
-      <c r="L703" s="0"/>
+      <c r="L703" s="6"/>
     </row>
     <row r="704" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="6"/>
@@ -11729,7 +11709,7 @@
       <c r="I704" s="6"/>
       <c r="J704" s="6"/>
       <c r="K704" s="6"/>
-      <c r="L704" s="0"/>
+      <c r="L704" s="6"/>
     </row>
     <row r="705" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="6"/>
@@ -11743,7 +11723,7 @@
       <c r="I705" s="6"/>
       <c r="J705" s="6"/>
       <c r="K705" s="6"/>
-      <c r="L705" s="0"/>
+      <c r="L705" s="6"/>
     </row>
     <row r="706" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="6"/>
@@ -11757,7 +11737,7 @@
       <c r="I706" s="6"/>
       <c r="J706" s="6"/>
       <c r="K706" s="6"/>
-      <c r="L706" s="0"/>
+      <c r="L706" s="6"/>
     </row>
     <row r="707" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="6"/>
@@ -11771,7 +11751,7 @@
       <c r="I707" s="6"/>
       <c r="J707" s="6"/>
       <c r="K707" s="6"/>
-      <c r="L707" s="0"/>
+      <c r="L707" s="6"/>
     </row>
     <row r="708" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="6"/>
@@ -11785,7 +11765,7 @@
       <c r="I708" s="6"/>
       <c r="J708" s="6"/>
       <c r="K708" s="6"/>
-      <c r="L708" s="0"/>
+      <c r="L708" s="6"/>
     </row>
     <row r="709" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="6"/>
@@ -11799,7 +11779,7 @@
       <c r="I709" s="6"/>
       <c r="J709" s="6"/>
       <c r="K709" s="6"/>
-      <c r="L709" s="0"/>
+      <c r="L709" s="6"/>
     </row>
     <row r="710" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="6"/>
@@ -11813,7 +11793,7 @@
       <c r="I710" s="6"/>
       <c r="J710" s="6"/>
       <c r="K710" s="6"/>
-      <c r="L710" s="0"/>
+      <c r="L710" s="6"/>
     </row>
     <row r="711" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="6"/>
@@ -11827,7 +11807,7 @@
       <c r="I711" s="6"/>
       <c r="J711" s="6"/>
       <c r="K711" s="6"/>
-      <c r="L711" s="0"/>
+      <c r="L711" s="6"/>
     </row>
     <row r="712" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="6"/>
@@ -11841,7 +11821,7 @@
       <c r="I712" s="6"/>
       <c r="J712" s="6"/>
       <c r="K712" s="6"/>
-      <c r="L712" s="0"/>
+      <c r="L712" s="6"/>
     </row>
     <row r="713" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="6"/>
@@ -11855,7 +11835,7 @@
       <c r="I713" s="6"/>
       <c r="J713" s="6"/>
       <c r="K713" s="6"/>
-      <c r="L713" s="0"/>
+      <c r="L713" s="6"/>
     </row>
     <row r="714" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="6"/>
@@ -11869,7 +11849,7 @@
       <c r="I714" s="6"/>
       <c r="J714" s="6"/>
       <c r="K714" s="6"/>
-      <c r="L714" s="0"/>
+      <c r="L714" s="6"/>
     </row>
     <row r="715" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="6"/>
@@ -11883,7 +11863,7 @@
       <c r="I715" s="6"/>
       <c r="J715" s="6"/>
       <c r="K715" s="6"/>
-      <c r="L715" s="0"/>
+      <c r="L715" s="6"/>
     </row>
     <row r="716" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="6"/>
@@ -11897,7 +11877,7 @@
       <c r="I716" s="6"/>
       <c r="J716" s="6"/>
       <c r="K716" s="6"/>
-      <c r="L716" s="0"/>
+      <c r="L716" s="6"/>
     </row>
     <row r="717" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="6"/>
@@ -11911,7 +11891,7 @@
       <c r="I717" s="6"/>
       <c r="J717" s="6"/>
       <c r="K717" s="6"/>
-      <c r="L717" s="0"/>
+      <c r="L717" s="6"/>
     </row>
     <row r="718" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="6"/>
@@ -11925,7 +11905,7 @@
       <c r="I718" s="6"/>
       <c r="J718" s="6"/>
       <c r="K718" s="6"/>
-      <c r="L718" s="0"/>
+      <c r="L718" s="6"/>
     </row>
     <row r="719" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="6"/>
@@ -11939,7 +11919,7 @@
       <c r="I719" s="6"/>
       <c r="J719" s="6"/>
       <c r="K719" s="6"/>
-      <c r="L719" s="0"/>
+      <c r="L719" s="6"/>
     </row>
     <row r="720" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="6"/>
@@ -11953,7 +11933,7 @@
       <c r="I720" s="6"/>
       <c r="J720" s="6"/>
       <c r="K720" s="6"/>
-      <c r="L720" s="0"/>
+      <c r="L720" s="6"/>
     </row>
     <row r="721" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="6"/>
@@ -11967,7 +11947,7 @@
       <c r="I721" s="6"/>
       <c r="J721" s="6"/>
       <c r="K721" s="6"/>
-      <c r="L721" s="0"/>
+      <c r="L721" s="6"/>
     </row>
     <row r="722" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="6"/>
@@ -11981,7 +11961,7 @@
       <c r="I722" s="6"/>
       <c r="J722" s="6"/>
       <c r="K722" s="6"/>
-      <c r="L722" s="0"/>
+      <c r="L722" s="6"/>
     </row>
     <row r="723" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="6"/>
@@ -11995,7 +11975,7 @@
       <c r="I723" s="6"/>
       <c r="J723" s="6"/>
       <c r="K723" s="6"/>
-      <c r="L723" s="0"/>
+      <c r="L723" s="6"/>
     </row>
     <row r="724" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="6"/>
@@ -12009,7 +11989,7 @@
       <c r="I724" s="6"/>
       <c r="J724" s="6"/>
       <c r="K724" s="6"/>
-      <c r="L724" s="0"/>
+      <c r="L724" s="6"/>
     </row>
     <row r="725" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="6"/>
@@ -12023,7 +12003,7 @@
       <c r="I725" s="6"/>
       <c r="J725" s="6"/>
       <c r="K725" s="6"/>
-      <c r="L725" s="0"/>
+      <c r="L725" s="6"/>
     </row>
     <row r="726" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="6"/>
@@ -12037,7 +12017,7 @@
       <c r="I726" s="6"/>
       <c r="J726" s="6"/>
       <c r="K726" s="6"/>
-      <c r="L726" s="0"/>
+      <c r="L726" s="6"/>
     </row>
     <row r="727" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="6"/>
@@ -12051,7 +12031,7 @@
       <c r="I727" s="6"/>
       <c r="J727" s="6"/>
       <c r="K727" s="6"/>
-      <c r="L727" s="0"/>
+      <c r="L727" s="6"/>
     </row>
     <row r="728" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="6"/>
@@ -12065,7 +12045,7 @@
       <c r="I728" s="6"/>
       <c r="J728" s="6"/>
       <c r="K728" s="6"/>
-      <c r="L728" s="0"/>
+      <c r="L728" s="6"/>
     </row>
     <row r="729" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="6"/>
@@ -12079,7 +12059,7 @@
       <c r="I729" s="6"/>
       <c r="J729" s="6"/>
       <c r="K729" s="6"/>
-      <c r="L729" s="0"/>
+      <c r="L729" s="6"/>
     </row>
     <row r="730" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="6"/>
@@ -12093,7 +12073,7 @@
       <c r="I730" s="6"/>
       <c r="J730" s="6"/>
       <c r="K730" s="6"/>
-      <c r="L730" s="0"/>
+      <c r="L730" s="6"/>
     </row>
     <row r="731" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="6"/>
@@ -12107,7 +12087,7 @@
       <c r="I731" s="6"/>
       <c r="J731" s="6"/>
       <c r="K731" s="6"/>
-      <c r="L731" s="0"/>
+      <c r="L731" s="6"/>
     </row>
     <row r="732" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="6"/>
@@ -12121,7 +12101,7 @@
       <c r="I732" s="6"/>
       <c r="J732" s="6"/>
       <c r="K732" s="6"/>
-      <c r="L732" s="0"/>
+      <c r="L732" s="6"/>
     </row>
     <row r="733" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="6"/>
@@ -12135,7 +12115,7 @@
       <c r="I733" s="6"/>
       <c r="J733" s="6"/>
       <c r="K733" s="6"/>
-      <c r="L733" s="0"/>
+      <c r="L733" s="6"/>
     </row>
     <row r="734" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="6"/>
@@ -12149,7 +12129,7 @@
       <c r="I734" s="6"/>
       <c r="J734" s="6"/>
       <c r="K734" s="6"/>
-      <c r="L734" s="0"/>
+      <c r="L734" s="6"/>
     </row>
     <row r="735" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="6"/>
@@ -12163,7 +12143,7 @@
       <c r="I735" s="6"/>
       <c r="J735" s="6"/>
       <c r="K735" s="6"/>
-      <c r="L735" s="0"/>
+      <c r="L735" s="6"/>
     </row>
     <row r="736" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="6"/>
@@ -12177,7 +12157,7 @@
       <c r="I736" s="6"/>
       <c r="J736" s="6"/>
       <c r="K736" s="6"/>
-      <c r="L736" s="0"/>
+      <c r="L736" s="6"/>
     </row>
     <row r="737" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="6"/>
@@ -12191,7 +12171,7 @@
       <c r="I737" s="6"/>
       <c r="J737" s="6"/>
       <c r="K737" s="6"/>
-      <c r="L737" s="0"/>
+      <c r="L737" s="6"/>
     </row>
     <row r="738" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="6"/>
@@ -12205,7 +12185,7 @@
       <c r="I738" s="6"/>
       <c r="J738" s="6"/>
       <c r="K738" s="6"/>
-      <c r="L738" s="0"/>
+      <c r="L738" s="6"/>
     </row>
     <row r="739" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="6"/>
@@ -12219,7 +12199,7 @@
       <c r="I739" s="6"/>
       <c r="J739" s="6"/>
       <c r="K739" s="6"/>
-      <c r="L739" s="0"/>
+      <c r="L739" s="6"/>
     </row>
     <row r="740" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="6"/>
@@ -12233,7 +12213,7 @@
       <c r="I740" s="6"/>
       <c r="J740" s="6"/>
       <c r="K740" s="6"/>
-      <c r="L740" s="0"/>
+      <c r="L740" s="6"/>
     </row>
     <row r="741" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="6"/>
@@ -12247,7 +12227,7 @@
       <c r="I741" s="6"/>
       <c r="J741" s="6"/>
       <c r="K741" s="6"/>
-      <c r="L741" s="0"/>
+      <c r="L741" s="6"/>
     </row>
     <row r="742" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="6"/>
@@ -12261,7 +12241,7 @@
       <c r="I742" s="6"/>
       <c r="J742" s="6"/>
       <c r="K742" s="6"/>
-      <c r="L742" s="0"/>
+      <c r="L742" s="6"/>
     </row>
     <row r="743" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="6"/>
@@ -12275,7 +12255,7 @@
       <c r="I743" s="6"/>
       <c r="J743" s="6"/>
       <c r="K743" s="6"/>
-      <c r="L743" s="0"/>
+      <c r="L743" s="6"/>
     </row>
     <row r="744" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="6"/>
@@ -12289,7 +12269,7 @@
       <c r="I744" s="6"/>
       <c r="J744" s="6"/>
       <c r="K744" s="6"/>
-      <c r="L744" s="0"/>
+      <c r="L744" s="6"/>
     </row>
     <row r="745" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="6"/>
@@ -12303,7 +12283,7 @@
       <c r="I745" s="6"/>
       <c r="J745" s="6"/>
       <c r="K745" s="6"/>
-      <c r="L745" s="0"/>
+      <c r="L745" s="6"/>
     </row>
     <row r="746" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="6"/>
@@ -12317,7 +12297,7 @@
       <c r="I746" s="6"/>
       <c r="J746" s="6"/>
       <c r="K746" s="6"/>
-      <c r="L746" s="0"/>
+      <c r="L746" s="6"/>
     </row>
     <row r="747" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="6"/>
@@ -12331,7 +12311,7 @@
       <c r="I747" s="6"/>
       <c r="J747" s="6"/>
       <c r="K747" s="6"/>
-      <c r="L747" s="0"/>
+      <c r="L747" s="6"/>
     </row>
     <row r="748" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="6"/>
@@ -12345,7 +12325,7 @@
       <c r="I748" s="6"/>
       <c r="J748" s="6"/>
       <c r="K748" s="6"/>
-      <c r="L748" s="0"/>
+      <c r="L748" s="6"/>
     </row>
     <row r="749" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="6"/>
@@ -12359,7 +12339,7 @@
       <c r="I749" s="6"/>
       <c r="J749" s="6"/>
       <c r="K749" s="6"/>
-      <c r="L749" s="0"/>
+      <c r="L749" s="6"/>
     </row>
     <row r="750" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="6"/>
@@ -12373,7 +12353,7 @@
       <c r="I750" s="6"/>
       <c r="J750" s="6"/>
       <c r="K750" s="6"/>
-      <c r="L750" s="0"/>
+      <c r="L750" s="6"/>
     </row>
     <row r="751" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="6"/>
@@ -12387,7 +12367,7 @@
       <c r="I751" s="6"/>
       <c r="J751" s="6"/>
       <c r="K751" s="6"/>
-      <c r="L751" s="0"/>
+      <c r="L751" s="6"/>
     </row>
     <row r="752" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="6"/>
@@ -12401,7 +12381,7 @@
       <c r="I752" s="6"/>
       <c r="J752" s="6"/>
       <c r="K752" s="6"/>
-      <c r="L752" s="0"/>
+      <c r="L752" s="6"/>
     </row>
     <row r="753" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="6"/>
@@ -12415,7 +12395,7 @@
       <c r="I753" s="6"/>
       <c r="J753" s="6"/>
       <c r="K753" s="6"/>
-      <c r="L753" s="0"/>
+      <c r="L753" s="6"/>
     </row>
     <row r="754" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="6"/>
@@ -12429,7 +12409,7 @@
       <c r="I754" s="6"/>
       <c r="J754" s="6"/>
       <c r="K754" s="6"/>
-      <c r="L754" s="0"/>
+      <c r="L754" s="6"/>
     </row>
     <row r="755" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="6"/>
@@ -12443,7 +12423,7 @@
       <c r="I755" s="6"/>
       <c r="J755" s="6"/>
       <c r="K755" s="6"/>
-      <c r="L755" s="0"/>
+      <c r="L755" s="6"/>
     </row>
     <row r="756" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="6"/>
@@ -12457,7 +12437,7 @@
       <c r="I756" s="6"/>
       <c r="J756" s="6"/>
       <c r="K756" s="6"/>
-      <c r="L756" s="0"/>
+      <c r="L756" s="6"/>
     </row>
     <row r="757" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="6"/>
@@ -12471,7 +12451,7 @@
       <c r="I757" s="6"/>
       <c r="J757" s="6"/>
       <c r="K757" s="6"/>
-      <c r="L757" s="0"/>
+      <c r="L757" s="6"/>
     </row>
     <row r="758" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="6"/>
@@ -12485,7 +12465,7 @@
       <c r="I758" s="6"/>
       <c r="J758" s="6"/>
       <c r="K758" s="6"/>
-      <c r="L758" s="0"/>
+      <c r="L758" s="6"/>
     </row>
     <row r="759" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="6"/>
@@ -12499,7 +12479,7 @@
       <c r="I759" s="6"/>
       <c r="J759" s="6"/>
       <c r="K759" s="6"/>
-      <c r="L759" s="0"/>
+      <c r="L759" s="6"/>
     </row>
     <row r="760" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="6"/>
@@ -12513,7 +12493,7 @@
       <c r="I760" s="6"/>
       <c r="J760" s="6"/>
       <c r="K760" s="6"/>
-      <c r="L760" s="0"/>
+      <c r="L760" s="6"/>
     </row>
     <row r="761" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="6"/>
@@ -12527,7 +12507,7 @@
       <c r="I761" s="6"/>
       <c r="J761" s="6"/>
       <c r="K761" s="6"/>
-      <c r="L761" s="0"/>
+      <c r="L761" s="6"/>
     </row>
     <row r="762" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="6"/>
@@ -12541,7 +12521,7 @@
       <c r="I762" s="6"/>
       <c r="J762" s="6"/>
       <c r="K762" s="6"/>
-      <c r="L762" s="0"/>
+      <c r="L762" s="6"/>
     </row>
     <row r="763" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="6"/>
@@ -12555,7 +12535,7 @@
       <c r="I763" s="6"/>
       <c r="J763" s="6"/>
       <c r="K763" s="6"/>
-      <c r="L763" s="0"/>
+      <c r="L763" s="6"/>
     </row>
     <row r="764" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="6"/>
@@ -12569,7 +12549,7 @@
       <c r="I764" s="6"/>
       <c r="J764" s="6"/>
       <c r="K764" s="6"/>
-      <c r="L764" s="0"/>
+      <c r="L764" s="6"/>
     </row>
     <row r="765" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="6"/>
@@ -12583,7 +12563,7 @@
       <c r="I765" s="6"/>
       <c r="J765" s="6"/>
       <c r="K765" s="6"/>
-      <c r="L765" s="0"/>
+      <c r="L765" s="6"/>
     </row>
     <row r="766" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="6"/>
@@ -12597,7 +12577,7 @@
       <c r="I766" s="6"/>
       <c r="J766" s="6"/>
       <c r="K766" s="6"/>
-      <c r="L766" s="0"/>
+      <c r="L766" s="6"/>
     </row>
     <row r="767" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="6"/>
@@ -12611,7 +12591,7 @@
       <c r="I767" s="6"/>
       <c r="J767" s="6"/>
       <c r="K767" s="6"/>
-      <c r="L767" s="0"/>
+      <c r="L767" s="6"/>
     </row>
     <row r="768" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="6"/>
@@ -12625,7 +12605,7 @@
       <c r="I768" s="6"/>
       <c r="J768" s="6"/>
       <c r="K768" s="6"/>
-      <c r="L768" s="0"/>
+      <c r="L768" s="6"/>
     </row>
     <row r="769" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="6"/>
@@ -12639,7 +12619,7 @@
       <c r="I769" s="6"/>
       <c r="J769" s="6"/>
       <c r="K769" s="6"/>
-      <c r="L769" s="0"/>
+      <c r="L769" s="6"/>
     </row>
     <row r="770" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="6"/>
@@ -12653,7 +12633,7 @@
       <c r="I770" s="6"/>
       <c r="J770" s="6"/>
       <c r="K770" s="6"/>
-      <c r="L770" s="0"/>
+      <c r="L770" s="6"/>
     </row>
     <row r="771" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="6"/>
@@ -12667,7 +12647,7 @@
       <c r="I771" s="6"/>
       <c r="J771" s="6"/>
       <c r="K771" s="6"/>
-      <c r="L771" s="0"/>
+      <c r="L771" s="6"/>
     </row>
     <row r="772" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="6"/>
@@ -12681,7 +12661,7 @@
       <c r="I772" s="6"/>
       <c r="J772" s="6"/>
       <c r="K772" s="6"/>
-      <c r="L772" s="0"/>
+      <c r="L772" s="6"/>
     </row>
     <row r="773" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="6"/>
@@ -12695,7 +12675,7 @@
       <c r="I773" s="6"/>
       <c r="J773" s="6"/>
       <c r="K773" s="6"/>
-      <c r="L773" s="0"/>
+      <c r="L773" s="6"/>
     </row>
     <row r="774" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="6"/>
@@ -12709,7 +12689,7 @@
       <c r="I774" s="6"/>
       <c r="J774" s="6"/>
       <c r="K774" s="6"/>
-      <c r="L774" s="0"/>
+      <c r="L774" s="6"/>
     </row>
     <row r="775" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="6"/>
@@ -12723,7 +12703,7 @@
       <c r="I775" s="6"/>
       <c r="J775" s="6"/>
       <c r="K775" s="6"/>
-      <c r="L775" s="0"/>
+      <c r="L775" s="6"/>
     </row>
     <row r="776" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="6"/>
@@ -12737,7 +12717,7 @@
       <c r="I776" s="6"/>
       <c r="J776" s="6"/>
       <c r="K776" s="6"/>
-      <c r="L776" s="0"/>
+      <c r="L776" s="6"/>
     </row>
     <row r="777" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="6"/>
@@ -12751,7 +12731,7 @@
       <c r="I777" s="6"/>
       <c r="J777" s="6"/>
       <c r="K777" s="6"/>
-      <c r="L777" s="0"/>
+      <c r="L777" s="6"/>
     </row>
     <row r="778" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="6"/>
@@ -12765,7 +12745,7 @@
       <c r="I778" s="6"/>
       <c r="J778" s="6"/>
       <c r="K778" s="6"/>
-      <c r="L778" s="0"/>
+      <c r="L778" s="6"/>
     </row>
     <row r="779" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="6"/>
@@ -12779,7 +12759,7 @@
       <c r="I779" s="6"/>
       <c r="J779" s="6"/>
       <c r="K779" s="6"/>
-      <c r="L779" s="0"/>
+      <c r="L779" s="6"/>
     </row>
     <row r="780" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="6"/>
@@ -12793,7 +12773,7 @@
       <c r="I780" s="6"/>
       <c r="J780" s="6"/>
       <c r="K780" s="6"/>
-      <c r="L780" s="0"/>
+      <c r="L780" s="6"/>
     </row>
     <row r="781" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="6"/>
@@ -12807,7 +12787,7 @@
       <c r="I781" s="6"/>
       <c r="J781" s="6"/>
       <c r="K781" s="6"/>
-      <c r="L781" s="0"/>
+      <c r="L781" s="6"/>
     </row>
     <row r="782" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="6"/>
@@ -12821,7 +12801,7 @@
       <c r="I782" s="6"/>
       <c r="J782" s="6"/>
       <c r="K782" s="6"/>
-      <c r="L782" s="0"/>
+      <c r="L782" s="6"/>
     </row>
     <row r="783" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="6"/>
@@ -12835,7 +12815,7 @@
       <c r="I783" s="6"/>
       <c r="J783" s="6"/>
       <c r="K783" s="6"/>
-      <c r="L783" s="0"/>
+      <c r="L783" s="6"/>
     </row>
     <row r="784" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="6"/>
@@ -12849,7 +12829,7 @@
       <c r="I784" s="6"/>
       <c r="J784" s="6"/>
       <c r="K784" s="6"/>
-      <c r="L784" s="0"/>
+      <c r="L784" s="6"/>
     </row>
     <row r="785" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="6"/>
@@ -12863,7 +12843,7 @@
       <c r="I785" s="6"/>
       <c r="J785" s="6"/>
       <c r="K785" s="6"/>
-      <c r="L785" s="0"/>
+      <c r="L785" s="6"/>
     </row>
     <row r="786" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="6"/>
@@ -12877,7 +12857,7 @@
       <c r="I786" s="6"/>
       <c r="J786" s="6"/>
       <c r="K786" s="6"/>
-      <c r="L786" s="0"/>
+      <c r="L786" s="6"/>
     </row>
     <row r="787" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="6"/>
@@ -12891,7 +12871,7 @@
       <c r="I787" s="6"/>
       <c r="J787" s="6"/>
       <c r="K787" s="6"/>
-      <c r="L787" s="0"/>
+      <c r="L787" s="6"/>
     </row>
     <row r="788" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="6"/>
@@ -12905,7 +12885,7 @@
       <c r="I788" s="6"/>
       <c r="J788" s="6"/>
       <c r="K788" s="6"/>
-      <c r="L788" s="0"/>
+      <c r="L788" s="6"/>
     </row>
     <row r="789" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="6"/>
@@ -12919,7 +12899,7 @@
       <c r="I789" s="6"/>
       <c r="J789" s="6"/>
       <c r="K789" s="6"/>
-      <c r="L789" s="0"/>
+      <c r="L789" s="6"/>
     </row>
     <row r="790" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="6"/>
@@ -12933,7 +12913,7 @@
       <c r="I790" s="6"/>
       <c r="J790" s="6"/>
       <c r="K790" s="6"/>
-      <c r="L790" s="0"/>
+      <c r="L790" s="6"/>
     </row>
     <row r="791" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="6"/>
@@ -12947,7 +12927,7 @@
       <c r="I791" s="6"/>
       <c r="J791" s="6"/>
       <c r="K791" s="6"/>
-      <c r="L791" s="0"/>
+      <c r="L791" s="6"/>
     </row>
     <row r="792" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="6"/>
@@ -12961,7 +12941,7 @@
       <c r="I792" s="6"/>
       <c r="J792" s="6"/>
       <c r="K792" s="6"/>
-      <c r="L792" s="0"/>
+      <c r="L792" s="6"/>
     </row>
     <row r="793" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="6"/>
@@ -12975,7 +12955,7 @@
       <c r="I793" s="6"/>
       <c r="J793" s="6"/>
       <c r="K793" s="6"/>
-      <c r="L793" s="0"/>
+      <c r="L793" s="6"/>
     </row>
     <row r="794" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="6"/>
@@ -12989,7 +12969,7 @@
       <c r="I794" s="6"/>
       <c r="J794" s="6"/>
       <c r="K794" s="6"/>
-      <c r="L794" s="0"/>
+      <c r="L794" s="6"/>
     </row>
     <row r="795" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="6"/>
@@ -13003,7 +12983,7 @@
       <c r="I795" s="6"/>
       <c r="J795" s="6"/>
       <c r="K795" s="6"/>
-      <c r="L795" s="0"/>
+      <c r="L795" s="6"/>
     </row>
     <row r="796" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="6"/>
@@ -13017,7 +12997,7 @@
       <c r="I796" s="6"/>
       <c r="J796" s="6"/>
       <c r="K796" s="6"/>
-      <c r="L796" s="0"/>
+      <c r="L796" s="6"/>
     </row>
     <row r="797" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="6"/>
@@ -13031,7 +13011,7 @@
       <c r="I797" s="6"/>
       <c r="J797" s="6"/>
       <c r="K797" s="6"/>
-      <c r="L797" s="0"/>
+      <c r="L797" s="6"/>
     </row>
     <row r="798" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="6"/>
@@ -13045,7 +13025,7 @@
       <c r="I798" s="6"/>
       <c r="J798" s="6"/>
       <c r="K798" s="6"/>
-      <c r="L798" s="0"/>
+      <c r="L798" s="6"/>
     </row>
     <row r="799" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="6"/>
@@ -13059,7 +13039,7 @@
       <c r="I799" s="6"/>
       <c r="J799" s="6"/>
       <c r="K799" s="6"/>
-      <c r="L799" s="0"/>
+      <c r="L799" s="6"/>
     </row>
     <row r="800" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="6"/>
@@ -13073,7 +13053,7 @@
       <c r="I800" s="6"/>
       <c r="J800" s="6"/>
       <c r="K800" s="6"/>
-      <c r="L800" s="0"/>
+      <c r="L800" s="6"/>
     </row>
     <row r="801" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="6"/>
@@ -13087,7 +13067,7 @@
       <c r="I801" s="6"/>
       <c r="J801" s="6"/>
       <c r="K801" s="6"/>
-      <c r="L801" s="0"/>
+      <c r="L801" s="6"/>
     </row>
     <row r="802" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="6"/>
@@ -13101,7 +13081,7 @@
       <c r="I802" s="6"/>
       <c r="J802" s="6"/>
       <c r="K802" s="6"/>
-      <c r="L802" s="0"/>
+      <c r="L802" s="6"/>
     </row>
     <row r="803" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="6"/>
@@ -13115,7 +13095,7 @@
       <c r="I803" s="6"/>
       <c r="J803" s="6"/>
       <c r="K803" s="6"/>
-      <c r="L803" s="0"/>
+      <c r="L803" s="6"/>
     </row>
     <row r="804" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="6"/>
@@ -13129,7 +13109,7 @@
       <c r="I804" s="6"/>
       <c r="J804" s="6"/>
       <c r="K804" s="6"/>
-      <c r="L804" s="0"/>
+      <c r="L804" s="6"/>
     </row>
     <row r="805" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="6"/>
@@ -13143,7 +13123,7 @@
       <c r="I805" s="6"/>
       <c r="J805" s="6"/>
       <c r="K805" s="6"/>
-      <c r="L805" s="0"/>
+      <c r="L805" s="6"/>
     </row>
     <row r="806" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="6"/>
@@ -13157,7 +13137,7 @@
       <c r="I806" s="6"/>
       <c r="J806" s="6"/>
       <c r="K806" s="6"/>
-      <c r="L806" s="0"/>
+      <c r="L806" s="6"/>
     </row>
     <row r="807" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="6"/>
@@ -13171,7 +13151,7 @@
       <c r="I807" s="6"/>
       <c r="J807" s="6"/>
       <c r="K807" s="6"/>
-      <c r="L807" s="0"/>
+      <c r="L807" s="6"/>
     </row>
     <row r="808" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="6"/>
@@ -13185,7 +13165,7 @@
       <c r="I808" s="6"/>
       <c r="J808" s="6"/>
       <c r="K808" s="6"/>
-      <c r="L808" s="0"/>
+      <c r="L808" s="6"/>
     </row>
     <row r="809" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="6"/>
@@ -13199,7 +13179,7 @@
       <c r="I809" s="6"/>
       <c r="J809" s="6"/>
       <c r="K809" s="6"/>
-      <c r="L809" s="0"/>
+      <c r="L809" s="6"/>
     </row>
     <row r="810" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="6"/>
@@ -13213,7 +13193,7 @@
       <c r="I810" s="6"/>
       <c r="J810" s="6"/>
       <c r="K810" s="6"/>
-      <c r="L810" s="0"/>
+      <c r="L810" s="6"/>
     </row>
     <row r="811" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="6"/>
@@ -13227,7 +13207,7 @@
       <c r="I811" s="6"/>
       <c r="J811" s="6"/>
       <c r="K811" s="6"/>
-      <c r="L811" s="0"/>
+      <c r="L811" s="6"/>
     </row>
     <row r="812" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="6"/>
@@ -13241,7 +13221,7 @@
       <c r="I812" s="6"/>
       <c r="J812" s="6"/>
       <c r="K812" s="6"/>
-      <c r="L812" s="0"/>
+      <c r="L812" s="6"/>
     </row>
     <row r="813" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="6"/>
@@ -13255,7 +13235,7 @@
       <c r="I813" s="6"/>
       <c r="J813" s="6"/>
       <c r="K813" s="6"/>
-      <c r="L813" s="0"/>
+      <c r="L813" s="6"/>
     </row>
     <row r="814" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="6"/>
@@ -13269,7 +13249,7 @@
       <c r="I814" s="6"/>
       <c r="J814" s="6"/>
       <c r="K814" s="6"/>
-      <c r="L814" s="0"/>
+      <c r="L814" s="6"/>
     </row>
     <row r="815" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="6"/>
@@ -13283,7 +13263,7 @@
       <c r="I815" s="6"/>
       <c r="J815" s="6"/>
       <c r="K815" s="6"/>
-      <c r="L815" s="0"/>
+      <c r="L815" s="6"/>
     </row>
     <row r="816" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="6"/>
@@ -13297,7 +13277,7 @@
       <c r="I816" s="6"/>
       <c r="J816" s="6"/>
       <c r="K816" s="6"/>
-      <c r="L816" s="0"/>
+      <c r="L816" s="6"/>
     </row>
     <row r="817" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="6"/>
@@ -13311,7 +13291,7 @@
       <c r="I817" s="6"/>
       <c r="J817" s="6"/>
       <c r="K817" s="6"/>
-      <c r="L817" s="0"/>
+      <c r="L817" s="6"/>
     </row>
     <row r="818" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="6"/>
@@ -13325,7 +13305,7 @@
       <c r="I818" s="6"/>
       <c r="J818" s="6"/>
       <c r="K818" s="6"/>
-      <c r="L818" s="0"/>
+      <c r="L818" s="6"/>
     </row>
     <row r="819" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="6"/>
@@ -13339,7 +13319,7 @@
       <c r="I819" s="6"/>
       <c r="J819" s="6"/>
       <c r="K819" s="6"/>
-      <c r="L819" s="0"/>
+      <c r="L819" s="6"/>
     </row>
     <row r="820" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="6"/>
@@ -13353,7 +13333,7 @@
       <c r="I820" s="6"/>
       <c r="J820" s="6"/>
       <c r="K820" s="6"/>
-      <c r="L820" s="0"/>
+      <c r="L820" s="6"/>
     </row>
     <row r="821" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="6"/>
@@ -13367,7 +13347,7 @@
       <c r="I821" s="6"/>
       <c r="J821" s="6"/>
       <c r="K821" s="6"/>
-      <c r="L821" s="0"/>
+      <c r="L821" s="6"/>
     </row>
     <row r="822" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="6"/>
@@ -13381,7 +13361,7 @@
       <c r="I822" s="6"/>
       <c r="J822" s="6"/>
       <c r="K822" s="6"/>
-      <c r="L822" s="0"/>
+      <c r="L822" s="6"/>
     </row>
     <row r="823" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="6"/>
@@ -13395,7 +13375,7 @@
       <c r="I823" s="6"/>
       <c r="J823" s="6"/>
       <c r="K823" s="6"/>
-      <c r="L823" s="0"/>
+      <c r="L823" s="6"/>
     </row>
     <row r="824" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="6"/>
@@ -13409,7 +13389,7 @@
       <c r="I824" s="6"/>
       <c r="J824" s="6"/>
       <c r="K824" s="6"/>
-      <c r="L824" s="0"/>
+      <c r="L824" s="6"/>
     </row>
     <row r="825" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="6"/>
@@ -13423,7 +13403,7 @@
       <c r="I825" s="6"/>
       <c r="J825" s="6"/>
       <c r="K825" s="6"/>
-      <c r="L825" s="0"/>
+      <c r="L825" s="6"/>
     </row>
     <row r="826" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="6"/>
@@ -13437,7 +13417,7 @@
       <c r="I826" s="6"/>
       <c r="J826" s="6"/>
       <c r="K826" s="6"/>
-      <c r="L826" s="0"/>
+      <c r="L826" s="6"/>
     </row>
     <row r="827" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="6"/>
@@ -13451,7 +13431,7 @@
       <c r="I827" s="6"/>
       <c r="J827" s="6"/>
       <c r="K827" s="6"/>
-      <c r="L827" s="0"/>
+      <c r="L827" s="6"/>
     </row>
     <row r="828" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="6"/>
@@ -13465,7 +13445,7 @@
       <c r="I828" s="6"/>
       <c r="J828" s="6"/>
       <c r="K828" s="6"/>
-      <c r="L828" s="0"/>
+      <c r="L828" s="6"/>
     </row>
     <row r="829" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="6"/>
@@ -13479,7 +13459,7 @@
       <c r="I829" s="6"/>
       <c r="J829" s="6"/>
       <c r="K829" s="6"/>
-      <c r="L829" s="0"/>
+      <c r="L829" s="6"/>
     </row>
     <row r="830" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="6"/>
@@ -13493,7 +13473,7 @@
       <c r="I830" s="6"/>
       <c r="J830" s="6"/>
       <c r="K830" s="6"/>
-      <c r="L830" s="0"/>
+      <c r="L830" s="6"/>
     </row>
     <row r="831" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="6"/>
@@ -13507,7 +13487,7 @@
       <c r="I831" s="6"/>
       <c r="J831" s="6"/>
       <c r="K831" s="6"/>
-      <c r="L831" s="0"/>
+      <c r="L831" s="6"/>
     </row>
     <row r="832" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="6"/>
@@ -13521,7 +13501,7 @@
       <c r="I832" s="6"/>
       <c r="J832" s="6"/>
       <c r="K832" s="6"/>
-      <c r="L832" s="0"/>
+      <c r="L832" s="6"/>
     </row>
     <row r="833" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="6"/>
@@ -13535,7 +13515,7 @@
       <c r="I833" s="6"/>
       <c r="J833" s="6"/>
       <c r="K833" s="6"/>
-      <c r="L833" s="0"/>
+      <c r="L833" s="6"/>
     </row>
     <row r="834" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="6"/>
@@ -13549,7 +13529,7 @@
       <c r="I834" s="6"/>
       <c r="J834" s="6"/>
       <c r="K834" s="6"/>
-      <c r="L834" s="0"/>
+      <c r="L834" s="6"/>
     </row>
     <row r="835" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="6"/>
@@ -13563,7 +13543,7 @@
       <c r="I835" s="6"/>
       <c r="J835" s="6"/>
       <c r="K835" s="6"/>
-      <c r="L835" s="0"/>
+      <c r="L835" s="6"/>
     </row>
     <row r="836" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="6"/>
@@ -13577,7 +13557,7 @@
       <c r="I836" s="6"/>
       <c r="J836" s="6"/>
       <c r="K836" s="6"/>
-      <c r="L836" s="0"/>
+      <c r="L836" s="6"/>
     </row>
     <row r="837" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="6"/>
@@ -13591,7 +13571,7 @@
       <c r="I837" s="6"/>
       <c r="J837" s="6"/>
       <c r="K837" s="6"/>
-      <c r="L837" s="0"/>
+      <c r="L837" s="6"/>
     </row>
     <row r="838" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="6"/>
@@ -13605,7 +13585,7 @@
       <c r="I838" s="6"/>
       <c r="J838" s="6"/>
       <c r="K838" s="6"/>
-      <c r="L838" s="0"/>
+      <c r="L838" s="6"/>
     </row>
     <row r="839" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="6"/>
@@ -13619,7 +13599,7 @@
       <c r="I839" s="6"/>
       <c r="J839" s="6"/>
       <c r="K839" s="6"/>
-      <c r="L839" s="0"/>
+      <c r="L839" s="6"/>
     </row>
     <row r="840" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="6"/>
@@ -13633,7 +13613,7 @@
       <c r="I840" s="6"/>
       <c r="J840" s="6"/>
       <c r="K840" s="6"/>
-      <c r="L840" s="0"/>
+      <c r="L840" s="6"/>
     </row>
     <row r="841" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="6"/>
@@ -13647,7 +13627,7 @@
       <c r="I841" s="6"/>
       <c r="J841" s="6"/>
       <c r="K841" s="6"/>
-      <c r="L841" s="0"/>
+      <c r="L841" s="6"/>
     </row>
     <row r="842" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="6"/>
@@ -13661,7 +13641,7 @@
       <c r="I842" s="6"/>
       <c r="J842" s="6"/>
       <c r="K842" s="6"/>
-      <c r="L842" s="0"/>
+      <c r="L842" s="6"/>
     </row>
     <row r="843" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="6"/>
@@ -13675,7 +13655,7 @@
       <c r="I843" s="6"/>
       <c r="J843" s="6"/>
       <c r="K843" s="6"/>
-      <c r="L843" s="0"/>
+      <c r="L843" s="6"/>
     </row>
     <row r="844" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="6"/>
@@ -13689,7 +13669,7 @@
       <c r="I844" s="6"/>
       <c r="J844" s="6"/>
       <c r="K844" s="6"/>
-      <c r="L844" s="0"/>
+      <c r="L844" s="6"/>
     </row>
     <row r="845" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="6"/>
@@ -13703,7 +13683,7 @@
       <c r="I845" s="6"/>
       <c r="J845" s="6"/>
       <c r="K845" s="6"/>
-      <c r="L845" s="0"/>
+      <c r="L845" s="6"/>
     </row>
     <row r="846" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="6"/>
@@ -13717,7 +13697,7 @@
       <c r="I846" s="6"/>
       <c r="J846" s="6"/>
       <c r="K846" s="6"/>
-      <c r="L846" s="0"/>
+      <c r="L846" s="6"/>
     </row>
     <row r="847" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="6"/>
@@ -13731,7 +13711,7 @@
       <c r="I847" s="6"/>
       <c r="J847" s="6"/>
       <c r="K847" s="6"/>
-      <c r="L847" s="0"/>
+      <c r="L847" s="6"/>
     </row>
     <row r="848" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="6"/>
@@ -13745,7 +13725,7 @@
       <c r="I848" s="6"/>
       <c r="J848" s="6"/>
       <c r="K848" s="6"/>
-      <c r="L848" s="0"/>
+      <c r="L848" s="6"/>
     </row>
     <row r="849" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="6"/>
@@ -13759,7 +13739,7 @@
       <c r="I849" s="6"/>
       <c r="J849" s="6"/>
       <c r="K849" s="6"/>
-      <c r="L849" s="0"/>
+      <c r="L849" s="6"/>
     </row>
     <row r="850" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="6"/>
@@ -13773,7 +13753,7 @@
       <c r="I850" s="6"/>
       <c r="J850" s="6"/>
       <c r="K850" s="6"/>
-      <c r="L850" s="0"/>
+      <c r="L850" s="6"/>
     </row>
     <row r="851" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="6"/>
@@ -13787,7 +13767,7 @@
       <c r="I851" s="6"/>
       <c r="J851" s="6"/>
       <c r="K851" s="6"/>
-      <c r="L851" s="0"/>
+      <c r="L851" s="6"/>
     </row>
     <row r="852" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="6"/>
@@ -13801,7 +13781,7 @@
       <c r="I852" s="6"/>
       <c r="J852" s="6"/>
       <c r="K852" s="6"/>
-      <c r="L852" s="0"/>
+      <c r="L852" s="6"/>
     </row>
     <row r="853" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="6"/>
@@ -13815,7 +13795,7 @@
       <c r="I853" s="6"/>
       <c r="J853" s="6"/>
       <c r="K853" s="6"/>
-      <c r="L853" s="0"/>
+      <c r="L853" s="6"/>
     </row>
     <row r="854" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="6"/>
@@ -13829,7 +13809,7 @@
       <c r="I854" s="6"/>
       <c r="J854" s="6"/>
       <c r="K854" s="6"/>
-      <c r="L854" s="0"/>
+      <c r="L854" s="6"/>
     </row>
     <row r="855" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="6"/>
@@ -13843,7 +13823,7 @@
       <c r="I855" s="6"/>
       <c r="J855" s="6"/>
       <c r="K855" s="6"/>
-      <c r="L855" s="0"/>
+      <c r="L855" s="6"/>
     </row>
     <row r="856" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="6"/>
@@ -13857,7 +13837,7 @@
       <c r="I856" s="6"/>
       <c r="J856" s="6"/>
       <c r="K856" s="6"/>
-      <c r="L856" s="0"/>
+      <c r="L856" s="6"/>
     </row>
     <row r="857" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="6"/>
@@ -13871,7 +13851,7 @@
       <c r="I857" s="6"/>
       <c r="J857" s="6"/>
       <c r="K857" s="6"/>
-      <c r="L857" s="0"/>
+      <c r="L857" s="6"/>
     </row>
     <row r="858" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="6"/>
@@ -13885,7 +13865,7 @@
       <c r="I858" s="6"/>
       <c r="J858" s="6"/>
       <c r="K858" s="6"/>
-      <c r="L858" s="0"/>
+      <c r="L858" s="6"/>
     </row>
     <row r="859" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="6"/>
@@ -13899,7 +13879,7 @@
       <c r="I859" s="6"/>
       <c r="J859" s="6"/>
       <c r="K859" s="6"/>
-      <c r="L859" s="0"/>
+      <c r="L859" s="6"/>
     </row>
     <row r="860" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="6"/>
@@ -13913,7 +13893,7 @@
       <c r="I860" s="6"/>
       <c r="J860" s="6"/>
       <c r="K860" s="6"/>
-      <c r="L860" s="0"/>
+      <c r="L860" s="6"/>
     </row>
     <row r="861" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="6"/>
@@ -13927,7 +13907,7 @@
       <c r="I861" s="6"/>
       <c r="J861" s="6"/>
       <c r="K861" s="6"/>
-      <c r="L861" s="0"/>
+      <c r="L861" s="6"/>
     </row>
     <row r="862" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="6"/>
@@ -13941,7 +13921,7 @@
       <c r="I862" s="6"/>
       <c r="J862" s="6"/>
       <c r="K862" s="6"/>
-      <c r="L862" s="0"/>
+      <c r="L862" s="6"/>
     </row>
     <row r="863" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="6"/>
@@ -13955,7 +13935,7 @@
       <c r="I863" s="6"/>
       <c r="J863" s="6"/>
       <c r="K863" s="6"/>
-      <c r="L863" s="0"/>
+      <c r="L863" s="6"/>
     </row>
     <row r="864" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="6"/>
@@ -13969,7 +13949,7 @@
       <c r="I864" s="6"/>
       <c r="J864" s="6"/>
       <c r="K864" s="6"/>
-      <c r="L864" s="0"/>
+      <c r="L864" s="6"/>
     </row>
     <row r="865" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="6"/>
@@ -13983,7 +13963,7 @@
       <c r="I865" s="6"/>
       <c r="J865" s="6"/>
       <c r="K865" s="6"/>
-      <c r="L865" s="0"/>
+      <c r="L865" s="6"/>
     </row>
     <row r="866" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="6"/>
@@ -13997,7 +13977,7 @@
       <c r="I866" s="6"/>
       <c r="J866" s="6"/>
       <c r="K866" s="6"/>
-      <c r="L866" s="0"/>
+      <c r="L866" s="6"/>
     </row>
     <row r="867" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="6"/>
@@ -14011,7 +13991,7 @@
       <c r="I867" s="6"/>
       <c r="J867" s="6"/>
       <c r="K867" s="6"/>
-      <c r="L867" s="0"/>
+      <c r="L867" s="6"/>
     </row>
     <row r="868" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="6"/>
@@ -14025,7 +14005,7 @@
       <c r="I868" s="6"/>
       <c r="J868" s="6"/>
       <c r="K868" s="6"/>
-      <c r="L868" s="0"/>
+      <c r="L868" s="6"/>
     </row>
     <row r="869" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="6"/>
@@ -14039,7 +14019,7 @@
       <c r="I869" s="6"/>
       <c r="J869" s="6"/>
       <c r="K869" s="6"/>
-      <c r="L869" s="0"/>
+      <c r="L869" s="6"/>
     </row>
     <row r="870" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="6"/>
@@ -14053,7 +14033,7 @@
       <c r="I870" s="6"/>
       <c r="J870" s="6"/>
       <c r="K870" s="6"/>
-      <c r="L870" s="0"/>
+      <c r="L870" s="6"/>
     </row>
     <row r="871" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="6"/>
@@ -14067,7 +14047,7 @@
       <c r="I871" s="6"/>
       <c r="J871" s="6"/>
       <c r="K871" s="6"/>
-      <c r="L871" s="0"/>
+      <c r="L871" s="6"/>
     </row>
     <row r="872" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="6"/>
@@ -14081,7 +14061,7 @@
       <c r="I872" s="6"/>
       <c r="J872" s="6"/>
       <c r="K872" s="6"/>
-      <c r="L872" s="0"/>
+      <c r="L872" s="6"/>
     </row>
     <row r="873" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="6"/>
@@ -14095,7 +14075,7 @@
       <c r="I873" s="6"/>
       <c r="J873" s="6"/>
       <c r="K873" s="6"/>
-      <c r="L873" s="0"/>
+      <c r="L873" s="6"/>
     </row>
     <row r="874" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="6"/>
@@ -14109,7 +14089,7 @@
       <c r="I874" s="6"/>
       <c r="J874" s="6"/>
       <c r="K874" s="6"/>
-      <c r="L874" s="0"/>
+      <c r="L874" s="6"/>
     </row>
     <row r="875" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="6"/>
@@ -14123,7 +14103,7 @@
       <c r="I875" s="6"/>
       <c r="J875" s="6"/>
       <c r="K875" s="6"/>
-      <c r="L875" s="0"/>
+      <c r="L875" s="6"/>
     </row>
     <row r="876" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="6"/>
@@ -14137,7 +14117,7 @@
       <c r="I876" s="6"/>
       <c r="J876" s="6"/>
       <c r="K876" s="6"/>
-      <c r="L876" s="0"/>
+      <c r="L876" s="6"/>
     </row>
     <row r="877" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="6"/>
@@ -14151,7 +14131,7 @@
       <c r="I877" s="6"/>
       <c r="J877" s="6"/>
       <c r="K877" s="6"/>
-      <c r="L877" s="0"/>
+      <c r="L877" s="6"/>
     </row>
     <row r="878" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="6"/>
@@ -14165,7 +14145,7 @@
       <c r="I878" s="6"/>
       <c r="J878" s="6"/>
       <c r="K878" s="6"/>
-      <c r="L878" s="0"/>
+      <c r="L878" s="6"/>
     </row>
     <row r="879" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="6"/>
@@ -14179,7 +14159,7 @@
       <c r="I879" s="6"/>
       <c r="J879" s="6"/>
       <c r="K879" s="6"/>
-      <c r="L879" s="0"/>
+      <c r="L879" s="6"/>
     </row>
     <row r="880" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="6"/>
@@ -14193,7 +14173,7 @@
       <c r="I880" s="6"/>
       <c r="J880" s="6"/>
       <c r="K880" s="6"/>
-      <c r="L880" s="0"/>
+      <c r="L880" s="6"/>
     </row>
     <row r="881" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="6"/>
@@ -14207,7 +14187,7 @@
       <c r="I881" s="6"/>
       <c r="J881" s="6"/>
       <c r="K881" s="6"/>
-      <c r="L881" s="0"/>
+      <c r="L881" s="6"/>
     </row>
     <row r="882" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="6"/>
@@ -14221,7 +14201,7 @@
       <c r="I882" s="6"/>
       <c r="J882" s="6"/>
       <c r="K882" s="6"/>
-      <c r="L882" s="0"/>
+      <c r="L882" s="6"/>
     </row>
     <row r="883" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="6"/>
@@ -14235,7 +14215,7 @@
       <c r="I883" s="6"/>
       <c r="J883" s="6"/>
       <c r="K883" s="6"/>
-      <c r="L883" s="0"/>
+      <c r="L883" s="6"/>
     </row>
     <row r="884" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="6"/>
@@ -14249,7 +14229,7 @@
       <c r="I884" s="6"/>
       <c r="J884" s="6"/>
       <c r="K884" s="6"/>
-      <c r="L884" s="0"/>
+      <c r="L884" s="6"/>
     </row>
     <row r="885" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="6"/>
@@ -14263,7 +14243,7 @@
       <c r="I885" s="6"/>
       <c r="J885" s="6"/>
       <c r="K885" s="6"/>
-      <c r="L885" s="0"/>
+      <c r="L885" s="6"/>
     </row>
     <row r="886" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="6"/>
@@ -14277,7 +14257,7 @@
       <c r="I886" s="6"/>
       <c r="J886" s="6"/>
       <c r="K886" s="6"/>
-      <c r="L886" s="0"/>
+      <c r="L886" s="6"/>
     </row>
     <row r="887" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="6"/>
@@ -14291,7 +14271,7 @@
       <c r="I887" s="6"/>
       <c r="J887" s="6"/>
       <c r="K887" s="6"/>
-      <c r="L887" s="0"/>
+      <c r="L887" s="6"/>
     </row>
     <row r="888" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="6"/>
@@ -14305,7 +14285,7 @@
       <c r="I888" s="6"/>
       <c r="J888" s="6"/>
       <c r="K888" s="6"/>
-      <c r="L888" s="0"/>
+      <c r="L888" s="6"/>
     </row>
     <row r="889" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="6"/>
@@ -14319,7 +14299,7 @@
       <c r="I889" s="6"/>
       <c r="J889" s="6"/>
       <c r="K889" s="6"/>
-      <c r="L889" s="0"/>
+      <c r="L889" s="6"/>
     </row>
     <row r="890" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="6"/>
@@ -14333,7 +14313,7 @@
       <c r="I890" s="6"/>
       <c r="J890" s="6"/>
       <c r="K890" s="6"/>
-      <c r="L890" s="0"/>
+      <c r="L890" s="6"/>
     </row>
     <row r="891" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="6"/>
@@ -14347,7 +14327,7 @@
       <c r="I891" s="6"/>
       <c r="J891" s="6"/>
       <c r="K891" s="6"/>
-      <c r="L891" s="0"/>
+      <c r="L891" s="6"/>
     </row>
     <row r="892" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="6"/>
@@ -14361,7 +14341,7 @@
       <c r="I892" s="6"/>
       <c r="J892" s="6"/>
       <c r="K892" s="6"/>
-      <c r="L892" s="0"/>
+      <c r="L892" s="6"/>
     </row>
     <row r="893" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="6"/>
@@ -14375,7 +14355,7 @@
       <c r="I893" s="6"/>
       <c r="J893" s="6"/>
       <c r="K893" s="6"/>
-      <c r="L893" s="0"/>
+      <c r="L893" s="6"/>
     </row>
     <row r="894" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="6"/>
@@ -14389,7 +14369,7 @@
       <c r="I894" s="6"/>
       <c r="J894" s="6"/>
       <c r="K894" s="6"/>
-      <c r="L894" s="0"/>
+      <c r="L894" s="6"/>
     </row>
     <row r="895" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="6"/>
@@ -14403,7 +14383,7 @@
       <c r="I895" s="6"/>
       <c r="J895" s="6"/>
       <c r="K895" s="6"/>
-      <c r="L895" s="0"/>
+      <c r="L895" s="6"/>
     </row>
     <row r="896" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="6"/>
@@ -14417,7 +14397,7 @@
       <c r="I896" s="6"/>
       <c r="J896" s="6"/>
       <c r="K896" s="6"/>
-      <c r="L896" s="0"/>
+      <c r="L896" s="6"/>
     </row>
     <row r="897" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="6"/>
@@ -14431,7 +14411,7 @@
       <c r="I897" s="6"/>
       <c r="J897" s="6"/>
       <c r="K897" s="6"/>
-      <c r="L897" s="0"/>
+      <c r="L897" s="6"/>
     </row>
     <row r="898" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="6"/>
@@ -14445,7 +14425,7 @@
       <c r="I898" s="6"/>
       <c r="J898" s="6"/>
       <c r="K898" s="6"/>
-      <c r="L898" s="0"/>
+      <c r="L898" s="6"/>
     </row>
     <row r="899" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="6"/>
@@ -14459,7 +14439,7 @@
       <c r="I899" s="6"/>
       <c r="J899" s="6"/>
       <c r="K899" s="6"/>
-      <c r="L899" s="0"/>
+      <c r="L899" s="6"/>
     </row>
     <row r="900" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="6"/>
@@ -14473,7 +14453,7 @@
       <c r="I900" s="6"/>
       <c r="J900" s="6"/>
       <c r="K900" s="6"/>
-      <c r="L900" s="0"/>
+      <c r="L900" s="6"/>
     </row>
     <row r="901" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="6"/>
@@ -14487,7 +14467,7 @@
       <c r="I901" s="6"/>
       <c r="J901" s="6"/>
       <c r="K901" s="6"/>
-      <c r="L901" s="0"/>
+      <c r="L901" s="6"/>
     </row>
     <row r="902" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="6"/>
@@ -14501,7 +14481,7 @@
       <c r="I902" s="6"/>
       <c r="J902" s="6"/>
       <c r="K902" s="6"/>
-      <c r="L902" s="0"/>
+      <c r="L902" s="6"/>
     </row>
     <row r="903" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="6"/>
@@ -14515,7 +14495,7 @@
       <c r="I903" s="6"/>
       <c r="J903" s="6"/>
       <c r="K903" s="6"/>
-      <c r="L903" s="0"/>
+      <c r="L903" s="6"/>
     </row>
     <row r="904" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="6"/>
@@ -14529,7 +14509,7 @@
       <c r="I904" s="6"/>
       <c r="J904" s="6"/>
       <c r="K904" s="6"/>
-      <c r="L904" s="0"/>
+      <c r="L904" s="6"/>
     </row>
     <row r="905" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="6"/>
@@ -14543,7 +14523,7 @@
       <c r="I905" s="6"/>
       <c r="J905" s="6"/>
       <c r="K905" s="6"/>
-      <c r="L905" s="0"/>
+      <c r="L905" s="6"/>
     </row>
     <row r="906" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="6"/>
@@ -14557,7 +14537,7 @@
       <c r="I906" s="6"/>
       <c r="J906" s="6"/>
       <c r="K906" s="6"/>
-      <c r="L906" s="0"/>
+      <c r="L906" s="6"/>
     </row>
     <row r="907" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="6"/>
@@ -14571,7 +14551,7 @@
       <c r="I907" s="6"/>
       <c r="J907" s="6"/>
       <c r="K907" s="6"/>
-      <c r="L907" s="0"/>
+      <c r="L907" s="6"/>
     </row>
     <row r="908" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="6"/>
@@ -14585,7 +14565,7 @@
       <c r="I908" s="6"/>
       <c r="J908" s="6"/>
       <c r="K908" s="6"/>
-      <c r="L908" s="0"/>
+      <c r="L908" s="6"/>
     </row>
     <row r="909" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="6"/>
@@ -14599,7 +14579,7 @@
       <c r="I909" s="6"/>
       <c r="J909" s="6"/>
       <c r="K909" s="6"/>
-      <c r="L909" s="0"/>
+      <c r="L909" s="6"/>
     </row>
     <row r="910" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="6"/>
@@ -14613,7 +14593,7 @@
       <c r="I910" s="6"/>
       <c r="J910" s="6"/>
       <c r="K910" s="6"/>
-      <c r="L910" s="0"/>
+      <c r="L910" s="6"/>
     </row>
     <row r="911" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="6"/>
@@ -14627,7 +14607,7 @@
       <c r="I911" s="6"/>
       <c r="J911" s="6"/>
       <c r="K911" s="6"/>
-      <c r="L911" s="0"/>
+      <c r="L911" s="6"/>
     </row>
     <row r="912" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="6"/>
@@ -14641,7 +14621,7 @@
       <c r="I912" s="6"/>
       <c r="J912" s="6"/>
       <c r="K912" s="6"/>
-      <c r="L912" s="0"/>
+      <c r="L912" s="6"/>
     </row>
     <row r="913" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="6"/>
@@ -14655,7 +14635,7 @@
       <c r="I913" s="6"/>
       <c r="J913" s="6"/>
       <c r="K913" s="6"/>
-      <c r="L913" s="0"/>
+      <c r="L913" s="6"/>
     </row>
     <row r="914" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="6"/>
@@ -14669,7 +14649,7 @@
       <c r="I914" s="6"/>
       <c r="J914" s="6"/>
       <c r="K914" s="6"/>
-      <c r="L914" s="0"/>
+      <c r="L914" s="6"/>
     </row>
     <row r="915" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="6"/>
@@ -14683,7 +14663,7 @@
       <c r="I915" s="6"/>
       <c r="J915" s="6"/>
       <c r="K915" s="6"/>
-      <c r="L915" s="0"/>
+      <c r="L915" s="6"/>
     </row>
     <row r="916" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="6"/>
@@ -14697,7 +14677,7 @@
       <c r="I916" s="6"/>
       <c r="J916" s="6"/>
       <c r="K916" s="6"/>
-      <c r="L916" s="0"/>
+      <c r="L916" s="6"/>
     </row>
     <row r="917" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="6"/>
@@ -14711,7 +14691,7 @@
       <c r="I917" s="6"/>
       <c r="J917" s="6"/>
       <c r="K917" s="6"/>
-      <c r="L917" s="0"/>
+      <c r="L917" s="6"/>
     </row>
     <row r="918" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="6"/>
@@ -14725,7 +14705,7 @@
       <c r="I918" s="6"/>
       <c r="J918" s="6"/>
       <c r="K918" s="6"/>
-      <c r="L918" s="0"/>
+      <c r="L918" s="6"/>
     </row>
     <row r="919" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="6"/>
@@ -14739,7 +14719,7 @@
       <c r="I919" s="6"/>
       <c r="J919" s="6"/>
       <c r="K919" s="6"/>
-      <c r="L919" s="0"/>
+      <c r="L919" s="6"/>
     </row>
     <row r="920" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="6"/>
@@ -14753,7 +14733,7 @@
       <c r="I920" s="6"/>
       <c r="J920" s="6"/>
       <c r="K920" s="6"/>
-      <c r="L920" s="0"/>
+      <c r="L920" s="6"/>
     </row>
     <row r="921" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="6"/>
@@ -14767,7 +14747,7 @@
       <c r="I921" s="6"/>
       <c r="J921" s="6"/>
       <c r="K921" s="6"/>
-      <c r="L921" s="0"/>
+      <c r="L921" s="6"/>
     </row>
     <row r="922" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="6"/>
@@ -14781,7 +14761,7 @@
       <c r="I922" s="6"/>
       <c r="J922" s="6"/>
       <c r="K922" s="6"/>
-      <c r="L922" s="0"/>
+      <c r="L922" s="6"/>
     </row>
     <row r="923" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="6"/>
@@ -14795,7 +14775,7 @@
       <c r="I923" s="6"/>
       <c r="J923" s="6"/>
       <c r="K923" s="6"/>
-      <c r="L923" s="0"/>
+      <c r="L923" s="6"/>
     </row>
     <row r="924" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="6"/>
@@ -14809,7 +14789,7 @@
       <c r="I924" s="6"/>
       <c r="J924" s="6"/>
       <c r="K924" s="6"/>
-      <c r="L924" s="0"/>
+      <c r="L924" s="6"/>
     </row>
     <row r="925" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="6"/>
@@ -14823,7 +14803,7 @@
       <c r="I925" s="6"/>
       <c r="J925" s="6"/>
       <c r="K925" s="6"/>
-      <c r="L925" s="0"/>
+      <c r="L925" s="6"/>
     </row>
     <row r="926" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="6"/>
@@ -14837,7 +14817,7 @@
       <c r="I926" s="6"/>
       <c r="J926" s="6"/>
       <c r="K926" s="6"/>
-      <c r="L926" s="0"/>
+      <c r="L926" s="6"/>
     </row>
     <row r="927" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="6"/>
@@ -14851,7 +14831,7 @@
       <c r="I927" s="6"/>
       <c r="J927" s="6"/>
       <c r="K927" s="6"/>
-      <c r="L927" s="0"/>
+      <c r="L927" s="6"/>
     </row>
     <row r="928" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="6"/>
@@ -14865,7 +14845,7 @@
       <c r="I928" s="6"/>
       <c r="J928" s="6"/>
       <c r="K928" s="6"/>
-      <c r="L928" s="0"/>
+      <c r="L928" s="6"/>
     </row>
     <row r="929" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="6"/>
@@ -14879,7 +14859,7 @@
       <c r="I929" s="6"/>
       <c r="J929" s="6"/>
       <c r="K929" s="6"/>
-      <c r="L929" s="0"/>
+      <c r="L929" s="6"/>
     </row>
     <row r="930" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="6"/>
@@ -14893,7 +14873,7 @@
       <c r="I930" s="6"/>
       <c r="J930" s="6"/>
       <c r="K930" s="6"/>
-      <c r="L930" s="0"/>
+      <c r="L930" s="6"/>
     </row>
     <row r="931" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="6"/>
@@ -14907,7 +14887,7 @@
       <c r="I931" s="6"/>
       <c r="J931" s="6"/>
       <c r="K931" s="6"/>
-      <c r="L931" s="0"/>
+      <c r="L931" s="6"/>
     </row>
     <row r="932" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="6"/>
@@ -14921,7 +14901,7 @@
       <c r="I932" s="6"/>
       <c r="J932" s="6"/>
       <c r="K932" s="6"/>
-      <c r="L932" s="0"/>
+      <c r="L932" s="6"/>
     </row>
     <row r="933" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="6"/>
@@ -14935,7 +14915,7 @@
       <c r="I933" s="6"/>
       <c r="J933" s="6"/>
       <c r="K933" s="6"/>
-      <c r="L933" s="0"/>
+      <c r="L933" s="6"/>
     </row>
     <row r="934" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="6"/>
@@ -14949,7 +14929,7 @@
       <c r="I934" s="6"/>
       <c r="J934" s="6"/>
       <c r="K934" s="6"/>
-      <c r="L934" s="0"/>
+      <c r="L934" s="6"/>
     </row>
     <row r="935" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="6"/>
@@ -14963,7 +14943,7 @@
       <c r="I935" s="6"/>
       <c r="J935" s="6"/>
       <c r="K935" s="6"/>
-      <c r="L935" s="0"/>
+      <c r="L935" s="6"/>
     </row>
     <row r="936" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="6"/>
@@ -14977,7 +14957,7 @@
       <c r="I936" s="6"/>
       <c r="J936" s="6"/>
       <c r="K936" s="6"/>
-      <c r="L936" s="0"/>
+      <c r="L936" s="6"/>
     </row>
     <row r="937" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="6"/>
@@ -14991,7 +14971,7 @@
       <c r="I937" s="6"/>
       <c r="J937" s="6"/>
       <c r="K937" s="6"/>
-      <c r="L937" s="0"/>
+      <c r="L937" s="6"/>
     </row>
     <row r="938" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="6"/>
@@ -15005,7 +14985,7 @@
       <c r="I938" s="6"/>
       <c r="J938" s="6"/>
       <c r="K938" s="6"/>
-      <c r="L938" s="0"/>
+      <c r="L938" s="6"/>
     </row>
     <row r="939" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="6"/>
@@ -15019,7 +14999,7 @@
       <c r="I939" s="6"/>
       <c r="J939" s="6"/>
       <c r="K939" s="6"/>
-      <c r="L939" s="0"/>
+      <c r="L939" s="6"/>
     </row>
     <row r="940" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="6"/>
@@ -15033,7 +15013,7 @@
       <c r="I940" s="6"/>
       <c r="J940" s="6"/>
       <c r="K940" s="6"/>
-      <c r="L940" s="0"/>
+      <c r="L940" s="6"/>
     </row>
     <row r="941" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="6"/>
@@ -15047,7 +15027,7 @@
       <c r="I941" s="6"/>
       <c r="J941" s="6"/>
       <c r="K941" s="6"/>
-      <c r="L941" s="0"/>
+      <c r="L941" s="6"/>
     </row>
     <row r="942" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="6"/>
@@ -15061,7 +15041,7 @@
       <c r="I942" s="6"/>
       <c r="J942" s="6"/>
       <c r="K942" s="6"/>
-      <c r="L942" s="0"/>
+      <c r="L942" s="6"/>
     </row>
     <row r="943" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="6"/>
@@ -15075,7 +15055,7 @@
       <c r="I943" s="6"/>
       <c r="J943" s="6"/>
       <c r="K943" s="6"/>
-      <c r="L943" s="0"/>
+      <c r="L943" s="6"/>
     </row>
     <row r="944" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="6"/>
@@ -15089,7 +15069,7 @@
       <c r="I944" s="6"/>
       <c r="J944" s="6"/>
       <c r="K944" s="6"/>
-      <c r="L944" s="0"/>
+      <c r="L944" s="6"/>
     </row>
     <row r="945" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="6"/>
@@ -15103,7 +15083,7 @@
       <c r="I945" s="6"/>
       <c r="J945" s="6"/>
       <c r="K945" s="6"/>
-      <c r="L945" s="0"/>
+      <c r="L945" s="6"/>
     </row>
     <row r="946" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="6"/>
@@ -15117,7 +15097,7 @@
       <c r="I946" s="6"/>
       <c r="J946" s="6"/>
       <c r="K946" s="6"/>
-      <c r="L946" s="0"/>
+      <c r="L946" s="6"/>
     </row>
     <row r="947" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="6"/>
@@ -15131,7 +15111,7 @@
       <c r="I947" s="6"/>
       <c r="J947" s="6"/>
       <c r="K947" s="6"/>
-      <c r="L947" s="0"/>
+      <c r="L947" s="6"/>
     </row>
     <row r="948" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="6"/>
@@ -15145,7 +15125,7 @@
       <c r="I948" s="6"/>
       <c r="J948" s="6"/>
       <c r="K948" s="6"/>
-      <c r="L948" s="0"/>
+      <c r="L948" s="6"/>
     </row>
     <row r="949" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="6"/>
@@ -15159,7 +15139,7 @@
       <c r="I949" s="6"/>
       <c r="J949" s="6"/>
       <c r="K949" s="6"/>
-      <c r="L949" s="0"/>
+      <c r="L949" s="6"/>
     </row>
     <row r="950" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="6"/>
@@ -15173,7 +15153,7 @@
       <c r="I950" s="6"/>
       <c r="J950" s="6"/>
       <c r="K950" s="6"/>
-      <c r="L950" s="0"/>
+      <c r="L950" s="6"/>
     </row>
     <row r="951" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="6"/>
@@ -15187,7 +15167,7 @@
       <c r="I951" s="6"/>
       <c r="J951" s="6"/>
       <c r="K951" s="6"/>
-      <c r="L951" s="0"/>
+      <c r="L951" s="6"/>
     </row>
     <row r="952" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="6"/>
@@ -15201,7 +15181,7 @@
       <c r="I952" s="6"/>
       <c r="J952" s="6"/>
       <c r="K952" s="6"/>
-      <c r="L952" s="0"/>
+      <c r="L952" s="6"/>
     </row>
     <row r="953" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="6"/>
@@ -15215,7 +15195,7 @@
       <c r="I953" s="6"/>
       <c r="J953" s="6"/>
       <c r="K953" s="6"/>
-      <c r="L953" s="0"/>
+      <c r="L953" s="6"/>
     </row>
     <row r="954" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="6"/>
@@ -15229,7 +15209,7 @@
       <c r="I954" s="6"/>
       <c r="J954" s="6"/>
       <c r="K954" s="6"/>
-      <c r="L954" s="0"/>
+      <c r="L954" s="6"/>
     </row>
     <row r="955" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="6"/>
@@ -15243,7 +15223,7 @@
       <c r="I955" s="6"/>
       <c r="J955" s="6"/>
       <c r="K955" s="6"/>
-      <c r="L955" s="0"/>
+      <c r="L955" s="6"/>
     </row>
     <row r="956" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="6"/>
@@ -15257,7 +15237,7 @@
       <c r="I956" s="6"/>
       <c r="J956" s="6"/>
       <c r="K956" s="6"/>
-      <c r="L956" s="0"/>
+      <c r="L956" s="6"/>
     </row>
     <row r="957" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="6"/>
@@ -15271,7 +15251,7 @@
       <c r="I957" s="6"/>
       <c r="J957" s="6"/>
       <c r="K957" s="6"/>
-      <c r="L957" s="0"/>
+      <c r="L957" s="6"/>
     </row>
     <row r="958" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="6"/>
@@ -15285,7 +15265,7 @@
       <c r="I958" s="6"/>
       <c r="J958" s="6"/>
       <c r="K958" s="6"/>
-      <c r="L958" s="0"/>
+      <c r="L958" s="6"/>
     </row>
     <row r="959" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="6"/>
@@ -15299,7 +15279,7 @@
       <c r="I959" s="6"/>
       <c r="J959" s="6"/>
       <c r="K959" s="6"/>
-      <c r="L959" s="0"/>
+      <c r="L959" s="6"/>
     </row>
     <row r="960" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="6"/>
@@ -15313,7 +15293,7 @@
       <c r="I960" s="6"/>
       <c r="J960" s="6"/>
       <c r="K960" s="6"/>
-      <c r="L960" s="0"/>
+      <c r="L960" s="6"/>
     </row>
     <row r="961" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="6"/>
@@ -15327,7 +15307,7 @@
       <c r="I961" s="6"/>
       <c r="J961" s="6"/>
       <c r="K961" s="6"/>
-      <c r="L961" s="0"/>
+      <c r="L961" s="6"/>
     </row>
     <row r="962" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="6"/>
@@ -15341,7 +15321,7 @@
       <c r="I962" s="6"/>
       <c r="J962" s="6"/>
       <c r="K962" s="6"/>
-      <c r="L962" s="0"/>
+      <c r="L962" s="6"/>
     </row>
     <row r="963" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="6"/>
@@ -15355,7 +15335,7 @@
       <c r="I963" s="6"/>
       <c r="J963" s="6"/>
       <c r="K963" s="6"/>
-      <c r="L963" s="0"/>
+      <c r="L963" s="6"/>
     </row>
     <row r="964" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="6"/>
@@ -15369,7 +15349,7 @@
       <c r="I964" s="6"/>
       <c r="J964" s="6"/>
       <c r="K964" s="6"/>
-      <c r="L964" s="0"/>
+      <c r="L964" s="6"/>
     </row>
     <row r="965" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="6"/>
@@ -15383,7 +15363,7 @@
       <c r="I965" s="6"/>
       <c r="J965" s="6"/>
       <c r="K965" s="6"/>
-      <c r="L965" s="0"/>
+      <c r="L965" s="6"/>
     </row>
     <row r="966" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="6"/>
@@ -15397,7 +15377,7 @@
       <c r="I966" s="6"/>
       <c r="J966" s="6"/>
       <c r="K966" s="6"/>
-      <c r="L966" s="0"/>
+      <c r="L966" s="6"/>
     </row>
     <row r="967" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="6"/>
@@ -15411,7 +15391,7 @@
       <c r="I967" s="6"/>
       <c r="J967" s="6"/>
       <c r="K967" s="6"/>
-      <c r="L967" s="0"/>
+      <c r="L967" s="6"/>
     </row>
     <row r="968" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="6"/>
@@ -15425,7 +15405,7 @@
       <c r="I968" s="6"/>
       <c r="J968" s="6"/>
       <c r="K968" s="6"/>
-      <c r="L968" s="0"/>
+      <c r="L968" s="6"/>
     </row>
     <row r="969" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="6"/>
@@ -15439,7 +15419,7 @@
       <c r="I969" s="6"/>
       <c r="J969" s="6"/>
       <c r="K969" s="6"/>
-      <c r="L969" s="0"/>
+      <c r="L969" s="6"/>
     </row>
     <row r="970" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="6"/>
@@ -15453,7 +15433,7 @@
       <c r="I970" s="6"/>
       <c r="J970" s="6"/>
       <c r="K970" s="6"/>
-      <c r="L970" s="0"/>
+      <c r="L970" s="6"/>
     </row>
     <row r="971" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="6"/>
@@ -15467,7 +15447,7 @@
       <c r="I971" s="6"/>
       <c r="J971" s="6"/>
       <c r="K971" s="6"/>
-      <c r="L971" s="0"/>
+      <c r="L971" s="6"/>
     </row>
     <row r="972" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="6"/>
@@ -15481,7 +15461,7 @@
       <c r="I972" s="6"/>
       <c r="J972" s="6"/>
       <c r="K972" s="6"/>
-      <c r="L972" s="0"/>
+      <c r="L972" s="6"/>
     </row>
     <row r="973" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="6"/>
@@ -15495,7 +15475,7 @@
       <c r="I973" s="6"/>
       <c r="J973" s="6"/>
       <c r="K973" s="6"/>
-      <c r="L973" s="0"/>
+      <c r="L973" s="6"/>
     </row>
     <row r="974" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="6"/>
@@ -15509,7 +15489,7 @@
       <c r="I974" s="6"/>
       <c r="J974" s="6"/>
       <c r="K974" s="6"/>
-      <c r="L974" s="0"/>
+      <c r="L974" s="6"/>
     </row>
     <row r="975" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="6"/>
@@ -15523,7 +15503,7 @@
       <c r="I975" s="6"/>
       <c r="J975" s="6"/>
       <c r="K975" s="6"/>
-      <c r="L975" s="0"/>
+      <c r="L975" s="6"/>
     </row>
     <row r="976" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="6"/>
@@ -15537,7 +15517,7 @@
       <c r="I976" s="6"/>
       <c r="J976" s="6"/>
       <c r="K976" s="6"/>
-      <c r="L976" s="0"/>
+      <c r="L976" s="6"/>
     </row>
     <row r="977" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="6"/>
@@ -15551,7 +15531,7 @@
       <c r="I977" s="6"/>
       <c r="J977" s="6"/>
       <c r="K977" s="6"/>
-      <c r="L977" s="0"/>
+      <c r="L977" s="6"/>
     </row>
     <row r="978" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="6"/>
@@ -15565,7 +15545,7 @@
       <c r="I978" s="6"/>
       <c r="J978" s="6"/>
       <c r="K978" s="6"/>
-      <c r="L978" s="0"/>
+      <c r="L978" s="6"/>
     </row>
     <row r="979" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="6"/>
@@ -15579,7 +15559,7 @@
       <c r="I979" s="6"/>
       <c r="J979" s="6"/>
       <c r="K979" s="6"/>
-      <c r="L979" s="0"/>
+      <c r="L979" s="6"/>
     </row>
     <row r="980" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="6"/>
@@ -15593,7 +15573,7 @@
       <c r="I980" s="6"/>
       <c r="J980" s="6"/>
       <c r="K980" s="6"/>
-      <c r="L980" s="0"/>
+      <c r="L980" s="6"/>
     </row>
     <row r="981" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="6"/>
@@ -15607,7 +15587,7 @@
       <c r="I981" s="6"/>
       <c r="J981" s="6"/>
       <c r="K981" s="6"/>
-      <c r="L981" s="0"/>
+      <c r="L981" s="6"/>
     </row>
     <row r="982" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="6"/>
@@ -15621,7 +15601,7 @@
       <c r="I982" s="6"/>
       <c r="J982" s="6"/>
       <c r="K982" s="6"/>
-      <c r="L982" s="0"/>
+      <c r="L982" s="6"/>
     </row>
     <row r="983" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="6"/>
@@ -15635,7 +15615,7 @@
       <c r="I983" s="6"/>
       <c r="J983" s="6"/>
       <c r="K983" s="6"/>
-      <c r="L983" s="0"/>
+      <c r="L983" s="6"/>
     </row>
     <row r="984" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="6"/>
@@ -15649,7 +15629,7 @@
       <c r="I984" s="6"/>
       <c r="J984" s="6"/>
       <c r="K984" s="6"/>
-      <c r="L984" s="0"/>
+      <c r="L984" s="6"/>
     </row>
     <row r="985" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="6"/>
@@ -15663,7 +15643,7 @@
       <c r="I985" s="6"/>
       <c r="J985" s="6"/>
       <c r="K985" s="6"/>
-      <c r="L985" s="0"/>
+      <c r="L985" s="6"/>
     </row>
     <row r="986" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="6"/>
@@ -15677,7 +15657,7 @@
       <c r="I986" s="6"/>
       <c r="J986" s="6"/>
       <c r="K986" s="6"/>
-      <c r="L986" s="0"/>
+      <c r="L986" s="6"/>
     </row>
     <row r="987" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="6"/>
@@ -15691,7 +15671,7 @@
       <c r="I987" s="6"/>
       <c r="J987" s="6"/>
       <c r="K987" s="6"/>
-      <c r="L987" s="0"/>
+      <c r="L987" s="6"/>
     </row>
     <row r="988" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="6"/>
@@ -15705,7 +15685,7 @@
       <c r="I988" s="6"/>
       <c r="J988" s="6"/>
       <c r="K988" s="6"/>
-      <c r="L988" s="0"/>
+      <c r="L988" s="6"/>
     </row>
     <row r="989" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="6"/>
@@ -15719,7 +15699,7 @@
       <c r="I989" s="6"/>
       <c r="J989" s="6"/>
       <c r="K989" s="6"/>
-      <c r="L989" s="0"/>
+      <c r="L989" s="6"/>
     </row>
     <row r="990" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="6"/>
@@ -15733,7 +15713,7 @@
       <c r="I990" s="6"/>
       <c r="J990" s="6"/>
       <c r="K990" s="6"/>
-      <c r="L990" s="0"/>
+      <c r="L990" s="6"/>
     </row>
     <row r="991" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="6"/>
@@ -15747,7 +15727,7 @@
       <c r="I991" s="6"/>
       <c r="J991" s="6"/>
       <c r="K991" s="6"/>
-      <c r="L991" s="0"/>
+      <c r="L991" s="6"/>
     </row>
     <row r="992" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="6"/>
@@ -15761,7 +15741,7 @@
       <c r="I992" s="6"/>
       <c r="J992" s="6"/>
       <c r="K992" s="6"/>
-      <c r="L992" s="0"/>
+      <c r="L992" s="6"/>
     </row>
     <row r="993" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="6"/>
@@ -15775,7 +15755,7 @@
       <c r="I993" s="6"/>
       <c r="J993" s="6"/>
       <c r="K993" s="6"/>
-      <c r="L993" s="0"/>
+      <c r="L993" s="6"/>
     </row>
     <row r="994" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="6"/>
@@ -15789,7 +15769,7 @@
       <c r="I994" s="6"/>
       <c r="J994" s="6"/>
       <c r="K994" s="6"/>
-      <c r="L994" s="0"/>
+      <c r="L994" s="6"/>
     </row>
     <row r="995" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="6"/>
@@ -15803,7 +15783,7 @@
       <c r="I995" s="6"/>
       <c r="J995" s="6"/>
       <c r="K995" s="6"/>
-      <c r="L995" s="0"/>
+      <c r="L995" s="6"/>
     </row>
     <row r="996" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="6"/>
@@ -15817,7 +15797,7 @@
       <c r="I996" s="6"/>
       <c r="J996" s="6"/>
       <c r="K996" s="6"/>
-      <c r="L996" s="0"/>
+      <c r="L996" s="6"/>
     </row>
     <row r="997" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="6"/>
@@ -15831,7 +15811,7 @@
       <c r="I997" s="6"/>
       <c r="J997" s="6"/>
       <c r="K997" s="6"/>
-      <c r="L997" s="0"/>
+      <c r="L997" s="6"/>
     </row>
     <row r="998" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="6"/>
@@ -15845,7 +15825,7 @@
       <c r="I998" s="6"/>
       <c r="J998" s="6"/>
       <c r="K998" s="6"/>
-      <c r="L998" s="0"/>
+      <c r="L998" s="6"/>
     </row>
     <row r="999" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="6"/>
@@ -15859,7 +15839,7 @@
       <c r="I999" s="6"/>
       <c r="J999" s="6"/>
       <c r="K999" s="6"/>
-      <c r="L999" s="0"/>
+      <c r="L999" s="6"/>
     </row>
     <row r="1000" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1000" s="6"/>
@@ -15873,7 +15853,7 @@
       <c r="I1000" s="6"/>
       <c r="J1000" s="6"/>
       <c r="K1000" s="6"/>
-      <c r="L1000" s="0"/>
+      <c r="L1000" s="6"/>
     </row>
     <row r="1001" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1001" s="6"/>
@@ -15887,7 +15867,7 @@
       <c r="I1001" s="6"/>
       <c r="J1001" s="6"/>
       <c r="K1001" s="6"/>
-      <c r="L1001" s="0"/>
+      <c r="L1001" s="6"/>
     </row>
     <row r="1002" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1002" s="6"/>
@@ -15901,7 +15881,7 @@
       <c r="I1002" s="6"/>
       <c r="J1002" s="6"/>
       <c r="K1002" s="6"/>
-      <c r="L1002" s="0"/>
+      <c r="L1002" s="6"/>
     </row>
     <row r="1003" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1003" s="6"/>
@@ -15915,7 +15895,7 @@
       <c r="I1003" s="6"/>
       <c r="J1003" s="6"/>
       <c r="K1003" s="6"/>
-      <c r="L1003" s="0"/>
+      <c r="L1003" s="6"/>
     </row>
     <row r="1004" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1004" s="6"/>
@@ -15929,7 +15909,7 @@
       <c r="I1004" s="6"/>
       <c r="J1004" s="6"/>
       <c r="K1004" s="6"/>
-      <c r="L1004" s="0"/>
+      <c r="L1004" s="6"/>
     </row>
     <row r="1005" s="9" customFormat="true" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1005" s="6"/>
@@ -15943,7 +15923,7 @@
       <c r="I1005" s="6"/>
       <c r="J1005" s="6"/>
       <c r="K1005" s="6"/>
-      <c r="L1005" s="0"/>
+      <c r="L1005" s="6"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -16626,7 +16606,7 @@
       <c r="F1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -16649,7 +16629,7 @@
       <c r="F2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16672,7 +16652,7 @@
       <c r="F3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16695,7 +16675,7 @@
       <c r="F4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16718,7 +16698,7 @@
       <c r="F5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -16741,7 +16721,7 @@
       <c r="F6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16764,7 +16744,7 @@
       <c r="F7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16787,7 +16767,7 @@
       <c r="F8" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16830,7 +16810,7 @@
       <c r="F10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16853,7 +16833,7 @@
       <c r="F11" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16876,7 +16856,7 @@
       <c r="F12" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16899,7 +16879,7 @@
       <c r="F13" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16983,7 +16963,7 @@
       <c r="F18" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -17126,7 +17106,7 @@
       <c r="F25" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17149,7 +17129,7 @@
       <c r="F26" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -17172,7 +17152,7 @@
       <c r="F27" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -17255,7 +17235,7 @@
       <c r="F31" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -17342,7 +17322,7 @@
       <c r="E38" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17357,7 +17337,7 @@
       <c r="E39" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17368,10 +17348,10 @@
       <c r="D40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17382,10 +17362,10 @@
       <c r="D42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -17396,10 +17376,10 @@
       <c r="D43" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -17410,10 +17390,10 @@
       <c r="D44" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -17490,7 +17470,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -17498,15 +17478,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -17553,7 +17533,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -17564,7 +17544,7 @@
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>263</v>
       </c>
     </row>
@@ -17572,7 +17552,7 @@
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="10" t="s">
         <v>264</v>
       </c>
     </row>

--- a/cv/publications.xlsx
+++ b/cv/publications.xlsx
@@ -298,7 +298,7 @@
     <t xml:space="preserve">publishing</t>
   </si>
   <si>
-    <t xml:space="preserve">Led data analysis, documentation, and technical writing for a government-commissioned simulation project supporting environmental policy decisions*Translated complex analytical outputs into accessible, publication-ready summaries for technical and policy audiences*Collaborated with cross-disciplinary teams to ensure consistent data standards, transparency, and reproducibility*Produced Quarto-based documentation and visualizations to communicate results effectively</t>
+    <t xml:space="preserve">Led data analysis, documentation, and technical writing for a government-commissioned simulation project supporting environmental policy decisions*Translated complex analytical outputs into accessible, publication-ready summaries for technical and policy audiences*Produced Quarto-based documentation and visualizations to communicate results effectively</t>
   </si>
   <si>
     <t xml:space="preserve">Research Data &amp; Communication Specialist (Postdoctoral Project)</t>
@@ -1578,12 +1578,13 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="32.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="37.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="67.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="71.37"/>
